--- a/data/performance.xlsx
+++ b/data/performance.xlsx
@@ -14,9 +14,11 @@
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="图表" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet2" sheetId="3" r:id="rId3"/>
+    <sheet name="列表" sheetId="3" r:id="rId3"/>
+    <sheet name="性能图" sheetId="4" r:id="rId4"/>
+    <sheet name="Sheet4" sheetId="5" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -26,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="686" uniqueCount="344">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="732" uniqueCount="359">
   <si>
     <t>Title</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1356,6 +1358,66 @@
   </si>
   <si>
     <t>XC7VX690T*6</t>
+  </si>
+  <si>
+    <t>INT16</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FP32</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>INT16/8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Throughput-Optimized OpenCL-based FPGA Accelerator for Large-Scale Convolutional Neural Networks</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>INT16/8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Perf</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>log(power)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DSP</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BRAM</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LOGIC</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1429,7 +1491,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="17">
+  <borders count="18">
     <border>
       <left/>
       <right/>
@@ -1641,6 +1703,19 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1650,7 +1725,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="48">
+  <cellXfs count="53">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1675,18 +1750,6 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="5" xfId="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1697,30 +1760,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1736,12 +1775,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1">
@@ -1762,31 +1795,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1">
@@ -1794,6 +1806,84 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1901,7 +1991,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{AE6D7725-0DF7-4D38-A571-AEC474E5BD06}" type="CELLRANGE">
+                    <a:fld id="{C25F7DE9-1178-43CE-927C-C5375D9F1A4B}" type="CELLRANGE">
                       <a:rPr lang="en-US" altLang="zh-CN"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -1929,12 +2019,13 @@
             </c:dLbl>
             <c:dLbl>
               <c:idx val="1"/>
+              <c:layout/>
               <c:tx>
                 <c:rich>
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{1FDBE898-CFDC-418C-9DB0-895B4F2DC9AC}" type="CELLRANGE">
+                    <a:fld id="{B41385FA-7C75-47C3-9D22-3EC6A06DE221}" type="CELLRANGE">
                       <a:rPr lang="zh-CN" altLang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -1951,6 +2042,7 @@
               <c:showBubbleSize val="0"/>
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
                   <c15:dlblFieldTable/>
                   <c15:xForSave val="1"/>
                   <c15:showDataLabelsRange val="1"/>
@@ -1962,12 +2054,13 @@
             </c:dLbl>
             <c:dLbl>
               <c:idx val="2"/>
+              <c:layout/>
               <c:tx>
                 <c:rich>
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{D587D169-4C1E-41A1-A1B8-852A985881C8}" type="CELLRANGE">
+                    <a:fld id="{86083CA1-BCFB-4301-9AB4-FE8801206133}" type="CELLRANGE">
                       <a:rPr lang="zh-CN" altLang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -1984,6 +2077,7 @@
               <c:showBubbleSize val="0"/>
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
                   <c15:dlblFieldTable/>
                   <c15:xForSave val="1"/>
                   <c15:showDataLabelsRange val="1"/>
@@ -1995,12 +2089,13 @@
             </c:dLbl>
             <c:dLbl>
               <c:idx val="3"/>
+              <c:layout/>
               <c:tx>
                 <c:rich>
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{17573624-6DD6-4C24-9A40-27F4295B2460}" type="CELLRANGE">
+                    <a:fld id="{07BFACF8-E0DB-42E4-9238-5E023B986F7D}" type="CELLRANGE">
                       <a:rPr lang="zh-CN" altLang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -2017,6 +2112,7 @@
               <c:showBubbleSize val="0"/>
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
                   <c15:dlblFieldTable/>
                   <c15:xForSave val="1"/>
                   <c15:showDataLabelsRange val="1"/>
@@ -2028,12 +2124,13 @@
             </c:dLbl>
             <c:dLbl>
               <c:idx val="4"/>
+              <c:layout/>
               <c:tx>
                 <c:rich>
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{428A9AE2-F504-43FE-98BE-22155F26C782}" type="CELLRANGE">
+                    <a:fld id="{C770BDBE-19A4-4CF3-8BCB-1EF27635759C}" type="CELLRANGE">
                       <a:rPr lang="zh-CN" altLang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -2050,6 +2147,7 @@
               <c:showBubbleSize val="0"/>
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
                   <c15:dlblFieldTable/>
                   <c15:xForSave val="1"/>
                   <c15:showDataLabelsRange val="1"/>
@@ -2061,12 +2159,13 @@
             </c:dLbl>
             <c:dLbl>
               <c:idx val="5"/>
+              <c:layout/>
               <c:tx>
                 <c:rich>
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{D86AC6C5-831D-4A30-BB12-E9FF156E0ACA}" type="CELLRANGE">
+                    <a:fld id="{F7CC9533-BFC7-4939-902C-67D8E5AA16ED}" type="CELLRANGE">
                       <a:rPr lang="zh-CN" altLang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -2083,6 +2182,7 @@
               <c:showBubbleSize val="0"/>
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
                   <c15:dlblFieldTable/>
                   <c15:xForSave val="1"/>
                   <c15:showDataLabelsRange val="1"/>
@@ -2094,12 +2194,13 @@
             </c:dLbl>
             <c:dLbl>
               <c:idx val="6"/>
+              <c:layout/>
               <c:tx>
                 <c:rich>
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{E497E4E5-F82E-45B6-A61A-E0760A6152D9}" type="CELLRANGE">
+                    <a:fld id="{3AE76183-EDFD-48B9-9E30-1D4B51F8F489}" type="CELLRANGE">
                       <a:rPr lang="zh-CN" altLang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -2116,6 +2217,7 @@
               <c:showBubbleSize val="0"/>
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
                   <c15:dlblFieldTable/>
                   <c15:xForSave val="1"/>
                   <c15:showDataLabelsRange val="1"/>
@@ -2127,12 +2229,13 @@
             </c:dLbl>
             <c:dLbl>
               <c:idx val="7"/>
+              <c:layout/>
               <c:tx>
                 <c:rich>
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{8A3E4E17-72BB-4CF1-AB97-436977137691}" type="CELLRANGE">
+                    <a:fld id="{07EB6DB5-BCD4-4A2F-9DAE-6ADD32835D48}" type="CELLRANGE">
                       <a:rPr lang="zh-CN" altLang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -2149,6 +2252,7 @@
               <c:showBubbleSize val="0"/>
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
                   <c15:dlblFieldTable/>
                   <c15:xForSave val="1"/>
                   <c15:showDataLabelsRange val="1"/>
@@ -2184,12 +2288,13 @@
             </c:dLbl>
             <c:dLbl>
               <c:idx val="9"/>
+              <c:layout/>
               <c:tx>
                 <c:rich>
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{443F9FDF-124B-42A7-A086-E7F974B674A7}" type="CELLRANGE">
+                    <a:fld id="{F85D1B7E-421A-4AF6-8615-87C6A9FCC981}" type="CELLRANGE">
                       <a:rPr lang="zh-CN" altLang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -2206,6 +2311,7 @@
               <c:showBubbleSize val="0"/>
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
                   <c15:dlblFieldTable/>
                   <c15:xForSave val="1"/>
                   <c15:showDataLabelsRange val="1"/>
@@ -2217,12 +2323,13 @@
             </c:dLbl>
             <c:dLbl>
               <c:idx val="10"/>
+              <c:layout/>
               <c:tx>
                 <c:rich>
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{F9B3167B-AEB8-40B8-B2F7-117F5DDE2CF7}" type="CELLRANGE">
+                    <a:fld id="{4C1DAD12-F8DB-4DD2-B092-6DD72ED0005A}" type="CELLRANGE">
                       <a:rPr lang="zh-CN" altLang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -2239,6 +2346,7 @@
               <c:showBubbleSize val="0"/>
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
                   <c15:dlblFieldTable/>
                   <c15:xForSave val="1"/>
                   <c15:showDataLabelsRange val="1"/>
@@ -2250,12 +2358,13 @@
             </c:dLbl>
             <c:dLbl>
               <c:idx val="11"/>
+              <c:layout/>
               <c:tx>
                 <c:rich>
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{A21A74C3-603F-4BEF-BF91-F9F4468AC5C0}" type="CELLRANGE">
+                    <a:fld id="{A6463F52-EECB-4C7C-83D1-C70EFE8261BE}" type="CELLRANGE">
                       <a:rPr lang="zh-CN" altLang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -2272,6 +2381,7 @@
               <c:showBubbleSize val="0"/>
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
                   <c15:dlblFieldTable/>
                   <c15:xForSave val="1"/>
                   <c15:showDataLabelsRange val="1"/>
@@ -2307,12 +2417,13 @@
             </c:dLbl>
             <c:dLbl>
               <c:idx val="13"/>
+              <c:layout/>
               <c:tx>
                 <c:rich>
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{F0888A27-9CA6-4001-9238-F7536FB57FF9}" type="CELLRANGE">
+                    <a:fld id="{E88DE798-359E-4E86-879E-5854907A9C47}" type="CELLRANGE">
                       <a:rPr lang="zh-CN" altLang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -2329,6 +2440,7 @@
               <c:showBubbleSize val="0"/>
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
                   <c15:dlblFieldTable/>
                   <c15:xForSave val="1"/>
                   <c15:showDataLabelsRange val="1"/>
@@ -2340,12 +2452,13 @@
             </c:dLbl>
             <c:dLbl>
               <c:idx val="14"/>
+              <c:layout/>
               <c:tx>
                 <c:rich>
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{1B097FBF-8180-4A74-B5E7-0CE22F1FFB75}" type="CELLRANGE">
+                    <a:fld id="{409D993D-1868-4BDC-9A6A-3A472FF59B5F}" type="CELLRANGE">
                       <a:rPr lang="zh-CN" altLang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -2362,6 +2475,7 @@
               <c:showBubbleSize val="0"/>
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
                   <c15:dlblFieldTable/>
                   <c15:xForSave val="1"/>
                   <c15:showDataLabelsRange val="1"/>
@@ -2373,12 +2487,13 @@
             </c:dLbl>
             <c:dLbl>
               <c:idx val="15"/>
+              <c:layout/>
               <c:tx>
                 <c:rich>
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{5A7FF995-118B-4711-90A7-37F2847F6BD4}" type="CELLRANGE">
+                    <a:fld id="{787BEB0D-533B-441F-A63B-5F4D475E4C85}" type="CELLRANGE">
                       <a:rPr lang="zh-CN" altLang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -2395,6 +2510,7 @@
               <c:showBubbleSize val="0"/>
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
                   <c15:dlblFieldTable/>
                   <c15:xForSave val="1"/>
                   <c15:showDataLabelsRange val="1"/>
@@ -2406,12 +2522,13 @@
             </c:dLbl>
             <c:dLbl>
               <c:idx val="16"/>
+              <c:layout/>
               <c:tx>
                 <c:rich>
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{905670A3-6B43-4B22-9CF9-396AB814F0FF}" type="CELLRANGE">
+                    <a:fld id="{85316430-3CAE-416D-9392-10C751FF5372}" type="CELLRANGE">
                       <a:rPr lang="zh-CN" altLang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -2428,6 +2545,7 @@
               <c:showBubbleSize val="0"/>
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
                   <c15:dlblFieldTable/>
                   <c15:xForSave val="1"/>
                   <c15:showDataLabelsRange val="1"/>
@@ -2463,12 +2581,13 @@
             </c:dLbl>
             <c:dLbl>
               <c:idx val="18"/>
+              <c:layout/>
               <c:tx>
                 <c:rich>
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{420887D4-64A6-45CF-BC3F-D91DAA616E6A}" type="CELLRANGE">
+                    <a:fld id="{8A70F698-455A-4B10-A1CB-2D0E65999D7C}" type="CELLRANGE">
                       <a:rPr lang="zh-CN" altLang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -2485,6 +2604,7 @@
               <c:showBubbleSize val="0"/>
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
                   <c15:dlblFieldTable/>
                   <c15:xForSave val="1"/>
                   <c15:showDataLabelsRange val="1"/>
@@ -2520,12 +2640,13 @@
             </c:dLbl>
             <c:dLbl>
               <c:idx val="20"/>
+              <c:layout/>
               <c:tx>
                 <c:rich>
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{5D8E0E1C-D13A-4CB7-821D-7D14C35B3ACD}" type="CELLRANGE">
+                    <a:fld id="{3D0EBBEF-CCE0-4416-B013-F05FF736897A}" type="CELLRANGE">
                       <a:rPr lang="zh-CN" altLang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -2542,6 +2663,7 @@
               <c:showBubbleSize val="0"/>
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
                   <c15:dlblFieldTable/>
                   <c15:xForSave val="1"/>
                   <c15:showDataLabelsRange val="1"/>
@@ -2577,12 +2699,13 @@
             </c:dLbl>
             <c:dLbl>
               <c:idx val="22"/>
+              <c:layout/>
               <c:tx>
                 <c:rich>
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{114A1BB1-4534-4270-9D80-D6D202C6C805}" type="CELLRANGE">
+                    <a:fld id="{2166751D-20B8-49E3-A491-EF25811EDBFB}" type="CELLRANGE">
                       <a:rPr lang="zh-CN" altLang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -2599,6 +2722,7 @@
               <c:showBubbleSize val="0"/>
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
                   <c15:dlblFieldTable/>
                   <c15:xForSave val="1"/>
                   <c15:showDataLabelsRange val="1"/>
@@ -2634,12 +2758,13 @@
             </c:dLbl>
             <c:dLbl>
               <c:idx val="24"/>
+              <c:layout/>
               <c:tx>
                 <c:rich>
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{83598F35-EE32-49FB-A687-90843916F685}" type="CELLRANGE">
+                    <a:fld id="{E9761284-AC7E-45A6-A3E3-4BFC9BF7CD6E}" type="CELLRANGE">
                       <a:rPr lang="zh-CN" altLang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -2656,6 +2781,7 @@
               <c:showBubbleSize val="0"/>
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
                   <c15:dlblFieldTable/>
                   <c15:xForSave val="1"/>
                   <c15:showDataLabelsRange val="1"/>
@@ -2691,12 +2817,13 @@
             </c:dLbl>
             <c:dLbl>
               <c:idx val="26"/>
+              <c:layout/>
               <c:tx>
                 <c:rich>
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{4393065A-A510-47AF-ADCF-35FB2CD7309C}" type="CELLRANGE">
+                    <a:fld id="{D33A3A7B-F7D3-4981-9EA3-7AE2BCDD22AD}" type="CELLRANGE">
                       <a:rPr lang="zh-CN" altLang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -2713,6 +2840,7 @@
               <c:showBubbleSize val="0"/>
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
                   <c15:dlblFieldTable/>
                   <c15:xForSave val="1"/>
                   <c15:showDataLabelsRange val="1"/>
@@ -2724,6 +2852,7 @@
             </c:dLbl>
             <c:dLbl>
               <c:idx val="27"/>
+              <c:layout/>
               <c:tx>
                 <c:rich>
                   <a:bodyPr/>
@@ -2746,8 +2875,8 @@
               <c:showBubbleSize val="0"/>
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
                   <c15:dlblFieldTable/>
-                  <c15:xForSave val="1"/>
                   <c15:showDataLabelsRange val="1"/>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
@@ -2781,6 +2910,7 @@
             </c:dLbl>
             <c:dLbl>
               <c:idx val="29"/>
+              <c:layout/>
               <c:tx>
                 <c:rich>
                   <a:bodyPr/>
@@ -2803,8 +2933,8 @@
               <c:showBubbleSize val="0"/>
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
                   <c15:dlblFieldTable/>
-                  <c15:xForSave val="1"/>
                   <c15:showDataLabelsRange val="1"/>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
@@ -2850,6 +2980,7 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
                 <c15:showDataLabelsRange val="1"/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
@@ -3314,7 +3445,2815 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-CN"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>性能图!$F$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>1bit</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>性能图!$E$2:$E$24</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="23"/>
+                <c:pt idx="0">
+                  <c:v>0.36172783601759284</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.6812412373755872</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.35410843914740087</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.54406804435027567</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.3263358609287514</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.2810333672477277</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.3944516808262162</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.6127838567197355</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.24303804868629444</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.5735677730392186</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.98362628712453459</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1.3979400086720377</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1.3729120029701065</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1.4800069429571505</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2.2041199826559246</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.97312785359969867</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1.414973347970818</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1.6532125137753437</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.90525604874845123</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1.1199154102579911</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>1.6204483847117088</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>1.269746373130767</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>1.2929202996000062</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>性能图!$F$2:$F$24</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="23"/>
+                <c:pt idx="0">
+                  <c:v>2.5178158759023761</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4.6103407114521566</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-6785-433A-A840-C23D4D6EA527}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>性能图!$G$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>2bit</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>性能图!$E$2:$E$24</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="23"/>
+                <c:pt idx="0">
+                  <c:v>0.36172783601759284</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.6812412373755872</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.35410843914740087</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.54406804435027567</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.3263358609287514</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.2810333672477277</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.3944516808262162</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.6127838567197355</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.24303804868629444</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.5735677730392186</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.98362628712453459</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1.3979400086720377</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1.3729120029701065</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1.4800069429571505</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2.2041199826559246</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.97312785359969867</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1.414973347970818</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1.6532125137753437</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.90525604874845123</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1.1199154102579911</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>1.6204483847117088</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>1.269746373130767</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>1.2929202996000062</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>性能图!$G$2:$G$24</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="23"/>
+                <c:pt idx="2">
+                  <c:v>2.6130168302836818</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-6785-433A-A840-C23D4D6EA527}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>性能图!$H$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>INT8</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>性能图!$E$2:$E$24</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="23"/>
+                <c:pt idx="0">
+                  <c:v>0.36172783601759284</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.6812412373755872</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.35410843914740087</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.54406804435027567</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.3263358609287514</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.2810333672477277</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.3944516808262162</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.6127838567197355</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.24303804868629444</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.5735677730392186</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.98362628712453459</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1.3979400086720377</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1.3729120029701065</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1.4800069429571505</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2.2041199826559246</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.97312785359969867</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1.414973347970818</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1.6532125137753437</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.90525604874845123</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1.1199154102579911</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>1.6204483847117088</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>1.269746373130767</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>1.2929202996000062</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>性能图!$H$2:$H$24</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="23"/>
+                <c:pt idx="3">
+                  <c:v>1.9258275746247424</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-6785-433A-A840-C23D4D6EA527}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>性能图!$I$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>INT16/8</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent4"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>性能图!$E$2:$E$24</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="23"/>
+                <c:pt idx="0">
+                  <c:v>0.36172783601759284</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.6812412373755872</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.35410843914740087</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.54406804435027567</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.3263358609287514</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.2810333672477277</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.3944516808262162</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.6127838567197355</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.24303804868629444</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.5735677730392186</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.98362628712453459</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1.3979400086720377</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1.3729120029701065</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1.4800069429571505</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2.2041199826559246</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.97312785359969867</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1.414973347970818</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1.6532125137753437</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.90525604874845123</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1.1199154102579911</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>1.6204483847117088</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>1.269746373130767</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>1.2929202996000062</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>性能图!$I$2:$I$24</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="23"/>
+                <c:pt idx="4">
+                  <c:v>2.8097280132159064</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.0711452904510828</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2.346548558548474</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-6785-433A-A840-C23D4D6EA527}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>性能图!$J$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>INT16/12</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent5"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>性能图!$E$2:$E$24</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="23"/>
+                <c:pt idx="0">
+                  <c:v>0.36172783601759284</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.6812412373755872</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.35410843914740087</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.54406804435027567</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.3263358609287514</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.2810333672477277</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.3944516808262162</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.6127838567197355</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.24303804868629444</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.5735677730392186</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.98362628712453459</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1.3979400086720377</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1.3729120029701065</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1.4800069429571505</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2.2041199826559246</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.97312785359969867</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1.414973347970818</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1.6532125137753437</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.90525604874845123</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1.1199154102579911</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>1.6204483847117088</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>1.269746373130767</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>1.2929202996000062</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>性能图!$J$2:$J$24</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="23"/>
+                <c:pt idx="7">
+                  <c:v>3.4014005407815442</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-6785-433A-A840-C23D4D6EA527}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>性能图!$K$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>INT16</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent6"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>性能图!$E$2:$E$24</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="23"/>
+                <c:pt idx="0">
+                  <c:v>0.36172783601759284</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.6812412373755872</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.35410843914740087</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.54406804435027567</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.3263358609287514</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.2810333672477277</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.3944516808262162</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.6127838567197355</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.24303804868629444</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.5735677730392186</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.98362628712453459</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1.3979400086720377</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1.3729120029701065</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1.4800069429571505</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2.2041199826559246</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.97312785359969867</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1.414973347970818</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1.6532125137753437</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.90525604874845123</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1.1199154102579911</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>1.6204483847117088</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>1.269746373130767</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>1.2929202996000062</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>性能图!$K$2:$K$24</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="23"/>
+                <c:pt idx="8">
+                  <c:v>1.1048284036536553</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>3.2528530309798933</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2.1366254557609317</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2.5615783683009608</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>3.4684507215522489</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2.7527703904636067</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>3.1073117454906738</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2.3607826898732802</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2.5490032620257876</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-6785-433A-A840-C23D4D6EA527}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="6"/>
+          <c:order val="6"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>性能图!$L$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>FP16</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1">
+                    <a:lumMod val="60000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>性能图!$E$2:$E$24</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="23"/>
+                <c:pt idx="0">
+                  <c:v>0.36172783601759284</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.6812412373755872</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.35410843914740087</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.54406804435027567</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.3263358609287514</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.2810333672477277</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.3944516808262162</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.6127838567197355</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.24303804868629444</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.5735677730392186</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.98362628712453459</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1.3979400086720377</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1.3729120029701065</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1.4800069429571505</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2.2041199826559246</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.97312785359969867</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1.414973347970818</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1.6532125137753437</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.90525604874845123</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1.1199154102579911</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>1.6204483847117088</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>1.269746373130767</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>1.2929202996000062</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>性能图!$L$2:$L$24</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="23"/>
+                <c:pt idx="17">
+                  <c:v>3.1405080430381798</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000006-6785-433A-A840-C23D4D6EA527}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="7"/>
+          <c:order val="7"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>性能图!$M$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>INT32</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2">
+                    <a:lumMod val="60000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>性能图!$E$2:$E$24</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="23"/>
+                <c:pt idx="0">
+                  <c:v>0.36172783601759284</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.6812412373755872</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.35410843914740087</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.54406804435027567</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.3263358609287514</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.2810333672477277</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.3944516808262162</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.6127838567197355</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.24303804868629444</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.5735677730392186</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.98362628712453459</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1.3979400086720377</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1.3729120029701065</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1.4800069429571505</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2.2041199826559246</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.97312785359969867</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1.414973347970818</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1.6532125137753437</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.90525604874845123</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1.1199154102579911</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>1.6204483847117088</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>1.269746373130767</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>1.2929202996000062</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>性能图!$M$2:$M$24</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="23"/>
+                <c:pt idx="18">
+                  <c:v>2.3598354823398879</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000007-6785-433A-A840-C23D4D6EA527}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="8"/>
+          <c:order val="8"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>性能图!$N$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>FP32</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3">
+                    <a:lumMod val="60000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>性能图!$E$2:$E$24</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="23"/>
+                <c:pt idx="0">
+                  <c:v>0.36172783601759284</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.6812412373755872</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.35410843914740087</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.54406804435027567</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.3263358609287514</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.2810333672477277</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.3944516808262162</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.6127838567197355</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.24303804868629444</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.5735677730392186</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.98362628712453459</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1.3979400086720377</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1.3729120029701065</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1.4800069429571505</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2.2041199826559246</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.97312785359969867</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1.414973347970818</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1.6532125137753437</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.90525604874845123</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1.1199154102579911</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>1.6204483847117088</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>1.269746373130767</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>1.2929202996000062</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>性能图!$N$2:$N$24</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="23"/>
+                <c:pt idx="19">
+                  <c:v>2.0916669575956846</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2.9375178920173468</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>1.7897216939809217</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.86093662070009369</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000008-6785-433A-A840-C23D4D6EA527}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="207377152"/>
+        <c:axId val="207371744"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="207377152"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="207371744"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="207371744"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="207377152"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-CN"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="zh-CN"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-CN"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet4!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>BRAM</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet4!$A$2:$A$20</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="19"/>
+                <c:pt idx="0">
+                  <c:v>97</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>54.4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>94.54</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>87.5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>91</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>89.2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>12.5</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>65</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>40.5</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>59.56</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>39.9</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>87</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>91.9</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>78</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet4!$B$2:$B$20</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="19"/>
+                <c:pt idx="0">
+                  <c:v>58</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>88.6</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>66.64</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>85.4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>43</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>83.5</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>61.3</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>83.7</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>34.4</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>82.7</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>63.21</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>26.6</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>84</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>71</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>65.31</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>81</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-137C-4E34-8303-CA7DC8402063}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="207375488"/>
+        <c:axId val="207377568"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="207375488"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="207377568"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="207377568"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="207375488"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="zh-CN"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-CN"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-CN"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet4!$A$2:$A$20</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="19"/>
+                <c:pt idx="0">
+                  <c:v>97</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>54.4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>94.54</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>87.5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>91</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>89.2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>12.5</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>65</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>40.5</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>59.56</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>39.9</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>87</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>91.9</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>78</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet4!$C$2:$C$20</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="19"/>
+                <c:pt idx="0">
+                  <c:v>92</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>87.7</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6.07</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>53</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>86.7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>65.2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>46</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>17.600000000000001</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>11.4</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>37.700000000000003</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>65.069999999999993</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>39.700000000000003</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>89</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>83.2</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>52.04</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>42</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-2BA9-42FD-8694-D26BB437A73F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="207384640"/>
+        <c:axId val="207370080"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="207384640"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="207370080"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="207370080"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="207384640"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="zh-CN"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-CN"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-CN"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet4!$B$2:$B$21</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>58</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>88.6</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>66.64</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>85.4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>43</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>83.5</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>61.3</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>83.7</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>34.4</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>82.7</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>63.21</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>26.6</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>84</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>71</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>65.31</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>81</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet4!$C$2:$C$21</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>92</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>87.7</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6.07</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>53</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>86.7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>65.2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>46</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>17.600000000000001</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>11.4</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>37.700000000000003</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>65.069999999999993</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>39.700000000000003</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>89</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>83.2</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>52.04</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>42</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-75E0-4674-94F5-A0D0DE12A017}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="4920192"/>
+        <c:axId val="4921440"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="4920192"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="4921440"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="4921440"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="4920192"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="zh-CN"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors5.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -3870,6 +6809,2070 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
@@ -3897,6 +8900,136 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>409575</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>133350</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="图表 3"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>666750</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>66674</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>257175</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="图表 4"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>266700</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="6" name="图表 5"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>457200</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="7" name="图表 6"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -4172,7 +9305,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C6" sqref="C6:M6"/>
+      <selection pane="bottomLeft" activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -4237,12 +9370,12 @@
       </c>
     </row>
     <row r="2" spans="1:15">
-      <c r="A2" s="8" t="s">
+      <c r="A2" s="27" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="8"/>
-      <c r="C2" s="8"/>
-      <c r="D2" s="8"/>
+      <c r="B2" s="27"/>
+      <c r="C2" s="27"/>
+      <c r="D2" s="27"/>
       <c r="E2" s="1"/>
       <c r="F2" s="5"/>
       <c r="G2" s="5"/>
@@ -4795,12 +9928,12 @@
       <c r="O15" s="5"/>
     </row>
     <row r="16" spans="1:15">
-      <c r="A16" s="8" t="s">
+      <c r="A16" s="27" t="s">
         <v>21</v>
       </c>
-      <c r="B16" s="8"/>
-      <c r="C16" s="8"/>
-      <c r="D16" s="8"/>
+      <c r="B16" s="27"/>
+      <c r="C16" s="27"/>
+      <c r="D16" s="27"/>
       <c r="E16" s="1"/>
       <c r="F16" s="5"/>
       <c r="G16" s="5"/>
@@ -5242,12 +10375,12 @@
       <c r="O28" s="5"/>
     </row>
     <row r="29" spans="1:15">
-      <c r="A29" s="8" t="s">
+      <c r="A29" s="27" t="s">
         <v>30</v>
       </c>
-      <c r="B29" s="8"/>
-      <c r="C29" s="8"/>
-      <c r="D29" s="8"/>
+      <c r="B29" s="27"/>
+      <c r="C29" s="27"/>
+      <c r="D29" s="27"/>
       <c r="E29" s="1"/>
       <c r="F29" s="5"/>
       <c r="G29" s="5"/>
@@ -5844,12 +10977,12 @@
       <c r="O44" s="5"/>
     </row>
     <row r="45" spans="1:15">
-      <c r="A45" s="9" t="s">
+      <c r="A45" s="28" t="s">
         <v>75</v>
       </c>
-      <c r="B45" s="10"/>
-      <c r="C45" s="10"/>
-      <c r="D45" s="11"/>
+      <c r="B45" s="29"/>
+      <c r="C45" s="29"/>
+      <c r="D45" s="30"/>
       <c r="E45" s="1"/>
       <c r="F45" s="5"/>
       <c r="G45" s="5"/>
@@ -6007,12 +11140,12 @@
       <c r="O49" s="5"/>
     </row>
     <row r="50" spans="1:15">
-      <c r="A50" s="8" t="s">
+      <c r="A50" s="27" t="s">
         <v>7</v>
       </c>
-      <c r="B50" s="8"/>
-      <c r="C50" s="8"/>
-      <c r="D50" s="8"/>
+      <c r="B50" s="27"/>
+      <c r="C50" s="27"/>
+      <c r="D50" s="27"/>
       <c r="E50" s="1"/>
       <c r="F50" s="5"/>
       <c r="G50" s="5"/>
@@ -6067,12 +11200,12 @@
       </c>
     </row>
     <row r="52" spans="1:15">
-      <c r="A52" s="8" t="s">
+      <c r="A52" s="27" t="s">
         <v>11</v>
       </c>
-      <c r="B52" s="8"/>
-      <c r="C52" s="8"/>
-      <c r="D52" s="8"/>
+      <c r="B52" s="27"/>
+      <c r="C52" s="27"/>
+      <c r="D52" s="27"/>
       <c r="E52" s="1"/>
       <c r="F52" s="5"/>
       <c r="G52" s="5"/>
@@ -6131,12 +11264,12 @@
       <c r="O53" s="5"/>
     </row>
     <row r="54" spans="1:15">
-      <c r="A54" s="8" t="s">
+      <c r="A54" s="27" t="s">
         <v>12</v>
       </c>
-      <c r="B54" s="8"/>
-      <c r="C54" s="8"/>
-      <c r="D54" s="8"/>
+      <c r="B54" s="27"/>
+      <c r="C54" s="27"/>
+      <c r="D54" s="27"/>
       <c r="E54" s="1"/>
       <c r="F54" s="5"/>
       <c r="G54" s="5"/>
@@ -6267,12 +11400,12 @@
       </c>
     </row>
     <row r="58" spans="1:15">
-      <c r="A58" s="8" t="s">
+      <c r="A58" s="27" t="s">
         <v>15</v>
       </c>
-      <c r="B58" s="8"/>
-      <c r="C58" s="8"/>
-      <c r="D58" s="8"/>
+      <c r="B58" s="27"/>
+      <c r="C58" s="27"/>
+      <c r="D58" s="27"/>
       <c r="E58" s="1"/>
       <c r="F58" s="5"/>
       <c r="G58" s="5"/>
@@ -6368,12 +11501,12 @@
       <c r="O60" s="5"/>
     </row>
     <row r="61" spans="1:15">
-      <c r="A61" s="8" t="s">
+      <c r="A61" s="27" t="s">
         <v>18</v>
       </c>
-      <c r="B61" s="8"/>
-      <c r="C61" s="8"/>
-      <c r="D61" s="8"/>
+      <c r="B61" s="27"/>
+      <c r="C61" s="27"/>
+      <c r="D61" s="27"/>
       <c r="E61" s="1"/>
       <c r="F61" s="5"/>
       <c r="G61" s="5"/>
@@ -6426,12 +11559,12 @@
       <c r="O62" s="5"/>
     </row>
     <row r="63" spans="1:15">
-      <c r="A63" s="8" t="s">
+      <c r="A63" s="27" t="s">
         <v>23</v>
       </c>
-      <c r="B63" s="8"/>
-      <c r="C63" s="8"/>
-      <c r="D63" s="8"/>
+      <c r="B63" s="27"/>
+      <c r="C63" s="27"/>
+      <c r="D63" s="27"/>
       <c r="E63" s="1"/>
       <c r="F63" s="5"/>
       <c r="G63" s="5"/>
@@ -6558,12 +11691,12 @@
       </c>
     </row>
     <row r="67" spans="1:15">
-      <c r="A67" s="8" t="s">
+      <c r="A67" s="27" t="s">
         <v>162</v>
       </c>
-      <c r="B67" s="8"/>
-      <c r="C67" s="8"/>
-      <c r="D67" s="8"/>
+      <c r="B67" s="27"/>
+      <c r="C67" s="27"/>
+      <c r="D67" s="27"/>
       <c r="E67" s="1"/>
       <c r="F67" s="5"/>
       <c r="G67" s="5"/>
@@ -6729,12 +11862,12 @@
       <c r="O71" s="5"/>
     </row>
     <row r="72" spans="1:15">
-      <c r="A72" s="8" t="s">
+      <c r="A72" s="27" t="s">
         <v>165</v>
       </c>
-      <c r="B72" s="8"/>
-      <c r="C72" s="8"/>
-      <c r="D72" s="8"/>
+      <c r="B72" s="27"/>
+      <c r="C72" s="27"/>
+      <c r="D72" s="27"/>
       <c r="E72" s="1"/>
       <c r="F72" s="5"/>
       <c r="G72" s="5"/>
@@ -6821,7 +11954,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P33"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView topLeftCell="A19" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="A37" sqref="A37"/>
     </sheetView>
   </sheetViews>
@@ -6885,12 +12018,12 @@
       </c>
     </row>
     <row r="2" spans="1:16">
-      <c r="A2" s="8" t="s">
+      <c r="A2" s="27" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="8"/>
-      <c r="C2" s="8"/>
-      <c r="D2" s="8"/>
+      <c r="B2" s="27"/>
+      <c r="C2" s="27"/>
+      <c r="D2" s="27"/>
       <c r="E2" s="1"/>
       <c r="F2" s="5"/>
       <c r="G2" s="5"/>
@@ -7291,12 +12424,12 @@
       </c>
     </row>
     <row r="11" spans="1:16">
-      <c r="A11" s="8" t="s">
+      <c r="A11" s="27" t="s">
         <v>21</v>
       </c>
-      <c r="B11" s="8"/>
-      <c r="C11" s="8"/>
-      <c r="D11" s="8"/>
+      <c r="B11" s="27"/>
+      <c r="C11" s="27"/>
+      <c r="D11" s="27"/>
       <c r="E11" s="1"/>
       <c r="F11" s="5"/>
       <c r="G11" s="5"/>
@@ -7451,12 +12584,12 @@
       </c>
     </row>
     <row r="15" spans="1:16">
-      <c r="A15" s="8" t="s">
+      <c r="A15" s="27" t="s">
         <v>30</v>
       </c>
-      <c r="B15" s="8"/>
-      <c r="C15" s="8"/>
-      <c r="D15" s="8"/>
+      <c r="B15" s="27"/>
+      <c r="C15" s="27"/>
+      <c r="D15" s="27"/>
       <c r="E15" s="1"/>
       <c r="F15" s="5"/>
       <c r="G15" s="5"/>
@@ -7657,12 +12790,12 @@
       </c>
     </row>
     <row r="20" spans="1:16">
-      <c r="A20" s="9" t="s">
+      <c r="A20" s="28" t="s">
         <v>75</v>
       </c>
-      <c r="B20" s="10"/>
-      <c r="C20" s="10"/>
-      <c r="D20" s="11"/>
+      <c r="B20" s="29"/>
+      <c r="C20" s="29"/>
+      <c r="D20" s="30"/>
       <c r="E20" s="1"/>
       <c r="F20" s="5"/>
       <c r="G20" s="5"/>
@@ -7725,12 +12858,12 @@
       </c>
     </row>
     <row r="22" spans="1:16">
-      <c r="A22" s="8" t="s">
+      <c r="A22" s="27" t="s">
         <v>7</v>
       </c>
-      <c r="B22" s="8"/>
-      <c r="C22" s="8"/>
-      <c r="D22" s="8"/>
+      <c r="B22" s="27"/>
+      <c r="C22" s="27"/>
+      <c r="D22" s="27"/>
       <c r="E22" s="1"/>
       <c r="F22" s="5"/>
       <c r="G22" s="5"/>
@@ -7789,12 +12922,12 @@
       </c>
     </row>
     <row r="24" spans="1:16">
-      <c r="A24" s="8" t="s">
+      <c r="A24" s="27" t="s">
         <v>11</v>
       </c>
-      <c r="B24" s="8"/>
-      <c r="C24" s="8"/>
-      <c r="D24" s="8"/>
+      <c r="B24" s="27"/>
+      <c r="C24" s="27"/>
+      <c r="D24" s="27"/>
       <c r="E24" s="1"/>
       <c r="F24" s="5"/>
       <c r="G24" s="5"/>
@@ -7857,12 +12990,12 @@
       </c>
     </row>
     <row r="26" spans="1:16">
-      <c r="A26" s="8" t="s">
+      <c r="A26" s="27" t="s">
         <v>12</v>
       </c>
-      <c r="B26" s="8"/>
-      <c r="C26" s="8"/>
-      <c r="D26" s="8"/>
+      <c r="B26" s="27"/>
+      <c r="C26" s="27"/>
+      <c r="D26" s="27"/>
       <c r="E26" s="1"/>
       <c r="F26" s="5"/>
       <c r="G26" s="5"/>
@@ -7927,12 +13060,12 @@
       </c>
     </row>
     <row r="28" spans="1:16">
-      <c r="A28" s="8" t="s">
+      <c r="A28" s="27" t="s">
         <v>15</v>
       </c>
-      <c r="B28" s="8"/>
-      <c r="C28" s="8"/>
-      <c r="D28" s="8"/>
+      <c r="B28" s="27"/>
+      <c r="C28" s="27"/>
+      <c r="D28" s="27"/>
       <c r="E28" s="1"/>
       <c r="F28" s="5"/>
       <c r="G28" s="5"/>
@@ -7995,12 +13128,12 @@
       </c>
     </row>
     <row r="30" spans="1:16">
-      <c r="A30" s="8" t="s">
+      <c r="A30" s="27" t="s">
         <v>18</v>
       </c>
-      <c r="B30" s="8"/>
-      <c r="C30" s="8"/>
-      <c r="D30" s="8"/>
+      <c r="B30" s="27"/>
+      <c r="C30" s="27"/>
+      <c r="D30" s="27"/>
       <c r="E30" s="1"/>
       <c r="F30" s="5"/>
       <c r="G30" s="7">
@@ -8057,12 +13190,12 @@
       </c>
     </row>
     <row r="32" spans="1:16">
-      <c r="A32" s="8" t="s">
+      <c r="A32" s="27" t="s">
         <v>165</v>
       </c>
-      <c r="B32" s="8"/>
-      <c r="C32" s="8"/>
-      <c r="D32" s="8"/>
+      <c r="B32" s="27"/>
+      <c r="C32" s="27"/>
+      <c r="D32" s="27"/>
       <c r="E32" s="1"/>
       <c r="F32" s="5"/>
       <c r="G32" s="7">
@@ -8138,10 +13271,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N31"/>
+  <dimension ref="A1:N32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="B1" sqref="B1:J8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -8157,57 +13290,57 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14">
-      <c r="A1" s="13"/>
-      <c r="B1" s="29"/>
-      <c r="C1" s="27" t="s">
+      <c r="A1" s="43"/>
+      <c r="B1" s="35"/>
+      <c r="C1" s="15" t="s">
         <v>306</v>
       </c>
-      <c r="D1" s="25" t="s">
+      <c r="D1" s="13" t="s">
         <v>300</v>
       </c>
-      <c r="E1" s="25" t="s">
+      <c r="E1" s="13" t="s">
         <v>302</v>
       </c>
-      <c r="F1" s="25" t="s">
+      <c r="F1" s="13" t="s">
         <v>304</v>
       </c>
-      <c r="G1" s="18" t="s">
+      <c r="G1" s="41" t="s">
         <v>299</v>
       </c>
-      <c r="H1" s="18"/>
-      <c r="I1" s="19"/>
-      <c r="J1" s="16" t="s">
+      <c r="H1" s="41"/>
+      <c r="I1" s="42"/>
+      <c r="J1" s="39" t="s">
         <v>295</v>
       </c>
-      <c r="K1" s="14" t="s">
+      <c r="K1" s="35" t="s">
         <v>0</v>
       </c>
-      <c r="L1" s="14" t="s">
+      <c r="L1" s="35" t="s">
         <v>308</v>
       </c>
-      <c r="M1" s="14" t="s">
+      <c r="M1" s="35" t="s">
         <v>319</v>
       </c>
-      <c r="N1" s="22" t="s">
+      <c r="N1" s="37" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:14">
-      <c r="A2" s="13"/>
-      <c r="B2" s="30"/>
-      <c r="C2" s="28" t="s">
+      <c r="A2" s="43"/>
+      <c r="B2" s="36"/>
+      <c r="C2" s="16" t="s">
         <v>307</v>
       </c>
-      <c r="D2" s="26" t="s">
+      <c r="D2" s="14" t="s">
         <v>301</v>
       </c>
-      <c r="E2" s="26" t="s">
+      <c r="E2" s="14" t="s">
         <v>303</v>
       </c>
-      <c r="F2" s="26" t="s">
+      <c r="F2" s="14" t="s">
         <v>305</v>
       </c>
-      <c r="G2" s="24" t="s">
+      <c r="G2" s="12" t="s">
         <v>296</v>
       </c>
       <c r="H2" s="4" t="s">
@@ -8216,27 +13349,27 @@
       <c r="I2" s="4" t="s">
         <v>298</v>
       </c>
-      <c r="J2" s="17"/>
-      <c r="K2" s="15"/>
-      <c r="L2" s="15"/>
-      <c r="M2" s="15"/>
-      <c r="N2" s="23"/>
+      <c r="J2" s="40"/>
+      <c r="K2" s="36"/>
+      <c r="L2" s="36"/>
+      <c r="M2" s="36"/>
+      <c r="N2" s="38"/>
     </row>
     <row r="3" spans="1:14">
       <c r="A3" s="1" t="s">
         <v>338</v>
       </c>
-      <c r="B3" s="46"/>
-      <c r="C3" s="28" t="s">
+      <c r="B3" s="25"/>
+      <c r="C3" s="16" t="s">
         <v>341</v>
       </c>
-      <c r="D3" s="38">
+      <c r="D3" s="23">
         <v>1382</v>
       </c>
-      <c r="E3" s="38">
+      <c r="E3" s="23">
         <v>45</v>
       </c>
-      <c r="F3" s="38">
+      <c r="F3" s="23">
         <v>30.7</v>
       </c>
       <c r="G3" s="5">
@@ -8254,10 +13387,10 @@
       <c r="K3" s="1" t="s">
         <v>153</v>
       </c>
-      <c r="L3" s="32" t="s">
+      <c r="L3" s="18" t="s">
         <v>318</v>
       </c>
-      <c r="M3" s="32">
+      <c r="M3" s="18">
         <v>17</v>
       </c>
       <c r="N3" s="1" t="s">
@@ -8268,17 +13401,17 @@
       <c r="A4" s="1" t="s">
         <v>339</v>
       </c>
-      <c r="B4" s="47"/>
-      <c r="C4" s="21" t="s">
+      <c r="B4" s="26"/>
+      <c r="C4" s="11" t="s">
         <v>206</v>
       </c>
-      <c r="D4" s="39">
+      <c r="D4" s="24">
         <v>2520</v>
       </c>
-      <c r="E4" s="39">
+      <c r="E4" s="24">
         <v>41</v>
       </c>
-      <c r="F4" s="39">
+      <c r="F4" s="24">
         <v>61.5</v>
       </c>
       <c r="G4" s="5">
@@ -8299,7 +13432,7 @@
       <c r="L4" s="1" t="s">
         <v>309</v>
       </c>
-      <c r="M4" s="35">
+      <c r="M4" s="21">
         <v>17</v>
       </c>
       <c r="N4" s="1" t="s">
@@ -8314,13 +13447,13 @@
       <c r="C5" s="5" t="s">
         <v>207</v>
       </c>
-      <c r="D5" s="38">
+      <c r="D5" s="23">
         <v>12.73</v>
       </c>
-      <c r="E5" s="38">
+      <c r="E5" s="23">
         <v>1.75</v>
       </c>
-      <c r="F5" s="38">
+      <c r="F5" s="23">
         <v>7.27</v>
       </c>
       <c r="G5" s="5">
@@ -8341,7 +13474,7 @@
       <c r="L5" s="1" t="s">
         <v>309</v>
       </c>
-      <c r="M5" s="35">
+      <c r="M5" s="21">
         <v>17</v>
       </c>
       <c r="N5" s="1" t="s">
@@ -8356,13 +13489,13 @@
       <c r="C6" s="5" t="s">
         <v>210</v>
       </c>
-      <c r="D6" s="38">
+      <c r="D6" s="23">
         <v>123.5</v>
       </c>
-      <c r="E6" s="38">
+      <c r="E6" s="23">
         <v>13.18</v>
       </c>
-      <c r="F6" s="38">
+      <c r="F6" s="23">
         <v>9.3699999999999992</v>
       </c>
       <c r="G6" s="5">
@@ -8383,7 +13516,7 @@
       <c r="L6" s="1" t="s">
         <v>309</v>
       </c>
-      <c r="M6" s="35">
+      <c r="M6" s="21">
         <v>17</v>
       </c>
       <c r="N6" s="1" t="s">
@@ -8391,795 +13524,2044 @@
       </c>
     </row>
     <row r="7" spans="1:14">
-      <c r="A7" s="1" t="s">
+      <c r="A7" s="35" t="s">
         <v>320</v>
       </c>
-      <c r="B7" s="1"/>
+      <c r="B7" s="35"/>
       <c r="C7" s="5" t="s">
-        <v>211</v>
-      </c>
-      <c r="D7" s="38">
+        <v>344</v>
+      </c>
+      <c r="D7" s="23">
         <v>1790</v>
       </c>
-      <c r="E7" s="38">
+      <c r="E7" s="23">
         <v>37.46</v>
       </c>
-      <c r="F7" s="38">
+      <c r="F7" s="23">
         <v>47.8</v>
       </c>
       <c r="G7" s="5">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="H7" s="5">
         <v>43</v>
       </c>
       <c r="I7" s="5">
-        <v>46</v>
-      </c>
-      <c r="J7" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="J7" s="35" t="s">
         <v>289</v>
       </c>
-      <c r="K7" s="1" t="s">
+      <c r="K7" s="35" t="s">
         <v>113</v>
       </c>
-      <c r="L7" s="1" t="s">
+      <c r="L7" s="35" t="s">
         <v>309</v>
       </c>
       <c r="M7" s="35">
         <v>17</v>
       </c>
-      <c r="N7" s="1" t="s">
+      <c r="N7" s="47" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="8" spans="1:14">
-      <c r="A8" s="1" t="s">
-        <v>321</v>
-      </c>
-      <c r="B8" s="1"/>
-      <c r="C8" s="5" t="s">
-        <v>216</v>
-      </c>
-      <c r="D8" s="38">
-        <v>645.25</v>
-      </c>
-      <c r="E8" s="38">
-        <v>21.2</v>
-      </c>
-      <c r="F8" s="38">
-        <v>30.43</v>
-      </c>
-      <c r="G8" s="5">
-        <v>100</v>
-      </c>
-      <c r="H8" s="5">
-        <v>38</v>
-      </c>
-      <c r="I8" s="5">
-        <v>70</v>
-      </c>
-      <c r="J8" s="5" t="s">
-        <v>290</v>
-      </c>
-      <c r="K8" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="L8" s="1" t="s">
-        <v>309</v>
-      </c>
-      <c r="M8" s="35">
-        <v>17</v>
-      </c>
-      <c r="N8" s="1" t="s">
-        <v>38</v>
-      </c>
+      <c r="A8" s="36"/>
+      <c r="B8" s="36"/>
+      <c r="C8" s="9" t="s">
+        <v>345</v>
+      </c>
+      <c r="D8" s="23">
+        <v>866</v>
+      </c>
+      <c r="E8" s="23">
+        <v>41.73</v>
+      </c>
+      <c r="F8" s="23">
+        <v>20.75</v>
+      </c>
+      <c r="G8" s="9">
+        <v>87</v>
+      </c>
+      <c r="H8" s="9" t="s">
+        <v>354</v>
+      </c>
+      <c r="I8" s="9">
+        <v>46</v>
+      </c>
+      <c r="J8" s="36"/>
+      <c r="K8" s="36"/>
+      <c r="L8" s="36"/>
+      <c r="M8" s="36"/>
+      <c r="N8" s="48"/>
     </row>
     <row r="9" spans="1:14">
       <c r="A9" s="1" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="B9" s="1"/>
       <c r="C9" s="5" t="s">
-        <v>207</v>
-      </c>
-      <c r="D9" s="38">
-        <v>136.97</v>
-      </c>
-      <c r="E9" s="38">
-        <v>9.6300000000000008</v>
-      </c>
-      <c r="F9" s="38">
-        <v>14.22</v>
+        <v>346</v>
+      </c>
+      <c r="D9" s="23">
+        <v>645.25</v>
+      </c>
+      <c r="E9" s="23">
+        <v>21.2</v>
+      </c>
+      <c r="F9" s="23">
+        <v>30.43</v>
       </c>
       <c r="G9" s="5">
-        <v>89.2</v>
+        <v>100</v>
       </c>
       <c r="H9" s="5">
-        <v>83.5</v>
+        <v>38</v>
       </c>
       <c r="I9" s="5">
-        <v>86.7</v>
+        <v>70</v>
       </c>
       <c r="J9" s="5" t="s">
-        <v>280</v>
+        <v>290</v>
       </c>
       <c r="K9" s="1" t="s">
-        <v>28</v>
+        <v>37</v>
       </c>
       <c r="L9" s="1" t="s">
         <v>309</v>
       </c>
-      <c r="M9" s="35">
-        <v>16</v>
+      <c r="M9" s="21">
+        <v>17</v>
       </c>
       <c r="N9" s="1" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
     </row>
     <row r="10" spans="1:14">
       <c r="A10" s="1" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="B10" s="1"/>
       <c r="C10" s="5" t="s">
-        <v>216</v>
-      </c>
-      <c r="D10" s="38">
-        <v>117.8</v>
-      </c>
-      <c r="E10" s="38">
-        <v>19.100000000000001</v>
-      </c>
-      <c r="F10" s="38">
-        <v>6.2</v>
+        <v>207</v>
+      </c>
+      <c r="D10" s="23">
+        <v>136.97</v>
+      </c>
+      <c r="E10" s="23">
+        <v>9.6300000000000008</v>
+      </c>
+      <c r="F10" s="23">
+        <v>14.22</v>
       </c>
       <c r="G10" s="5">
-        <v>12.5</v>
+        <v>89.2</v>
       </c>
       <c r="H10" s="5">
-        <v>22</v>
+        <v>83.5</v>
       </c>
       <c r="I10" s="5">
-        <v>65.2</v>
+        <v>86.7</v>
       </c>
       <c r="J10" s="5" t="s">
-        <v>293</v>
+        <v>280</v>
       </c>
       <c r="K10" s="1" t="s">
-        <v>4</v>
+        <v>28</v>
       </c>
       <c r="L10" s="1" t="s">
         <v>309</v>
       </c>
-      <c r="M10" s="35">
+      <c r="M10" s="21">
         <v>16</v>
       </c>
       <c r="N10" s="1" t="s">
-        <v>5</v>
+        <v>29</v>
       </c>
     </row>
     <row r="11" spans="1:14">
       <c r="A11" s="1" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="B11" s="1"/>
       <c r="C11" s="5" t="s">
-        <v>210</v>
-      </c>
-      <c r="D11" s="38">
-        <v>61.62</v>
-      </c>
-      <c r="E11" s="38">
-        <v>18.61</v>
-      </c>
-      <c r="F11" s="38">
-        <v>3.3</v>
+        <v>267</v>
+      </c>
+      <c r="D11" s="23">
+        <v>117.8</v>
+      </c>
+      <c r="E11" s="23">
+        <v>19.100000000000001</v>
+      </c>
+      <c r="F11" s="23">
+        <v>6.2</v>
       </c>
       <c r="G11" s="5">
-        <v>80</v>
+        <v>12.5</v>
       </c>
       <c r="H11" s="5">
-        <v>61.3</v>
+        <v>22</v>
       </c>
       <c r="I11" s="5">
-        <v>50</v>
+        <v>65.2</v>
       </c>
       <c r="J11" s="5" t="s">
-        <v>286</v>
+        <v>293</v>
       </c>
       <c r="K11" s="1" t="s">
-        <v>26</v>
+        <v>347</v>
       </c>
       <c r="L11" s="1" t="s">
         <v>309</v>
       </c>
-      <c r="M11" s="35">
-        <v>15</v>
+      <c r="M11" s="21">
+        <v>16</v>
       </c>
       <c r="N11" s="1" t="s">
-        <v>27</v>
+        <v>5</v>
       </c>
     </row>
     <row r="12" spans="1:14">
       <c r="A12" s="1" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="B12" s="1"/>
       <c r="C12" s="5" t="s">
-        <v>207</v>
-      </c>
-      <c r="D12" s="38">
-        <v>364.4</v>
-      </c>
-      <c r="E12" s="38">
-        <v>25</v>
-      </c>
-      <c r="F12" s="38">
-        <v>14.6</v>
+        <v>210</v>
+      </c>
+      <c r="D12" s="23">
+        <v>61.62</v>
+      </c>
+      <c r="E12" s="23">
+        <v>18.61</v>
+      </c>
+      <c r="F12" s="23">
+        <v>3.3</v>
       </c>
       <c r="G12" s="5">
-        <v>65</v>
+        <v>80</v>
       </c>
       <c r="H12" s="5">
-        <v>25</v>
+        <v>61.3</v>
       </c>
       <c r="I12" s="5">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="J12" s="5" t="s">
-        <v>294</v>
+        <v>286</v>
       </c>
       <c r="K12" s="1" t="s">
-        <v>188</v>
+        <v>26</v>
       </c>
       <c r="L12" s="1" t="s">
-        <v>310</v>
-      </c>
-      <c r="M12" s="35">
-        <v>17</v>
+        <v>309</v>
+      </c>
+      <c r="M12" s="21">
+        <v>15</v>
       </c>
       <c r="N12" s="1" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
     </row>
     <row r="13" spans="1:14">
       <c r="A13" s="1" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="B13" s="1"/>
       <c r="C13" s="5" t="s">
         <v>207</v>
       </c>
-      <c r="D13" s="38">
-        <v>2940.7</v>
-      </c>
-      <c r="E13" s="38">
-        <v>23.6</v>
-      </c>
-      <c r="F13" s="38">
-        <v>124.6</v>
-      </c>
-      <c r="G13" s="5"/>
-      <c r="H13" s="5"/>
-      <c r="I13" s="5"/>
+      <c r="D13" s="23">
+        <v>364.4</v>
+      </c>
+      <c r="E13" s="23">
+        <v>25</v>
+      </c>
+      <c r="F13" s="23">
+        <v>14.6</v>
+      </c>
+      <c r="G13" s="5">
+        <v>65</v>
+      </c>
+      <c r="H13" s="5">
+        <v>25</v>
+      </c>
+      <c r="I13" s="5">
+        <v>46</v>
+      </c>
       <c r="J13" s="5" t="s">
-        <v>281</v>
+        <v>294</v>
       </c>
       <c r="K13" s="1" t="s">
-        <v>35</v>
+        <v>188</v>
       </c>
       <c r="L13" s="1" t="s">
         <v>310</v>
       </c>
-      <c r="M13" s="35">
+      <c r="M13" s="21">
         <v>17</v>
       </c>
       <c r="N13" s="1" t="s">
-        <v>36</v>
+        <v>22</v>
       </c>
     </row>
     <row r="14" spans="1:14">
       <c r="A14" s="1" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="B14" s="1"/>
       <c r="C14" s="5" t="s">
-        <v>234</v>
-      </c>
-      <c r="D14" s="38">
-        <v>229</v>
-      </c>
-      <c r="E14" s="38">
-        <v>8.0399999999999991</v>
-      </c>
-      <c r="F14" s="38">
-        <v>28.5</v>
-      </c>
-      <c r="G14" s="5">
-        <v>100</v>
-      </c>
-      <c r="H14" s="5">
-        <v>83.7</v>
-      </c>
-      <c r="I14" s="5">
-        <v>17.600000000000001</v>
+        <v>207</v>
+      </c>
+      <c r="D14" s="23">
+        <v>2940.7</v>
+      </c>
+      <c r="E14" s="23">
+        <v>23.6</v>
+      </c>
+      <c r="F14" s="23">
+        <v>124.6</v>
+      </c>
+      <c r="G14" s="5" t="s">
+        <v>355</v>
+      </c>
+      <c r="H14" s="5" t="s">
+        <v>356</v>
+      </c>
+      <c r="I14" s="5" t="s">
+        <v>355</v>
       </c>
       <c r="J14" s="5" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="K14" s="1" t="s">
-        <v>175</v>
+        <v>35</v>
       </c>
       <c r="L14" s="1" t="s">
         <v>310</v>
       </c>
-      <c r="M14" s="35">
+      <c r="M14" s="21">
         <v>17</v>
       </c>
       <c r="N14" s="1" t="s">
-        <v>155</v>
+        <v>36</v>
       </c>
     </row>
     <row r="15" spans="1:14">
       <c r="A15" s="1" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="B15" s="1"/>
       <c r="C15" s="5" t="s">
-        <v>239</v>
-      </c>
-      <c r="D15" s="38">
-        <v>329.47</v>
-      </c>
-      <c r="E15" s="38">
-        <v>2.2999999999999998</v>
-      </c>
-      <c r="F15" s="38">
-        <v>143.19999999999999</v>
+        <v>234</v>
+      </c>
+      <c r="D15" s="23">
+        <v>229</v>
+      </c>
+      <c r="E15" s="23">
+        <v>8.0399999999999991</v>
+      </c>
+      <c r="F15" s="23">
+        <v>28.5</v>
       </c>
       <c r="G15" s="5">
-        <v>0.5</v>
+        <v>100</v>
       </c>
       <c r="H15" s="5">
-        <v>34.4</v>
+        <v>83.7</v>
       </c>
       <c r="I15" s="5">
-        <v>11.4</v>
+        <v>17.600000000000001</v>
       </c>
       <c r="J15" s="5" t="s">
-        <v>219</v>
+        <v>284</v>
       </c>
       <c r="K15" s="1" t="s">
-        <v>131</v>
+        <v>175</v>
       </c>
       <c r="L15" s="1" t="s">
-        <v>311</v>
-      </c>
-      <c r="M15" s="35">
+        <v>310</v>
+      </c>
+      <c r="M15" s="21">
         <v>17</v>
       </c>
       <c r="N15" s="1" t="s">
-        <v>65</v>
+        <v>155</v>
       </c>
     </row>
     <row r="16" spans="1:14">
       <c r="A16" s="1" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="B16" s="1"/>
       <c r="C16" s="5" t="s">
-        <v>240</v>
-      </c>
-      <c r="D16" s="38">
-        <v>410.22</v>
-      </c>
-      <c r="E16" s="38">
-        <v>2.2599999999999998</v>
-      </c>
-      <c r="F16" s="38">
-        <v>181.51</v>
+        <v>239</v>
+      </c>
+      <c r="D16" s="23">
+        <v>329.47</v>
+      </c>
+      <c r="E16" s="23">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="F16" s="23">
+        <v>143.19999999999999</v>
       </c>
       <c r="G16" s="5">
-        <v>40.5</v>
+        <v>0.5</v>
       </c>
       <c r="H16" s="5">
-        <v>82.7</v>
+        <v>34.4</v>
       </c>
       <c r="I16" s="5">
-        <v>37.700000000000003</v>
+        <v>11.4</v>
       </c>
       <c r="J16" s="5" t="s">
         <v>219</v>
       </c>
       <c r="K16" s="1" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="L16" s="1" t="s">
         <v>311</v>
       </c>
-      <c r="M16" s="35">
+      <c r="M16" s="21">
         <v>17</v>
       </c>
       <c r="N16" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="17" spans="1:14">
       <c r="A17" s="1" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="B17" s="1"/>
       <c r="C17" s="5" t="s">
-        <v>239</v>
-      </c>
-      <c r="D17" s="38">
-        <v>40770</v>
-      </c>
-      <c r="E17" s="38">
-        <v>48</v>
-      </c>
-      <c r="F17" s="38">
-        <v>849.38</v>
-      </c>
-      <c r="G17" s="5"/>
-      <c r="H17" s="5"/>
-      <c r="I17" s="5"/>
+        <v>240</v>
+      </c>
+      <c r="D17" s="23">
+        <v>410.22</v>
+      </c>
+      <c r="E17" s="23">
+        <v>2.2599999999999998</v>
+      </c>
+      <c r="F17" s="23">
+        <v>181.51</v>
+      </c>
+      <c r="G17" s="5">
+        <v>40.5</v>
+      </c>
+      <c r="H17" s="5">
+        <v>82.7</v>
+      </c>
+      <c r="I17" s="5">
+        <v>37.700000000000003</v>
+      </c>
       <c r="J17" s="5" t="s">
-        <v>291</v>
+        <v>219</v>
       </c>
       <c r="K17" s="1" t="s">
-        <v>292</v>
+        <v>135</v>
       </c>
       <c r="L17" s="1" t="s">
         <v>311</v>
       </c>
-      <c r="M17" s="35">
+      <c r="M17" s="21">
         <v>17</v>
       </c>
       <c r="N17" s="1" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
     </row>
     <row r="18" spans="1:14">
       <c r="A18" s="1" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="B18" s="1"/>
       <c r="C18" s="5" t="s">
-        <v>207</v>
-      </c>
-      <c r="D18" s="38">
-        <v>565.94000000000005</v>
-      </c>
-      <c r="E18" s="38">
-        <v>30.2</v>
-      </c>
-      <c r="F18" s="38">
-        <v>22.15</v>
-      </c>
-      <c r="G18" s="5">
-        <v>59.56</v>
-      </c>
-      <c r="H18" s="5">
-        <v>63.21</v>
-      </c>
-      <c r="I18" s="5">
-        <v>65.069999999999993</v>
-      </c>
+        <v>239</v>
+      </c>
+      <c r="D18" s="23">
+        <v>40770</v>
+      </c>
+      <c r="E18" s="23">
+        <v>48</v>
+      </c>
+      <c r="F18" s="23">
+        <v>849.38</v>
+      </c>
+      <c r="G18" s="5"/>
+      <c r="H18" s="5"/>
+      <c r="I18" s="5"/>
       <c r="J18" s="5" t="s">
-        <v>288</v>
+        <v>291</v>
       </c>
       <c r="K18" s="1" t="s">
-        <v>31</v>
+        <v>292</v>
       </c>
       <c r="L18" s="1" t="s">
         <v>311</v>
       </c>
-      <c r="M18" s="35">
-        <v>16</v>
+      <c r="M18" s="21">
+        <v>17</v>
       </c>
       <c r="N18" s="1" t="s">
-        <v>32</v>
+        <v>69</v>
       </c>
     </row>
     <row r="19" spans="1:14">
       <c r="A19" s="1" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="B19" s="1"/>
       <c r="C19" s="5" t="s">
-        <v>216</v>
-      </c>
-      <c r="D19" s="38">
+        <v>207</v>
+      </c>
+      <c r="D19" s="23">
+        <v>565.94000000000005</v>
+      </c>
+      <c r="E19" s="23">
+        <v>30.2</v>
+      </c>
+      <c r="F19" s="23">
+        <v>22.15</v>
+      </c>
+      <c r="G19" s="5">
+        <v>59.56</v>
+      </c>
+      <c r="H19" s="5">
+        <v>63.21</v>
+      </c>
+      <c r="I19" s="5">
+        <v>65.069999999999993</v>
+      </c>
+      <c r="J19" s="5" t="s">
+        <v>288</v>
+      </c>
+      <c r="K19" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="L19" s="1" t="s">
+        <v>311</v>
+      </c>
+      <c r="M19" s="21">
+        <v>16</v>
+      </c>
+      <c r="N19" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14">
+      <c r="A20" s="1" t="s">
+        <v>332</v>
+      </c>
+      <c r="B20" s="1"/>
+      <c r="C20" s="5" t="s">
+        <v>348</v>
+      </c>
+      <c r="D20" s="23">
         <v>222.1</v>
       </c>
-      <c r="E19" s="38">
+      <c r="E20" s="23">
         <v>24.8</v>
       </c>
-      <c r="F19" s="38">
+      <c r="F20" s="23">
         <v>8.9600000000000009</v>
       </c>
-      <c r="G19" s="5">
+      <c r="G20" s="5">
         <v>39.9</v>
       </c>
-      <c r="H19" s="5">
+      <c r="H20" s="5">
         <v>26.6</v>
       </c>
-      <c r="I19" s="5">
+      <c r="I20" s="5">
         <v>39.700000000000003</v>
       </c>
-      <c r="J19" s="20" t="s">
+      <c r="J20" s="10" t="s">
         <v>288</v>
       </c>
-      <c r="K19" s="1" t="s">
+      <c r="K20" s="1" t="s">
         <v>156</v>
       </c>
-      <c r="L19" s="1" t="s">
+      <c r="L20" s="1" t="s">
         <v>312</v>
       </c>
-      <c r="M19" s="35">
+      <c r="M20" s="21">
         <v>16</v>
       </c>
-      <c r="N19" s="1" t="s">
+      <c r="N20" s="1" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="20" spans="1:14">
-      <c r="A20" s="14" t="s">
+    <row r="21" spans="1:14">
+      <c r="A21" s="35" t="s">
         <v>333</v>
       </c>
-      <c r="B20" s="14"/>
-      <c r="C20" s="14" t="s">
+      <c r="B21" s="35"/>
+      <c r="C21" s="35" t="s">
         <v>207</v>
       </c>
-      <c r="D20" s="40">
+      <c r="D21" s="44">
         <v>1280.3</v>
       </c>
-      <c r="E20" s="41">
+      <c r="E21" s="31">
         <v>160</v>
       </c>
-      <c r="F20" s="42">
+      <c r="F21" s="33">
         <v>8</v>
       </c>
-      <c r="G20" s="14"/>
-      <c r="H20" s="14"/>
-      <c r="I20" s="22"/>
-      <c r="J20" s="20" t="s">
+      <c r="G21" s="35" t="s">
+        <v>356</v>
+      </c>
+      <c r="H21" s="35" t="s">
+        <v>357</v>
+      </c>
+      <c r="I21" s="37" t="s">
+        <v>358</v>
+      </c>
+      <c r="J21" s="10" t="s">
         <v>342</v>
       </c>
-      <c r="K20" s="37" t="s">
+      <c r="K21" s="35" t="s">
         <v>179</v>
       </c>
-      <c r="L20" s="1" t="s">
+      <c r="L21" s="35" t="s">
         <v>313</v>
       </c>
-      <c r="M20" s="35">
+      <c r="M21" s="35">
         <v>16</v>
       </c>
-      <c r="N20" s="1" t="s">
+      <c r="N21" s="47" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="21" spans="1:14">
-      <c r="A21" s="15"/>
-      <c r="B21" s="15"/>
-      <c r="C21" s="15"/>
-      <c r="D21" s="43"/>
-      <c r="E21" s="44"/>
-      <c r="F21" s="45"/>
-      <c r="G21" s="15"/>
-      <c r="H21" s="15"/>
-      <c r="I21" s="23"/>
-      <c r="J21" s="21" t="s">
+    <row r="22" spans="1:14">
+      <c r="A22" s="36"/>
+      <c r="B22" s="36"/>
+      <c r="C22" s="36"/>
+      <c r="D22" s="45"/>
+      <c r="E22" s="32"/>
+      <c r="F22" s="34"/>
+      <c r="G22" s="36"/>
+      <c r="H22" s="36"/>
+      <c r="I22" s="38"/>
+      <c r="J22" s="11" t="s">
         <v>343</v>
       </c>
-      <c r="K21" s="37"/>
-      <c r="L21" s="1"/>
-      <c r="M21" s="35"/>
-      <c r="N21" s="1"/>
-    </row>
-    <row r="22" spans="1:14">
-      <c r="A22" s="1" t="s">
-        <v>334</v>
-      </c>
-      <c r="B22" s="1"/>
-      <c r="C22" s="5" t="s">
-        <v>315</v>
-      </c>
-      <c r="D22" s="38">
-        <v>84.3</v>
-      </c>
-      <c r="E22" s="38">
-        <v>3.5</v>
-      </c>
-      <c r="F22" s="38">
-        <v>24.1</v>
-      </c>
-      <c r="G22" s="5">
-        <v>87</v>
-      </c>
-      <c r="H22" s="5">
-        <v>84</v>
-      </c>
-      <c r="I22" s="5">
-        <v>89</v>
-      </c>
-      <c r="J22" s="21" t="s">
-        <v>285</v>
-      </c>
-      <c r="K22" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="L22" s="1" t="s">
-        <v>314</v>
-      </c>
-      <c r="M22" s="35">
-        <v>17</v>
-      </c>
-      <c r="N22" s="1" t="s">
-        <v>10</v>
-      </c>
+      <c r="K22" s="36"/>
+      <c r="L22" s="36"/>
+      <c r="M22" s="36"/>
+      <c r="N22" s="48"/>
     </row>
     <row r="23" spans="1:14">
       <c r="A23" s="1" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="B23" s="1"/>
       <c r="C23" s="5" t="s">
-        <v>207</v>
-      </c>
-      <c r="D23" s="38">
-        <v>229.5</v>
-      </c>
-      <c r="E23" s="38">
-        <v>9.4</v>
-      </c>
-      <c r="F23" s="38">
-        <v>24.42</v>
+        <v>315</v>
+      </c>
+      <c r="D23" s="23">
+        <v>84.3</v>
+      </c>
+      <c r="E23" s="23">
+        <v>3.5</v>
+      </c>
+      <c r="F23" s="23">
+        <v>24.1</v>
       </c>
       <c r="G23" s="5">
-        <v>91.9</v>
+        <v>87</v>
       </c>
       <c r="H23" s="5">
-        <v>71</v>
+        <v>84</v>
       </c>
       <c r="I23" s="5">
-        <v>83.2</v>
-      </c>
-      <c r="J23" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="J23" s="11" t="s">
         <v>285</v>
       </c>
-      <c r="K23" t="s">
-        <v>187</v>
-      </c>
-      <c r="L23" s="31" t="s">
-        <v>316</v>
-      </c>
-      <c r="M23" s="36">
+      <c r="K23" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L23" s="1" t="s">
+        <v>314</v>
+      </c>
+      <c r="M23" s="21">
         <v>17</v>
       </c>
       <c r="N23" s="1" t="s">
-        <v>83</v>
+        <v>10</v>
       </c>
     </row>
     <row r="24" spans="1:14">
       <c r="A24" s="1" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="B24" s="1"/>
       <c r="C24" s="5" t="s">
-        <v>210</v>
-      </c>
-      <c r="D24" s="38">
-        <v>7.26</v>
-      </c>
-      <c r="E24" s="38">
-        <v>19.63</v>
-      </c>
-      <c r="F24" s="38">
-        <v>0.37</v>
+        <v>207</v>
+      </c>
+      <c r="D24" s="23">
+        <v>229.5</v>
+      </c>
+      <c r="E24" s="23">
+        <v>9.4</v>
+      </c>
+      <c r="F24" s="23">
+        <v>24.42</v>
       </c>
       <c r="G24" s="5">
-        <v>42</v>
+        <v>91.9</v>
       </c>
       <c r="H24" s="5">
-        <v>65.31</v>
+        <v>71</v>
       </c>
       <c r="I24" s="5">
-        <v>52.04</v>
+        <v>83.2</v>
       </c>
       <c r="J24" s="5" t="s">
-        <v>287</v>
-      </c>
-      <c r="K24" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="L24" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="M24" s="35">
+        <v>285</v>
+      </c>
+      <c r="K24" t="s">
+        <v>187</v>
+      </c>
+      <c r="L24" s="17" t="s">
+        <v>316</v>
+      </c>
+      <c r="M24" s="22">
         <v>17</v>
       </c>
       <c r="N24" s="1" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="25" spans="1:14">
       <c r="A25" s="1" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="B25" s="1"/>
       <c r="C25" s="5" t="s">
+        <v>210</v>
+      </c>
+      <c r="D25" s="23">
+        <v>7.26</v>
+      </c>
+      <c r="E25" s="23">
+        <v>19.63</v>
+      </c>
+      <c r="F25" s="23">
+        <v>0.37</v>
+      </c>
+      <c r="G25" s="5">
+        <v>42</v>
+      </c>
+      <c r="H25" s="5">
+        <v>65.31</v>
+      </c>
+      <c r="I25" s="5">
+        <v>52.04</v>
+      </c>
+      <c r="J25" s="5" t="s">
+        <v>287</v>
+      </c>
+      <c r="K25" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="L25" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="M25" s="21">
+        <v>17</v>
+      </c>
+      <c r="N25" s="1" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14">
+      <c r="A26" s="1" t="s">
+        <v>337</v>
+      </c>
+      <c r="B26" s="1"/>
+      <c r="C26" s="5" t="s">
         <v>207</v>
       </c>
-      <c r="D25" s="38">
+      <c r="D26" s="23">
         <v>354</v>
       </c>
-      <c r="E25" s="38">
+      <c r="E26" s="23">
         <v>26</v>
       </c>
-      <c r="F25" s="38">
+      <c r="F26" s="23">
         <v>13.6</v>
       </c>
-      <c r="G25" s="5">
+      <c r="G26" s="5">
         <v>78</v>
       </c>
-      <c r="H25" s="5">
+      <c r="H26" s="5">
         <v>81</v>
       </c>
-      <c r="I25" s="5">
+      <c r="I26" s="5">
         <v>42</v>
       </c>
-      <c r="J25" s="5" t="s">
+      <c r="J26" s="5" t="s">
         <v>288</v>
       </c>
-      <c r="K25" s="1" t="s">
+      <c r="K26" s="1" t="s">
         <v>163</v>
       </c>
-      <c r="L25" s="31" t="s">
+      <c r="L26" s="17" t="s">
         <v>317</v>
       </c>
-      <c r="M25" s="36">
+      <c r="M26" s="22">
         <v>16</v>
       </c>
-      <c r="N25" s="1" t="s">
+      <c r="N26" s="1" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="31" spans="1:14">
-      <c r="C31" s="33"/>
-      <c r="D31" s="33"/>
-      <c r="E31" s="12"/>
-      <c r="F31" s="34"/>
-      <c r="G31" s="34"/>
-      <c r="H31" s="34"/>
-      <c r="I31" s="12"/>
-      <c r="J31" s="12"/>
-      <c r="L31" s="33"/>
-      <c r="M31" s="33"/>
-      <c r="N31" s="33"/>
+    <row r="32" spans="1:14">
+      <c r="C32" s="19"/>
+      <c r="D32" s="19"/>
+      <c r="E32" s="8"/>
+      <c r="F32" s="20"/>
+      <c r="G32" s="20"/>
+      <c r="H32" s="20"/>
+      <c r="I32" s="8"/>
+      <c r="J32" s="8"/>
+      <c r="L32" s="19"/>
+      <c r="M32" s="19"/>
+      <c r="N32" s="19"/>
     </row>
   </sheetData>
-  <mergeCells count="16">
-    <mergeCell ref="E20:E21"/>
-    <mergeCell ref="F20:F21"/>
-    <mergeCell ref="G20:G21"/>
-    <mergeCell ref="H20:H21"/>
-    <mergeCell ref="I20:I21"/>
-    <mergeCell ref="B20:B21"/>
+  <mergeCells count="28">
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="A21:A22"/>
+    <mergeCell ref="C21:C22"/>
+    <mergeCell ref="D21:D22"/>
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="B7:B8"/>
+    <mergeCell ref="B21:B22"/>
     <mergeCell ref="K1:K2"/>
     <mergeCell ref="J1:J2"/>
     <mergeCell ref="G1:I1"/>
     <mergeCell ref="N1:N2"/>
     <mergeCell ref="L1:L2"/>
     <mergeCell ref="M1:M2"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="A20:A21"/>
-    <mergeCell ref="C20:C21"/>
-    <mergeCell ref="D20:D21"/>
+    <mergeCell ref="J7:J8"/>
+    <mergeCell ref="K7:K8"/>
+    <mergeCell ref="L7:L8"/>
+    <mergeCell ref="M7:M8"/>
+    <mergeCell ref="N7:N8"/>
+    <mergeCell ref="K21:K22"/>
+    <mergeCell ref="L21:L22"/>
+    <mergeCell ref="M21:M22"/>
+    <mergeCell ref="N21:N22"/>
+    <mergeCell ref="E21:E22"/>
+    <mergeCell ref="F21:F22"/>
+    <mergeCell ref="G21:G22"/>
+    <mergeCell ref="H21:H22"/>
+    <mergeCell ref="I21:I22"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:X24"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L28" sqref="L28"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25"/>
+  <cols>
+    <col min="3" max="3" width="11.125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6.75" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="6.75" customWidth="1"/>
+    <col min="7" max="7" width="12.25" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.25" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:24">
+      <c r="B1" s="52"/>
+      <c r="C1" s="52" t="s">
+        <v>349</v>
+      </c>
+      <c r="D1" s="52" t="s">
+        <v>302</v>
+      </c>
+      <c r="E1" s="52" t="s">
+        <v>350</v>
+      </c>
+      <c r="F1" s="52" t="s">
+        <v>239</v>
+      </c>
+      <c r="G1" s="52" t="s">
+        <v>240</v>
+      </c>
+      <c r="H1" s="52" t="s">
+        <v>315</v>
+      </c>
+      <c r="I1" s="52" t="s">
+        <v>346</v>
+      </c>
+      <c r="J1" s="52" t="s">
+        <v>206</v>
+      </c>
+      <c r="K1" s="52" t="s">
+        <v>207</v>
+      </c>
+      <c r="L1" s="8" t="s">
+        <v>341</v>
+      </c>
+      <c r="M1" s="52" t="s">
+        <v>234</v>
+      </c>
+      <c r="N1" s="52" t="s">
+        <v>210</v>
+      </c>
+      <c r="O1" s="52"/>
+      <c r="P1" s="52"/>
+      <c r="Q1" s="52"/>
+      <c r="R1" s="52"/>
+      <c r="S1" s="52"/>
+      <c r="T1" s="52"/>
+      <c r="U1" s="52"/>
+      <c r="V1" s="52"/>
+      <c r="W1" s="52"/>
+      <c r="X1" s="46"/>
+    </row>
+    <row r="2" spans="1:24">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="52" t="s">
+        <v>239</v>
+      </c>
+      <c r="C2" s="49">
+        <v>329.47</v>
+      </c>
+      <c r="D2" s="49">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="E2" s="49">
+        <f>LOG10(D2)</f>
+        <v>0.36172783601759284</v>
+      </c>
+      <c r="F2" s="49">
+        <f>LOG10(C2)</f>
+        <v>2.5178158759023761</v>
+      </c>
+      <c r="G2" s="49"/>
+      <c r="H2" s="49"/>
+      <c r="I2" s="50"/>
+      <c r="J2" s="50"/>
+      <c r="K2" s="50"/>
+      <c r="L2" s="50"/>
+      <c r="M2" s="50"/>
+      <c r="N2" s="50"/>
+      <c r="O2" s="50"/>
+      <c r="P2" s="50"/>
+      <c r="Q2" s="50"/>
+      <c r="R2" s="50"/>
+      <c r="S2" s="50"/>
+      <c r="T2" s="50"/>
+      <c r="U2" s="50"/>
+      <c r="V2" s="50"/>
+      <c r="W2" s="50"/>
+    </row>
+    <row r="3" spans="1:24">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3" s="52" t="s">
+        <v>239</v>
+      </c>
+      <c r="C3" s="49">
+        <v>40770</v>
+      </c>
+      <c r="D3" s="49">
+        <v>48</v>
+      </c>
+      <c r="E3" s="49">
+        <f t="shared" ref="E3:E24" si="0">LOG10(D3)</f>
+        <v>1.6812412373755872</v>
+      </c>
+      <c r="F3" s="49">
+        <f>LOG10(C3)</f>
+        <v>4.6103407114521566</v>
+      </c>
+      <c r="G3" s="49"/>
+      <c r="H3" s="49"/>
+      <c r="I3" s="50"/>
+      <c r="J3" s="50"/>
+      <c r="K3" s="50"/>
+      <c r="L3" s="50"/>
+      <c r="M3" s="50"/>
+      <c r="N3" s="50"/>
+      <c r="O3" s="50"/>
+      <c r="P3" s="50"/>
+      <c r="Q3" s="50"/>
+      <c r="R3" s="50"/>
+      <c r="S3" s="50"/>
+      <c r="T3" s="50"/>
+      <c r="U3" s="50"/>
+      <c r="V3" s="50"/>
+      <c r="W3" s="50"/>
+    </row>
+    <row r="4" spans="1:24">
+      <c r="A4">
+        <v>2</v>
+      </c>
+      <c r="B4" s="52" t="s">
+        <v>240</v>
+      </c>
+      <c r="C4" s="49">
+        <v>410.22</v>
+      </c>
+      <c r="D4" s="49">
+        <v>2.2599999999999998</v>
+      </c>
+      <c r="E4" s="49">
+        <f t="shared" si="0"/>
+        <v>0.35410843914740087</v>
+      </c>
+      <c r="F4" s="49"/>
+      <c r="G4" s="50">
+        <f>LOG10(C4)</f>
+        <v>2.6130168302836818</v>
+      </c>
+      <c r="H4" s="50"/>
+      <c r="I4" s="49"/>
+      <c r="J4" s="49"/>
+      <c r="K4" s="50"/>
+      <c r="L4" s="50"/>
+      <c r="M4" s="50"/>
+      <c r="N4" s="50"/>
+      <c r="O4" s="50"/>
+      <c r="P4" s="50"/>
+      <c r="Q4" s="50"/>
+      <c r="R4" s="50"/>
+      <c r="S4" s="50"/>
+      <c r="T4" s="50"/>
+      <c r="U4" s="50"/>
+      <c r="V4" s="50"/>
+      <c r="W4" s="50"/>
+    </row>
+    <row r="5" spans="1:24">
+      <c r="A5">
+        <v>64</v>
+      </c>
+      <c r="B5" s="52" t="s">
+        <v>315</v>
+      </c>
+      <c r="C5" s="49">
+        <v>84.3</v>
+      </c>
+      <c r="D5" s="49">
+        <v>3.5</v>
+      </c>
+      <c r="E5" s="49">
+        <f t="shared" si="0"/>
+        <v>0.54406804435027567</v>
+      </c>
+      <c r="F5" s="49"/>
+      <c r="G5" s="50"/>
+      <c r="H5" s="50">
+        <f>LOG10(C5)</f>
+        <v>1.9258275746247424</v>
+      </c>
+      <c r="I5" s="50"/>
+      <c r="J5" s="50"/>
+      <c r="K5" s="50"/>
+      <c r="L5" s="50"/>
+      <c r="M5" s="50"/>
+      <c r="N5" s="50"/>
+      <c r="O5" s="50"/>
+      <c r="P5" s="50"/>
+      <c r="Q5" s="50"/>
+      <c r="R5" s="50"/>
+      <c r="S5" s="50"/>
+      <c r="T5" s="50"/>
+      <c r="U5" s="50"/>
+      <c r="V5" s="50"/>
+      <c r="W5" s="49"/>
+      <c r="X5" s="51"/>
+    </row>
+    <row r="6" spans="1:24">
+      <c r="A6">
+        <v>128</v>
+      </c>
+      <c r="B6" s="52" t="s">
+        <v>346</v>
+      </c>
+      <c r="C6" s="49">
+        <v>645.25</v>
+      </c>
+      <c r="D6" s="49">
+        <v>21.2</v>
+      </c>
+      <c r="E6" s="49">
+        <f t="shared" si="0"/>
+        <v>1.3263358609287514</v>
+      </c>
+      <c r="F6" s="49"/>
+      <c r="G6" s="50"/>
+      <c r="H6" s="50"/>
+      <c r="I6" s="50">
+        <f>LOG10(C6)</f>
+        <v>2.8097280132159064</v>
+      </c>
+      <c r="J6" s="50"/>
+      <c r="K6" s="49"/>
+      <c r="L6" s="49"/>
+      <c r="M6" s="50"/>
+      <c r="N6" s="50"/>
+      <c r="O6" s="50"/>
+      <c r="P6" s="50"/>
+      <c r="Q6" s="50"/>
+      <c r="R6" s="50"/>
+      <c r="S6" s="50"/>
+      <c r="T6" s="50"/>
+      <c r="U6" s="50"/>
+      <c r="V6" s="50"/>
+      <c r="W6" s="50"/>
+    </row>
+    <row r="7" spans="1:24">
+      <c r="A7">
+        <v>128</v>
+      </c>
+      <c r="B7" s="52" t="s">
+        <v>267</v>
+      </c>
+      <c r="C7" s="49">
+        <v>117.8</v>
+      </c>
+      <c r="D7" s="49">
+        <v>19.100000000000001</v>
+      </c>
+      <c r="E7" s="49">
+        <f t="shared" si="0"/>
+        <v>1.2810333672477277</v>
+      </c>
+      <c r="F7" s="49"/>
+      <c r="G7" s="50"/>
+      <c r="H7" s="50"/>
+      <c r="I7" s="50">
+        <f t="shared" ref="I7:I8" si="1">LOG10(C7)</f>
+        <v>2.0711452904510828</v>
+      </c>
+      <c r="J7" s="50"/>
+      <c r="K7" s="50"/>
+      <c r="L7" s="50"/>
+      <c r="M7" s="50"/>
+      <c r="N7" s="50"/>
+      <c r="O7" s="50"/>
+      <c r="P7" s="50"/>
+      <c r="Q7" s="50"/>
+      <c r="R7" s="50"/>
+      <c r="S7" s="49"/>
+      <c r="T7" s="49"/>
+      <c r="U7" s="50"/>
+      <c r="V7" s="50"/>
+      <c r="W7" s="50"/>
+    </row>
+    <row r="8" spans="1:24">
+      <c r="A8">
+        <v>128</v>
+      </c>
+      <c r="B8" s="52" t="s">
+        <v>348</v>
+      </c>
+      <c r="C8" s="49">
+        <v>222.1</v>
+      </c>
+      <c r="D8" s="49">
+        <v>24.8</v>
+      </c>
+      <c r="E8" s="49">
+        <f t="shared" si="0"/>
+        <v>1.3944516808262162</v>
+      </c>
+      <c r="F8" s="49"/>
+      <c r="G8" s="50"/>
+      <c r="H8" s="50"/>
+      <c r="I8" s="50">
+        <f t="shared" si="1"/>
+        <v>2.346548558548474</v>
+      </c>
+      <c r="J8" s="50"/>
+      <c r="K8" s="50"/>
+      <c r="L8" s="50"/>
+      <c r="M8" s="50"/>
+      <c r="N8" s="50"/>
+      <c r="O8" s="50"/>
+      <c r="P8" s="50"/>
+      <c r="Q8" s="50"/>
+      <c r="R8" s="50"/>
+      <c r="S8" s="49"/>
+      <c r="T8" s="49"/>
+      <c r="U8" s="50"/>
+      <c r="V8" s="50"/>
+      <c r="W8" s="50"/>
+    </row>
+    <row r="9" spans="1:24">
+      <c r="A9">
+        <v>192</v>
+      </c>
+      <c r="B9" s="52" t="s">
+        <v>206</v>
+      </c>
+      <c r="C9" s="49">
+        <v>2520</v>
+      </c>
+      <c r="D9" s="49">
+        <v>41</v>
+      </c>
+      <c r="E9" s="49">
+        <f t="shared" si="0"/>
+        <v>1.6127838567197355</v>
+      </c>
+      <c r="F9" s="49"/>
+      <c r="G9" s="50"/>
+      <c r="H9" s="50"/>
+      <c r="I9" s="50"/>
+      <c r="J9" s="50">
+        <f>LOG10($C9)</f>
+        <v>3.4014005407815442</v>
+      </c>
+      <c r="K9" s="50"/>
+      <c r="L9" s="50"/>
+      <c r="M9" s="50"/>
+      <c r="N9" s="50"/>
+      <c r="O9" s="50"/>
+      <c r="P9" s="50"/>
+      <c r="Q9" s="50"/>
+      <c r="R9" s="50"/>
+      <c r="S9" s="49"/>
+      <c r="T9" s="49"/>
+      <c r="U9" s="50"/>
+      <c r="V9" s="50"/>
+      <c r="W9" s="50"/>
+    </row>
+    <row r="10" spans="1:24">
+      <c r="A10">
+        <v>256</v>
+      </c>
+      <c r="B10" s="52" t="s">
+        <v>207</v>
+      </c>
+      <c r="C10" s="49">
+        <v>12.73</v>
+      </c>
+      <c r="D10" s="49">
+        <v>1.75</v>
+      </c>
+      <c r="E10" s="49">
+        <f t="shared" si="0"/>
+        <v>0.24303804868629444</v>
+      </c>
+      <c r="F10" s="49"/>
+      <c r="G10" s="50"/>
+      <c r="H10" s="50"/>
+      <c r="I10" s="50"/>
+      <c r="J10" s="50"/>
+      <c r="K10" s="50">
+        <f>LOG10($C10)</f>
+        <v>1.1048284036536553</v>
+      </c>
+      <c r="L10" s="50"/>
+      <c r="M10" s="50"/>
+      <c r="N10" s="50"/>
+      <c r="O10" s="50"/>
+      <c r="P10" s="50"/>
+      <c r="Q10" s="49"/>
+      <c r="R10" s="49"/>
+      <c r="S10" s="50"/>
+      <c r="T10" s="50"/>
+      <c r="U10" s="50"/>
+      <c r="V10" s="50"/>
+      <c r="W10" s="50"/>
+    </row>
+    <row r="11" spans="1:24">
+      <c r="A11">
+        <v>256</v>
+      </c>
+      <c r="B11" s="52" t="s">
+        <v>344</v>
+      </c>
+      <c r="C11" s="49">
+        <v>1790</v>
+      </c>
+      <c r="D11" s="49">
+        <v>37.46</v>
+      </c>
+      <c r="E11" s="49">
+        <f t="shared" si="0"/>
+        <v>1.5735677730392186</v>
+      </c>
+      <c r="F11" s="49"/>
+      <c r="G11" s="50"/>
+      <c r="H11" s="50"/>
+      <c r="I11" s="50"/>
+      <c r="J11" s="50"/>
+      <c r="K11" s="50">
+        <f t="shared" ref="K11:N24" si="2">LOG10($C11)</f>
+        <v>3.2528530309798933</v>
+      </c>
+      <c r="L11" s="50"/>
+      <c r="M11" s="50"/>
+      <c r="N11" s="50"/>
+      <c r="O11" s="49"/>
+      <c r="P11" s="49"/>
+      <c r="Q11" s="50"/>
+      <c r="R11" s="50"/>
+      <c r="S11" s="50"/>
+      <c r="T11" s="50"/>
+      <c r="U11" s="50"/>
+      <c r="V11" s="50"/>
+      <c r="W11" s="50"/>
+    </row>
+    <row r="12" spans="1:24">
+      <c r="A12">
+        <v>256</v>
+      </c>
+      <c r="B12" s="52" t="s">
+        <v>207</v>
+      </c>
+      <c r="C12" s="49">
+        <v>136.97</v>
+      </c>
+      <c r="D12" s="49">
+        <v>9.6300000000000008</v>
+      </c>
+      <c r="E12" s="49">
+        <f t="shared" si="0"/>
+        <v>0.98362628712453459</v>
+      </c>
+      <c r="F12" s="49"/>
+      <c r="G12" s="50"/>
+      <c r="H12" s="50"/>
+      <c r="I12" s="50"/>
+      <c r="J12" s="50"/>
+      <c r="K12" s="50">
+        <f t="shared" si="2"/>
+        <v>2.1366254557609317</v>
+      </c>
+      <c r="L12" s="50"/>
+      <c r="M12" s="50"/>
+      <c r="N12" s="50"/>
+      <c r="O12" s="49"/>
+      <c r="P12" s="49"/>
+      <c r="Q12" s="50"/>
+      <c r="R12" s="50"/>
+      <c r="S12" s="50"/>
+      <c r="T12" s="50"/>
+      <c r="U12" s="50"/>
+      <c r="V12" s="50"/>
+      <c r="W12" s="50"/>
+    </row>
+    <row r="13" spans="1:24">
+      <c r="A13">
+        <v>256</v>
+      </c>
+      <c r="B13" s="52" t="s">
+        <v>207</v>
+      </c>
+      <c r="C13" s="49">
+        <v>364.4</v>
+      </c>
+      <c r="D13" s="49">
+        <v>25</v>
+      </c>
+      <c r="E13" s="49">
+        <f t="shared" si="0"/>
+        <v>1.3979400086720377</v>
+      </c>
+      <c r="F13" s="49"/>
+      <c r="G13" s="50"/>
+      <c r="H13" s="50"/>
+      <c r="I13" s="50"/>
+      <c r="J13" s="50"/>
+      <c r="K13" s="50">
+        <f t="shared" si="2"/>
+        <v>2.5615783683009608</v>
+      </c>
+      <c r="L13" s="50"/>
+      <c r="M13" s="50"/>
+      <c r="N13" s="50"/>
+      <c r="O13" s="49"/>
+      <c r="P13" s="49"/>
+      <c r="Q13" s="50"/>
+      <c r="R13" s="50"/>
+      <c r="S13" s="50"/>
+      <c r="T13" s="50"/>
+      <c r="U13" s="50"/>
+      <c r="V13" s="50"/>
+      <c r="W13" s="50"/>
+    </row>
+    <row r="14" spans="1:24">
+      <c r="A14">
+        <v>256</v>
+      </c>
+      <c r="B14" s="52" t="s">
+        <v>207</v>
+      </c>
+      <c r="C14" s="49">
+        <v>2940.7</v>
+      </c>
+      <c r="D14" s="49">
+        <v>23.6</v>
+      </c>
+      <c r="E14" s="49">
+        <f t="shared" si="0"/>
+        <v>1.3729120029701065</v>
+      </c>
+      <c r="F14" s="49"/>
+      <c r="G14" s="50"/>
+      <c r="H14" s="50"/>
+      <c r="I14" s="50"/>
+      <c r="J14" s="50"/>
+      <c r="K14" s="50">
+        <f t="shared" si="2"/>
+        <v>3.4684507215522489</v>
+      </c>
+      <c r="L14" s="50"/>
+      <c r="M14" s="50"/>
+      <c r="N14" s="50"/>
+      <c r="O14" s="49"/>
+      <c r="P14" s="49"/>
+      <c r="Q14" s="50"/>
+      <c r="R14" s="50"/>
+      <c r="S14" s="50"/>
+      <c r="T14" s="50"/>
+      <c r="U14" s="50"/>
+      <c r="V14" s="50"/>
+      <c r="W14" s="50"/>
+    </row>
+    <row r="15" spans="1:24">
+      <c r="A15">
+        <v>256</v>
+      </c>
+      <c r="B15" s="52" t="s">
+        <v>207</v>
+      </c>
+      <c r="C15" s="49">
+        <v>565.94000000000005</v>
+      </c>
+      <c r="D15" s="49">
+        <v>30.2</v>
+      </c>
+      <c r="E15" s="49">
+        <f t="shared" si="0"/>
+        <v>1.4800069429571505</v>
+      </c>
+      <c r="F15" s="49"/>
+      <c r="G15" s="50"/>
+      <c r="H15" s="50"/>
+      <c r="I15" s="50"/>
+      <c r="J15" s="50"/>
+      <c r="K15" s="50">
+        <f t="shared" si="2"/>
+        <v>2.7527703904636067</v>
+      </c>
+      <c r="L15" s="50"/>
+      <c r="M15" s="50"/>
+      <c r="N15" s="50"/>
+      <c r="O15" s="49"/>
+      <c r="P15" s="49"/>
+      <c r="Q15" s="50"/>
+      <c r="R15" s="50"/>
+      <c r="S15" s="50"/>
+      <c r="T15" s="50"/>
+      <c r="U15" s="50"/>
+      <c r="V15" s="50"/>
+      <c r="W15" s="50"/>
+    </row>
+    <row r="16" spans="1:24">
+      <c r="A16">
+        <v>256</v>
+      </c>
+      <c r="B16" s="52" t="s">
+        <v>207</v>
+      </c>
+      <c r="C16" s="49">
+        <v>1280.3</v>
+      </c>
+      <c r="D16" s="49">
+        <v>160</v>
+      </c>
+      <c r="E16" s="49">
+        <f t="shared" si="0"/>
+        <v>2.2041199826559246</v>
+      </c>
+      <c r="F16" s="49"/>
+      <c r="G16" s="50"/>
+      <c r="H16" s="50"/>
+      <c r="I16" s="50"/>
+      <c r="J16" s="50"/>
+      <c r="K16" s="50">
+        <f t="shared" si="2"/>
+        <v>3.1073117454906738</v>
+      </c>
+      <c r="L16" s="50"/>
+      <c r="M16" s="50"/>
+      <c r="N16" s="50"/>
+      <c r="O16" s="49"/>
+      <c r="P16" s="49"/>
+      <c r="Q16" s="50"/>
+      <c r="R16" s="50"/>
+      <c r="S16" s="50"/>
+      <c r="T16" s="50"/>
+      <c r="U16" s="50"/>
+      <c r="V16" s="50"/>
+      <c r="W16" s="50"/>
+    </row>
+    <row r="17" spans="1:23">
+      <c r="A17">
+        <v>256</v>
+      </c>
+      <c r="B17" s="52" t="s">
+        <v>207</v>
+      </c>
+      <c r="C17" s="49">
+        <v>229.5</v>
+      </c>
+      <c r="D17" s="49">
+        <v>9.4</v>
+      </c>
+      <c r="E17" s="49">
+        <f t="shared" si="0"/>
+        <v>0.97312785359969867</v>
+      </c>
+      <c r="F17" s="49"/>
+      <c r="G17" s="50"/>
+      <c r="H17" s="50"/>
+      <c r="I17" s="50"/>
+      <c r="J17" s="50"/>
+      <c r="K17" s="50">
+        <f t="shared" si="2"/>
+        <v>2.3607826898732802</v>
+      </c>
+      <c r="L17" s="50"/>
+      <c r="M17" s="50"/>
+      <c r="N17" s="50"/>
+      <c r="O17" s="49"/>
+      <c r="P17" s="49"/>
+      <c r="Q17" s="50"/>
+      <c r="R17" s="50"/>
+      <c r="S17" s="50"/>
+      <c r="T17" s="50"/>
+      <c r="U17" s="50"/>
+      <c r="V17" s="50"/>
+      <c r="W17" s="50"/>
+    </row>
+    <row r="18" spans="1:23">
+      <c r="A18">
+        <v>256</v>
+      </c>
+      <c r="B18" s="52" t="s">
+        <v>207</v>
+      </c>
+      <c r="C18" s="49">
+        <v>354</v>
+      </c>
+      <c r="D18" s="49">
+        <v>26</v>
+      </c>
+      <c r="E18" s="49">
+        <f t="shared" si="0"/>
+        <v>1.414973347970818</v>
+      </c>
+      <c r="F18" s="49"/>
+      <c r="G18" s="50"/>
+      <c r="H18" s="50"/>
+      <c r="I18" s="50"/>
+      <c r="J18" s="50"/>
+      <c r="K18" s="50">
+        <f t="shared" si="2"/>
+        <v>2.5490032620257876</v>
+      </c>
+      <c r="L18" s="50"/>
+      <c r="M18" s="50"/>
+      <c r="N18" s="50"/>
+      <c r="O18" s="49"/>
+      <c r="P18" s="49"/>
+      <c r="Q18" s="50"/>
+      <c r="R18" s="50"/>
+      <c r="S18" s="50"/>
+      <c r="T18" s="50"/>
+      <c r="U18" s="50"/>
+      <c r="V18" s="50"/>
+      <c r="W18" s="50"/>
+    </row>
+    <row r="19" spans="1:23">
+      <c r="A19">
+        <v>300</v>
+      </c>
+      <c r="B19" s="8" t="s">
+        <v>341</v>
+      </c>
+      <c r="C19" s="49">
+        <v>1382</v>
+      </c>
+      <c r="D19" s="49">
+        <v>45</v>
+      </c>
+      <c r="E19" s="49">
+        <f t="shared" si="0"/>
+        <v>1.6532125137753437</v>
+      </c>
+      <c r="F19" s="49"/>
+      <c r="G19" s="50"/>
+      <c r="H19" s="50"/>
+      <c r="I19" s="50"/>
+      <c r="J19" s="50"/>
+      <c r="K19" s="50"/>
+      <c r="L19" s="50">
+        <f t="shared" si="2"/>
+        <v>3.1405080430381798</v>
+      </c>
+      <c r="M19" s="50"/>
+      <c r="N19" s="50"/>
+      <c r="O19" s="49"/>
+      <c r="P19" s="49"/>
+      <c r="Q19" s="50"/>
+      <c r="R19" s="50"/>
+      <c r="S19" s="50"/>
+      <c r="T19" s="50"/>
+      <c r="U19" s="50"/>
+      <c r="V19" s="50"/>
+      <c r="W19" s="50"/>
+    </row>
+    <row r="20" spans="1:23">
+      <c r="A20">
+        <v>1024</v>
+      </c>
+      <c r="B20" s="52" t="s">
+        <v>234</v>
+      </c>
+      <c r="C20" s="49">
+        <v>229</v>
+      </c>
+      <c r="D20" s="49">
+        <v>8.0399999999999991</v>
+      </c>
+      <c r="E20" s="49">
+        <f t="shared" si="0"/>
+        <v>0.90525604874845123</v>
+      </c>
+      <c r="F20" s="49"/>
+      <c r="G20" s="50"/>
+      <c r="H20" s="50"/>
+      <c r="I20" s="50"/>
+      <c r="J20" s="50"/>
+      <c r="K20" s="50"/>
+      <c r="L20" s="50"/>
+      <c r="M20" s="50">
+        <f t="shared" si="2"/>
+        <v>2.3598354823398879</v>
+      </c>
+      <c r="N20" s="50"/>
+      <c r="O20" s="50"/>
+      <c r="P20" s="50"/>
+      <c r="Q20" s="50"/>
+      <c r="R20" s="50"/>
+      <c r="S20" s="50"/>
+      <c r="T20" s="50"/>
+      <c r="U20" s="49"/>
+      <c r="V20" s="49"/>
+      <c r="W20" s="50"/>
+    </row>
+    <row r="21" spans="1:23">
+      <c r="A21">
+        <v>1500</v>
+      </c>
+      <c r="B21" s="52" t="s">
+        <v>210</v>
+      </c>
+      <c r="C21" s="49">
+        <v>123.5</v>
+      </c>
+      <c r="D21" s="49">
+        <v>13.18</v>
+      </c>
+      <c r="E21" s="49">
+        <f t="shared" si="0"/>
+        <v>1.1199154102579911</v>
+      </c>
+      <c r="F21" s="49"/>
+      <c r="G21" s="50"/>
+      <c r="H21" s="50"/>
+      <c r="I21" s="50"/>
+      <c r="J21" s="50"/>
+      <c r="K21" s="50"/>
+      <c r="L21" s="50"/>
+      <c r="M21" s="49"/>
+      <c r="N21" s="50">
+        <f t="shared" si="2"/>
+        <v>2.0916669575956846</v>
+      </c>
+      <c r="O21" s="50"/>
+      <c r="P21" s="50"/>
+      <c r="Q21" s="50"/>
+      <c r="R21" s="50"/>
+      <c r="S21" s="50"/>
+      <c r="T21" s="50"/>
+      <c r="U21" s="50"/>
+      <c r="V21" s="50"/>
+      <c r="W21" s="50"/>
+    </row>
+    <row r="22" spans="1:23">
+      <c r="A22">
+        <v>1500</v>
+      </c>
+      <c r="B22" s="52" t="s">
+        <v>345</v>
+      </c>
+      <c r="C22" s="49">
+        <v>866</v>
+      </c>
+      <c r="D22" s="49">
+        <v>41.73</v>
+      </c>
+      <c r="E22" s="49">
+        <f t="shared" si="0"/>
+        <v>1.6204483847117088</v>
+      </c>
+      <c r="F22" s="49"/>
+      <c r="G22" s="50"/>
+      <c r="H22" s="50"/>
+      <c r="I22" s="50"/>
+      <c r="J22" s="50"/>
+      <c r="K22" s="50"/>
+      <c r="L22" s="50"/>
+      <c r="M22" s="49"/>
+      <c r="N22" s="50">
+        <f t="shared" si="2"/>
+        <v>2.9375178920173468</v>
+      </c>
+      <c r="O22" s="50"/>
+      <c r="P22" s="50"/>
+      <c r="Q22" s="50"/>
+      <c r="R22" s="50"/>
+      <c r="S22" s="50"/>
+      <c r="T22" s="50"/>
+      <c r="U22" s="50"/>
+      <c r="V22" s="50"/>
+      <c r="W22" s="50"/>
+    </row>
+    <row r="23" spans="1:23">
+      <c r="A23">
+        <v>1500</v>
+      </c>
+      <c r="B23" s="52" t="s">
+        <v>210</v>
+      </c>
+      <c r="C23" s="49">
+        <v>61.62</v>
+      </c>
+      <c r="D23" s="49">
+        <v>18.61</v>
+      </c>
+      <c r="E23" s="49">
+        <f t="shared" si="0"/>
+        <v>1.269746373130767</v>
+      </c>
+      <c r="F23" s="49"/>
+      <c r="G23" s="50"/>
+      <c r="H23" s="50"/>
+      <c r="I23" s="50"/>
+      <c r="J23" s="50"/>
+      <c r="K23" s="50"/>
+      <c r="L23" s="50"/>
+      <c r="M23" s="49"/>
+      <c r="N23" s="50">
+        <f t="shared" si="2"/>
+        <v>1.7897216939809217</v>
+      </c>
+      <c r="O23" s="50"/>
+      <c r="P23" s="50"/>
+      <c r="Q23" s="50"/>
+      <c r="R23" s="50"/>
+      <c r="S23" s="50"/>
+      <c r="T23" s="50"/>
+      <c r="U23" s="50"/>
+      <c r="V23" s="50"/>
+      <c r="W23" s="50"/>
+    </row>
+    <row r="24" spans="1:23">
+      <c r="A24">
+        <v>1500</v>
+      </c>
+      <c r="B24" s="52" t="s">
+        <v>210</v>
+      </c>
+      <c r="C24" s="49">
+        <v>7.26</v>
+      </c>
+      <c r="D24" s="49">
+        <v>19.63</v>
+      </c>
+      <c r="E24" s="49">
+        <f t="shared" si="0"/>
+        <v>1.2929202996000062</v>
+      </c>
+      <c r="N24" s="50">
+        <f t="shared" si="2"/>
+        <v>0.86093662070009369</v>
+      </c>
+    </row>
+  </sheetData>
+  <sortState ref="A3:D24">
+    <sortCondition ref="A2"/>
+  </sortState>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C20"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="T23" sqref="T23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" t="s">
+        <v>351</v>
+      </c>
+      <c r="B1" t="s">
+        <v>352</v>
+      </c>
+      <c r="C1" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" s="9">
+        <v>97</v>
+      </c>
+      <c r="B2" s="9">
+        <v>58</v>
+      </c>
+      <c r="C2" s="9">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" s="9">
+        <v>54.4</v>
+      </c>
+      <c r="B3" s="9">
+        <v>88.6</v>
+      </c>
+      <c r="C3" s="9">
+        <v>87.7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" s="9">
+        <v>94.54</v>
+      </c>
+      <c r="B4" s="9">
+        <v>66.64</v>
+      </c>
+      <c r="C4" s="9">
+        <v>6.07</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" s="9">
+        <v>87.5</v>
+      </c>
+      <c r="B5" s="9">
+        <v>85.4</v>
+      </c>
+      <c r="C5" s="9">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" s="9">
+        <v>91</v>
+      </c>
+      <c r="B6" s="9">
+        <v>43</v>
+      </c>
+      <c r="C6" s="9">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" s="9">
+        <v>100</v>
+      </c>
+      <c r="B7" s="9">
+        <v>38</v>
+      </c>
+      <c r="C7" s="9">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" s="9">
+        <v>89.2</v>
+      </c>
+      <c r="B8" s="9">
+        <v>83.5</v>
+      </c>
+      <c r="C8" s="9">
+        <v>86.7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" s="9">
+        <v>12.5</v>
+      </c>
+      <c r="B9" s="9">
+        <v>22</v>
+      </c>
+      <c r="C9" s="9">
+        <v>65.2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" s="9">
+        <v>80</v>
+      </c>
+      <c r="B10" s="9">
+        <v>61.3</v>
+      </c>
+      <c r="C10" s="9">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" s="9">
+        <v>65</v>
+      </c>
+      <c r="B11" s="9">
+        <v>25</v>
+      </c>
+      <c r="C11" s="9">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" s="9">
+        <v>100</v>
+      </c>
+      <c r="B12" s="9">
+        <v>83.7</v>
+      </c>
+      <c r="C12" s="9">
+        <v>17.600000000000001</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" s="9">
+        <v>0.5</v>
+      </c>
+      <c r="B13" s="9">
+        <v>34.4</v>
+      </c>
+      <c r="C13" s="9">
+        <v>11.4</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" s="9">
+        <v>40.5</v>
+      </c>
+      <c r="B14" s="9">
+        <v>82.7</v>
+      </c>
+      <c r="C14" s="9">
+        <v>37.700000000000003</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" s="9">
+        <v>59.56</v>
+      </c>
+      <c r="B15" s="9">
+        <v>63.21</v>
+      </c>
+      <c r="C15" s="9">
+        <v>65.069999999999993</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16" s="9">
+        <v>39.9</v>
+      </c>
+      <c r="B16" s="9">
+        <v>26.6</v>
+      </c>
+      <c r="C16" s="9">
+        <v>39.700000000000003</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" s="9">
+        <v>87</v>
+      </c>
+      <c r="B17" s="9">
+        <v>84</v>
+      </c>
+      <c r="C17" s="9">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" s="9">
+        <v>91.9</v>
+      </c>
+      <c r="B18" s="9">
+        <v>71</v>
+      </c>
+      <c r="C18" s="9">
+        <v>83.2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" s="9">
+        <v>42</v>
+      </c>
+      <c r="B19" s="9">
+        <v>65.31</v>
+      </c>
+      <c r="C19" s="9">
+        <v>52.04</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" s="9">
+        <v>78</v>
+      </c>
+      <c r="B20" s="9">
+        <v>81</v>
+      </c>
+      <c r="C20" s="9">
+        <v>42</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>
--- a/data/performance.xlsx
+++ b/data/performance.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16200" windowHeight="24810" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16200" windowHeight="24810" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="811" uniqueCount="402">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="842" uniqueCount="412">
   <si>
     <t>Title</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1378,14 +1378,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Moss, FPL17</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Jiao, FPL17</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Guo, TCAD17</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1394,18 +1386,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Ma, FPGA17</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Suda, FPGA16</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Suda, FPGA16</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Liu, FPT16</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1414,10 +1398,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Venieris, FPGA17</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Zhang, FPGA17</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1426,10 +1406,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Qiu, FPGA16</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Guan, FCCM17</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1438,10 +1414,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Lu, FCCM17</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Li, FPL16</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1458,22 +1430,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Zhang, ICCAD16</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Aydonat, FPGA17</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Podili, FCCM17</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Podili, FCCM17</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Zhang, FPGA17</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1482,18 +1442,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Zhang, FPGA15</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Guan, ASPDAC17</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Guan, ASPDAC17</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>GPU(batch-1)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1586,10 +1538,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Shen, FPGA-18</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>GPU</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1602,11 +1550,103 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Zhang, FPGA17-I</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>INT16</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[3]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[13]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[44]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[44]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[51]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[62]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[48]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[40]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[59]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[8]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[28]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[38]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[34]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[21]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[32]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[24]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[27]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[61]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[11]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[57]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[9]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[58]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[60]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[30]</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1614,7 +1654,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="6">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2105,10 +2145,43 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
@@ -2129,43 +2202,10 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="20" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="21" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2201,7 +2241,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2268,7 +2307,6 @@
           <c:dLbls>
             <c:dLbl>
               <c:idx val="0"/>
-              <c:layout/>
               <c:tx>
                 <c:rich>
                   <a:bodyPr/>
@@ -2291,7 +2329,6 @@
               <c:showBubbleSize val="0"/>
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
                   <c15:dlblFieldTable/>
                   <c15:showDataLabelsRange val="1"/>
                 </c:ext>
@@ -2302,13 +2339,12 @@
             </c:dLbl>
             <c:dLbl>
               <c:idx val="1"/>
-              <c:layout/>
-              <c:tx>
-                <c:rich>
-                  <a:bodyPr/>
-                  <a:lstStyle/>
-                  <a:p>
-                    <a:fld id="{303C0DBC-1AD9-4E24-AB59-F70B345DFA3A}" type="CELLRANGE">
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{CF0569AE-CEEA-4E12-8917-DD8839C9E7E9}" type="CELLRANGE">
                       <a:rPr lang="zh-CN" altLang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -2325,7 +2361,6 @@
               <c:showBubbleSize val="0"/>
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
                   <c15:dlblFieldTable/>
                   <c15:xForSave val="1"/>
                   <c15:showDataLabelsRange val="1"/>
@@ -2337,13 +2372,12 @@
             </c:dLbl>
             <c:dLbl>
               <c:idx val="2"/>
-              <c:layout/>
-              <c:tx>
-                <c:rich>
-                  <a:bodyPr/>
-                  <a:lstStyle/>
-                  <a:p>
-                    <a:fld id="{89D9E417-D04B-4DF8-BEDB-7C17F93A168E}" type="CELLRANGE">
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{0BDFD1BE-94B0-4E6F-944B-9A69885F6680}" type="CELLRANGE">
                       <a:rPr lang="zh-CN" altLang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -2360,7 +2394,6 @@
               <c:showBubbleSize val="0"/>
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
                   <c15:dlblFieldTable/>
                   <c15:xForSave val="1"/>
                   <c15:showDataLabelsRange val="1"/>
@@ -2372,13 +2405,12 @@
             </c:dLbl>
             <c:dLbl>
               <c:idx val="3"/>
-              <c:layout/>
-              <c:tx>
-                <c:rich>
-                  <a:bodyPr/>
-                  <a:lstStyle/>
-                  <a:p>
-                    <a:fld id="{155A33E3-C8CE-4A25-BB1C-6F9420A1979E}" type="CELLRANGE">
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{9CE40A81-E301-4312-A40E-05FB43AFDFD3}" type="CELLRANGE">
                       <a:rPr lang="zh-CN" altLang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -2395,7 +2427,6 @@
               <c:showBubbleSize val="0"/>
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
                   <c15:dlblFieldTable/>
                   <c15:xForSave val="1"/>
                   <c15:showDataLabelsRange val="1"/>
@@ -2407,13 +2438,12 @@
             </c:dLbl>
             <c:dLbl>
               <c:idx val="4"/>
-              <c:layout/>
-              <c:tx>
-                <c:rich>
-                  <a:bodyPr/>
-                  <a:lstStyle/>
-                  <a:p>
-                    <a:fld id="{3102F7E9-3002-44D9-AD2E-CD4F1BC1DBFB}" type="CELLRANGE">
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{5FE8B2A9-B9ED-4F0B-A240-E92FE12C80B6}" type="CELLRANGE">
                       <a:rPr lang="zh-CN" altLang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -2430,7 +2460,6 @@
               <c:showBubbleSize val="0"/>
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
                   <c15:dlblFieldTable/>
                   <c15:xForSave val="1"/>
                   <c15:showDataLabelsRange val="1"/>
@@ -2442,13 +2471,12 @@
             </c:dLbl>
             <c:dLbl>
               <c:idx val="5"/>
-              <c:layout/>
-              <c:tx>
-                <c:rich>
-                  <a:bodyPr/>
-                  <a:lstStyle/>
-                  <a:p>
-                    <a:fld id="{5503FEBE-DAAB-43E7-BEC2-994A4C0D0571}" type="CELLRANGE">
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{B1BD5CAE-4355-4850-B0B7-E9FD14E29886}" type="CELLRANGE">
                       <a:rPr lang="zh-CN" altLang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -2465,7 +2493,6 @@
               <c:showBubbleSize val="0"/>
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
                   <c15:dlblFieldTable/>
                   <c15:xForSave val="1"/>
                   <c15:showDataLabelsRange val="1"/>
@@ -2477,13 +2504,12 @@
             </c:dLbl>
             <c:dLbl>
               <c:idx val="6"/>
-              <c:layout/>
-              <c:tx>
-                <c:rich>
-                  <a:bodyPr/>
-                  <a:lstStyle/>
-                  <a:p>
-                    <a:fld id="{B59FA997-2852-4E27-BEE0-5D30AD8CABA6}" type="CELLRANGE">
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{C24BBED8-EB92-4CA6-BD20-68F1F722DC5F}" type="CELLRANGE">
                       <a:rPr lang="zh-CN" altLang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -2500,7 +2526,6 @@
               <c:showBubbleSize val="0"/>
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
                   <c15:dlblFieldTable/>
                   <c15:xForSave val="1"/>
                   <c15:showDataLabelsRange val="1"/>
@@ -2512,13 +2537,12 @@
             </c:dLbl>
             <c:dLbl>
               <c:idx val="7"/>
-              <c:layout/>
-              <c:tx>
-                <c:rich>
-                  <a:bodyPr/>
-                  <a:lstStyle/>
-                  <a:p>
-                    <a:fld id="{B17EDF0E-386C-47BA-A66A-A9C92FD4CB29}" type="CELLRANGE">
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{12A629BB-D149-465D-8EE2-BC52AA7D8481}" type="CELLRANGE">
                       <a:rPr lang="zh-CN" altLang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -2535,7 +2559,6 @@
               <c:showBubbleSize val="0"/>
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
                   <c15:dlblFieldTable/>
                   <c15:xForSave val="1"/>
                   <c15:showDataLabelsRange val="1"/>
@@ -2571,13 +2594,12 @@
             </c:dLbl>
             <c:dLbl>
               <c:idx val="9"/>
-              <c:layout/>
-              <c:tx>
-                <c:rich>
-                  <a:bodyPr/>
-                  <a:lstStyle/>
-                  <a:p>
-                    <a:fld id="{462D0B38-2A20-4091-99F7-48ED40887A1B}" type="CELLRANGE">
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{D495C0C0-29B1-44BD-820F-00B974F7AB5A}" type="CELLRANGE">
                       <a:rPr lang="zh-CN" altLang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -2594,7 +2616,6 @@
               <c:showBubbleSize val="0"/>
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
                   <c15:dlblFieldTable/>
                   <c15:xForSave val="1"/>
                   <c15:showDataLabelsRange val="1"/>
@@ -2606,13 +2627,12 @@
             </c:dLbl>
             <c:dLbl>
               <c:idx val="10"/>
-              <c:layout/>
-              <c:tx>
-                <c:rich>
-                  <a:bodyPr/>
-                  <a:lstStyle/>
-                  <a:p>
-                    <a:fld id="{FCF63631-2C1A-4C5F-BC77-087D9570D8C7}" type="CELLRANGE">
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{825D0EDC-8A46-42B3-A3F3-73F0EB5E20CA}" type="CELLRANGE">
                       <a:rPr lang="zh-CN" altLang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -2629,7 +2649,6 @@
               <c:showBubbleSize val="0"/>
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
                   <c15:dlblFieldTable/>
                   <c15:xForSave val="1"/>
                   <c15:showDataLabelsRange val="1"/>
@@ -2641,13 +2660,12 @@
             </c:dLbl>
             <c:dLbl>
               <c:idx val="11"/>
-              <c:layout/>
-              <c:tx>
-                <c:rich>
-                  <a:bodyPr/>
-                  <a:lstStyle/>
-                  <a:p>
-                    <a:fld id="{39A5A371-2DA9-43C4-923C-98F8807BDD0D}" type="CELLRANGE">
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{C09870EB-9050-43E3-B432-887170ED32ED}" type="CELLRANGE">
                       <a:rPr lang="zh-CN" altLang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -2664,7 +2682,6 @@
               <c:showBubbleSize val="0"/>
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
                   <c15:dlblFieldTable/>
                   <c15:xForSave val="1"/>
                   <c15:showDataLabelsRange val="1"/>
@@ -2700,13 +2717,12 @@
             </c:dLbl>
             <c:dLbl>
               <c:idx val="13"/>
-              <c:layout/>
-              <c:tx>
-                <c:rich>
-                  <a:bodyPr/>
-                  <a:lstStyle/>
-                  <a:p>
-                    <a:fld id="{E5BB0EC2-331E-4766-B434-17B5F26A44D4}" type="CELLRANGE">
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{FE604F8B-4626-42A0-8682-BFA7619E023A}" type="CELLRANGE">
                       <a:rPr lang="zh-CN" altLang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -2723,7 +2739,6 @@
               <c:showBubbleSize val="0"/>
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
                   <c15:dlblFieldTable/>
                   <c15:xForSave val="1"/>
                   <c15:showDataLabelsRange val="1"/>
@@ -2735,13 +2750,12 @@
             </c:dLbl>
             <c:dLbl>
               <c:idx val="14"/>
-              <c:layout/>
-              <c:tx>
-                <c:rich>
-                  <a:bodyPr/>
-                  <a:lstStyle/>
-                  <a:p>
-                    <a:fld id="{4A2C4261-E0F8-4D1D-9AFE-83561969EBC9}" type="CELLRANGE">
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{49EE5D15-DC14-498D-ABEB-D52128B6F163}" type="CELLRANGE">
                       <a:rPr lang="zh-CN" altLang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -2758,7 +2772,6 @@
               <c:showBubbleSize val="0"/>
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
                   <c15:dlblFieldTable/>
                   <c15:xForSave val="1"/>
                   <c15:showDataLabelsRange val="1"/>
@@ -2770,13 +2783,12 @@
             </c:dLbl>
             <c:dLbl>
               <c:idx val="15"/>
-              <c:layout/>
-              <c:tx>
-                <c:rich>
-                  <a:bodyPr/>
-                  <a:lstStyle/>
-                  <a:p>
-                    <a:fld id="{D76B14B1-295B-4868-A82A-2D43819F7295}" type="CELLRANGE">
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{946E546B-B997-4014-89C4-95CE20A37851}" type="CELLRANGE">
                       <a:rPr lang="zh-CN" altLang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -2793,7 +2805,6 @@
               <c:showBubbleSize val="0"/>
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
                   <c15:dlblFieldTable/>
                   <c15:xForSave val="1"/>
                   <c15:showDataLabelsRange val="1"/>
@@ -2805,13 +2816,12 @@
             </c:dLbl>
             <c:dLbl>
               <c:idx val="16"/>
-              <c:layout/>
-              <c:tx>
-                <c:rich>
-                  <a:bodyPr/>
-                  <a:lstStyle/>
-                  <a:p>
-                    <a:fld id="{4A7B65C0-8836-43D0-AAB7-CC5826692914}" type="CELLRANGE">
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{37AEA346-794A-4AC2-B215-1F9C4D34FAE0}" type="CELLRANGE">
                       <a:rPr lang="zh-CN" altLang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -2828,7 +2838,6 @@
               <c:showBubbleSize val="0"/>
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
                   <c15:dlblFieldTable/>
                   <c15:xForSave val="1"/>
                   <c15:showDataLabelsRange val="1"/>
@@ -2864,13 +2873,12 @@
             </c:dLbl>
             <c:dLbl>
               <c:idx val="18"/>
-              <c:layout/>
-              <c:tx>
-                <c:rich>
-                  <a:bodyPr/>
-                  <a:lstStyle/>
-                  <a:p>
-                    <a:fld id="{E1A68BCA-4987-485B-86B4-E26CE16098D3}" type="CELLRANGE">
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{45448E3A-C4B5-44F9-B5E9-460996D8DFD9}" type="CELLRANGE">
                       <a:rPr lang="zh-CN" altLang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -2887,7 +2895,6 @@
               <c:showBubbleSize val="0"/>
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
                   <c15:dlblFieldTable/>
                   <c15:xForSave val="1"/>
                   <c15:showDataLabelsRange val="1"/>
@@ -2923,13 +2930,12 @@
             </c:dLbl>
             <c:dLbl>
               <c:idx val="20"/>
-              <c:layout/>
-              <c:tx>
-                <c:rich>
-                  <a:bodyPr/>
-                  <a:lstStyle/>
-                  <a:p>
-                    <a:fld id="{279A28F8-6FA6-4F6B-AB9D-D1FC2ED01426}" type="CELLRANGE">
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{FAF76CE1-A664-41B0-8CB3-0DB11F645BB3}" type="CELLRANGE">
                       <a:rPr lang="zh-CN" altLang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -2946,7 +2952,6 @@
               <c:showBubbleSize val="0"/>
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
                   <c15:dlblFieldTable/>
                   <c15:xForSave val="1"/>
                   <c15:showDataLabelsRange val="1"/>
@@ -2982,13 +2987,12 @@
             </c:dLbl>
             <c:dLbl>
               <c:idx val="22"/>
-              <c:layout/>
-              <c:tx>
-                <c:rich>
-                  <a:bodyPr/>
-                  <a:lstStyle/>
-                  <a:p>
-                    <a:fld id="{BF7461A0-408F-4285-ADC0-80F41DE9EB11}" type="CELLRANGE">
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{DF8AB2FC-CBE5-4716-ABD3-86B374F89ACD}" type="CELLRANGE">
                       <a:rPr lang="zh-CN" altLang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -3005,7 +3009,6 @@
               <c:showBubbleSize val="0"/>
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
                   <c15:dlblFieldTable/>
                   <c15:xForSave val="1"/>
                   <c15:showDataLabelsRange val="1"/>
@@ -3041,13 +3044,12 @@
             </c:dLbl>
             <c:dLbl>
               <c:idx val="24"/>
-              <c:layout/>
-              <c:tx>
-                <c:rich>
-                  <a:bodyPr/>
-                  <a:lstStyle/>
-                  <a:p>
-                    <a:fld id="{6C3606B3-615D-4E46-8D3D-856CA66F4811}" type="CELLRANGE">
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{47FFA451-CCA3-4A0B-8FDD-234C6519D5D1}" type="CELLRANGE">
                       <a:rPr lang="zh-CN" altLang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -3064,7 +3066,6 @@
               <c:showBubbleSize val="0"/>
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
                   <c15:dlblFieldTable/>
                   <c15:xForSave val="1"/>
                   <c15:showDataLabelsRange val="1"/>
@@ -3100,13 +3101,12 @@
             </c:dLbl>
             <c:dLbl>
               <c:idx val="26"/>
-              <c:layout/>
-              <c:tx>
-                <c:rich>
-                  <a:bodyPr/>
-                  <a:lstStyle/>
-                  <a:p>
-                    <a:fld id="{3F320E21-C1B0-4F14-BECE-80109EC0D42F}" type="CELLRANGE">
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{C5186EBE-D611-426E-A0F0-267CDC0D6AA3}" type="CELLRANGE">
                       <a:rPr lang="zh-CN" altLang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -3123,7 +3123,6 @@
               <c:showBubbleSize val="0"/>
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
                   <c15:dlblFieldTable/>
                   <c15:xForSave val="1"/>
                   <c15:showDataLabelsRange val="1"/>
@@ -3159,7 +3158,6 @@
             </c:dLbl>
             <c:dLbl>
               <c:idx val="28"/>
-              <c:layout/>
               <c:tx>
                 <c:rich>
                   <a:bodyPr/>
@@ -3176,9 +3174,7 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{0000001C-A8C5-4DFC-AAD0-9A1A709461B3}"/>
                 </c:ext>
@@ -3246,7 +3242,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showDataLabelsRange val="1"/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
@@ -3638,7 +3633,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -4693,7 +4687,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{F56DF9B8-8793-488E-B853-68A8D5A0524C}" type="CELLRANGE">
+                    <a:fld id="{A86DADDF-CFDB-4816-A369-13022A523FB4}" type="CELLRANGE">
                       <a:rPr lang="zh-CN" altLang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -4898,7 +4892,6 @@
             </c:dLbl>
             <c:dLbl>
               <c:idx val="9"/>
-              <c:layout/>
               <c:tx>
                 <c:rich>
                   <a:bodyPr/>
@@ -4916,10 +4909,7 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                  <c15:xForSave val="1"/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{0000000C-CC89-4426-AF9D-784001138308}"/>
                 </c:ext>
@@ -4927,7 +4917,6 @@
             </c:dLbl>
             <c:dLbl>
               <c:idx val="10"/>
-              <c:layout/>
               <c:tx>
                 <c:rich>
                   <a:bodyPr/>
@@ -4945,10 +4934,7 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                  <c15:xForSave val="1"/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{0000000D-CC89-4426-AF9D-784001138308}"/>
                 </c:ext>
@@ -5424,6 +5410,9 @@
               <c:showBubbleSize val="0"/>
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000000-0B1F-4B6B-92C1-A0C5B4113BE1}"/>
+                </c:ext>
               </c:extLst>
             </c:dLbl>
             <c:spPr>
@@ -5605,82 +5594,82 @@
                 <c15:dlblRangeCache>
                   <c:ptCount val="26"/>
                   <c:pt idx="0">
-                    <c:v>Nakahara, FPL17</c:v>
+                    <c:v>[34]</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v>Moss, FPL17</c:v>
+                    <c:v>[32]</c:v>
                   </c:pt>
                   <c:pt idx="2">
-                    <c:v>Jiao, FPL17</c:v>
+                    <c:v>[21]</c:v>
                   </c:pt>
                   <c:pt idx="3">
-                    <c:v>Guo, TCAD17</c:v>
+                    <c:v>[11]</c:v>
                   </c:pt>
                   <c:pt idx="4">
-                    <c:v>Ma, FPGA17</c:v>
+                    <c:v>[30]</c:v>
                   </c:pt>
                   <c:pt idx="5">
-                    <c:v>Suda, FPGA16</c:v>
+                    <c:v>[48]</c:v>
                   </c:pt>
                   <c:pt idx="6">
-                    <c:v>Liu, FPT16</c:v>
+                    <c:v>[27]</c:v>
                   </c:pt>
                   <c:pt idx="7">
-                    <c:v>Han, FPGA17</c:v>
+                    <c:v>[13]</c:v>
                   </c:pt>
                   <c:pt idx="8">
-                    <c:v>Han, FPGA17</c:v>
+                    <c:v>[13]</c:v>
                   </c:pt>
                   <c:pt idx="9">
-                    <c:v>Shen, FPGA-18</c:v>
+                    <c:v>[44]</c:v>
                   </c:pt>
                   <c:pt idx="10">
-                    <c:v>Shen, FPGA-18</c:v>
+                    <c:v>[44]</c:v>
                   </c:pt>
                   <c:pt idx="11">
-                    <c:v>Venieris, FPGA17</c:v>
+                    <c:v>[51]</c:v>
                   </c:pt>
                   <c:pt idx="12">
-                    <c:v>Zhang, FPGA17-I</c:v>
+                    <c:v>[62]</c:v>
                   </c:pt>
                   <c:pt idx="13">
-                    <c:v>Qiu, FPGA16</c:v>
+                    <c:v>[40]</c:v>
                   </c:pt>
                   <c:pt idx="14">
-                    <c:v>Guan, FCCM17</c:v>
+                    <c:v>[8]</c:v>
                   </c:pt>
                   <c:pt idx="15">
-                    <c:v>Lu, FCCM17</c:v>
+                    <c:v>[28]</c:v>
                   </c:pt>
                   <c:pt idx="16">
-                    <c:v>Li, FPL16</c:v>
+                    <c:v>[24]</c:v>
                   </c:pt>
                   <c:pt idx="17">
-                    <c:v>Zhang, ISLPED16</c:v>
+                    <c:v>[61]</c:v>
                   </c:pt>
                   <c:pt idx="18">
-                    <c:v>Xiao, DAC17</c:v>
+                    <c:v>[57]</c:v>
                   </c:pt>
                   <c:pt idx="19">
-                    <c:v>Zhang, ICCAD16</c:v>
+                    <c:v>[58]</c:v>
                   </c:pt>
                   <c:pt idx="20">
-                    <c:v>Aydonat, FPGA17</c:v>
+                    <c:v>[3]</c:v>
                   </c:pt>
                   <c:pt idx="21">
-                    <c:v>Podili, FCCM17</c:v>
+                    <c:v>[38]</c:v>
                   </c:pt>
                   <c:pt idx="22">
-                    <c:v>Zhang, FPGA17-F</c:v>
+                    <c:v>[60]</c:v>
                   </c:pt>
                   <c:pt idx="23">
-                    <c:v>Zhang, FPGA17-I</c:v>
+                    <c:v>[62]</c:v>
                   </c:pt>
                   <c:pt idx="24">
-                    <c:v>Zhang, FPGA15</c:v>
+                    <c:v>[59]</c:v>
                   </c:pt>
                   <c:pt idx="25">
-                    <c:v>Guan, ASPDAC17</c:v>
+                    <c:v>[9]</c:v>
                   </c:pt>
                 </c15:dlblRangeCache>
               </c15:datalabelsRange>
@@ -5977,9 +5966,7 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:xForSave val="1"/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000023-CC89-4426-AF9D-784001138308}"/>
                 </c:ext>
@@ -6003,9 +5990,7 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:xForSave val="1"/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000024-CC89-4426-AF9D-784001138308}"/>
                 </c:ext>
@@ -6462,6 +6447,9 @@
               <c:showBubbleSize val="0"/>
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000001-0B1F-4B6B-92C1-A0C5B4113BE1}"/>
+                </c:ext>
               </c:extLst>
             </c:dLbl>
             <c:spPr>
@@ -6624,82 +6612,82 @@
                 <c15:dlblRangeCache>
                   <c:ptCount val="26"/>
                   <c:pt idx="0">
-                    <c:v>Nakahara, FPL17</c:v>
+                    <c:v>[34]</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v>Moss, FPL17</c:v>
+                    <c:v>[32]</c:v>
                   </c:pt>
                   <c:pt idx="2">
-                    <c:v>Jiao, FPL17</c:v>
+                    <c:v>[21]</c:v>
                   </c:pt>
                   <c:pt idx="3">
-                    <c:v>Guo, TCAD17</c:v>
+                    <c:v>[11]</c:v>
                   </c:pt>
                   <c:pt idx="4">
-                    <c:v>Ma, FPGA17</c:v>
+                    <c:v>[30]</c:v>
                   </c:pt>
                   <c:pt idx="5">
-                    <c:v>Suda, FPGA16</c:v>
+                    <c:v>[48]</c:v>
                   </c:pt>
                   <c:pt idx="6">
-                    <c:v>Liu, FPT16</c:v>
+                    <c:v>[27]</c:v>
                   </c:pt>
                   <c:pt idx="7">
-                    <c:v>Han, FPGA17</c:v>
+                    <c:v>[13]</c:v>
                   </c:pt>
                   <c:pt idx="8">
-                    <c:v>Han, FPGA17</c:v>
+                    <c:v>[13]</c:v>
                   </c:pt>
                   <c:pt idx="9">
-                    <c:v>Shen, FPGA-18</c:v>
+                    <c:v>[44]</c:v>
                   </c:pt>
                   <c:pt idx="10">
-                    <c:v>Shen, FPGA-18</c:v>
+                    <c:v>[44]</c:v>
                   </c:pt>
                   <c:pt idx="11">
-                    <c:v>Venieris, FPGA17</c:v>
+                    <c:v>[51]</c:v>
                   </c:pt>
                   <c:pt idx="12">
-                    <c:v>Zhang, FPGA17-I</c:v>
+                    <c:v>[62]</c:v>
                   </c:pt>
                   <c:pt idx="13">
-                    <c:v>Qiu, FPGA16</c:v>
+                    <c:v>[40]</c:v>
                   </c:pt>
                   <c:pt idx="14">
-                    <c:v>Guan, FCCM17</c:v>
+                    <c:v>[8]</c:v>
                   </c:pt>
                   <c:pt idx="15">
-                    <c:v>Lu, FCCM17</c:v>
+                    <c:v>[28]</c:v>
                   </c:pt>
                   <c:pt idx="16">
-                    <c:v>Li, FPL16</c:v>
+                    <c:v>[24]</c:v>
                   </c:pt>
                   <c:pt idx="17">
-                    <c:v>Zhang, ISLPED16</c:v>
+                    <c:v>[61]</c:v>
                   </c:pt>
                   <c:pt idx="18">
-                    <c:v>Xiao, DAC17</c:v>
+                    <c:v>[57]</c:v>
                   </c:pt>
                   <c:pt idx="19">
-                    <c:v>Zhang, ICCAD16</c:v>
+                    <c:v>[58]</c:v>
                   </c:pt>
                   <c:pt idx="20">
-                    <c:v>Aydonat, FPGA17</c:v>
+                    <c:v>[3]</c:v>
                   </c:pt>
                   <c:pt idx="21">
-                    <c:v>Podili, FCCM17</c:v>
+                    <c:v>[38]</c:v>
                   </c:pt>
                   <c:pt idx="22">
-                    <c:v>Zhang, FPGA17-F</c:v>
+                    <c:v>[60]</c:v>
                   </c:pt>
                   <c:pt idx="23">
-                    <c:v>Zhang, FPGA17-I</c:v>
+                    <c:v>[62]</c:v>
                   </c:pt>
                   <c:pt idx="24">
-                    <c:v>Zhang, FPGA15</c:v>
+                    <c:v>[59]</c:v>
                   </c:pt>
                   <c:pt idx="25">
-                    <c:v>Guan, ASPDAC17</c:v>
+                    <c:v>[9]</c:v>
                   </c:pt>
                 </c15:dlblRangeCache>
               </c15:datalabelsRange>
@@ -7000,9 +6988,7 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:xForSave val="1"/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{0000003B-CC89-4426-AF9D-784001138308}"/>
                 </c:ext>
@@ -7027,9 +7013,7 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:xForSave val="1"/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{0000003C-CC89-4426-AF9D-784001138308}"/>
                 </c:ext>
@@ -7505,6 +7489,9 @@
               <c:showBubbleSize val="0"/>
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000002-0B1F-4B6B-92C1-A0C5B4113BE1}"/>
+                </c:ext>
               </c:extLst>
             </c:dLbl>
             <c:spPr>
@@ -7682,82 +7669,82 @@
                 <c15:dlblRangeCache>
                   <c:ptCount val="26"/>
                   <c:pt idx="0">
-                    <c:v>Nakahara, FPL17</c:v>
+                    <c:v>[34]</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v>Moss, FPL17</c:v>
+                    <c:v>[32]</c:v>
                   </c:pt>
                   <c:pt idx="2">
-                    <c:v>Jiao, FPL17</c:v>
+                    <c:v>[21]</c:v>
                   </c:pt>
                   <c:pt idx="3">
-                    <c:v>Guo, TCAD17</c:v>
+                    <c:v>[11]</c:v>
                   </c:pt>
                   <c:pt idx="4">
-                    <c:v>Ma, FPGA17</c:v>
+                    <c:v>[30]</c:v>
                   </c:pt>
                   <c:pt idx="5">
-                    <c:v>Suda, FPGA16</c:v>
+                    <c:v>[48]</c:v>
                   </c:pt>
                   <c:pt idx="6">
-                    <c:v>Liu, FPT16</c:v>
+                    <c:v>[27]</c:v>
                   </c:pt>
                   <c:pt idx="7">
-                    <c:v>Han, FPGA17</c:v>
+                    <c:v>[13]</c:v>
                   </c:pt>
                   <c:pt idx="8">
-                    <c:v>Han, FPGA17</c:v>
+                    <c:v>[13]</c:v>
                   </c:pt>
                   <c:pt idx="9">
-                    <c:v>Shen, FPGA-18</c:v>
+                    <c:v>[44]</c:v>
                   </c:pt>
                   <c:pt idx="10">
-                    <c:v>Shen, FPGA-18</c:v>
+                    <c:v>[44]</c:v>
                   </c:pt>
                   <c:pt idx="11">
-                    <c:v>Venieris, FPGA17</c:v>
+                    <c:v>[51]</c:v>
                   </c:pt>
                   <c:pt idx="12">
-                    <c:v>Zhang, FPGA17-I</c:v>
+                    <c:v>[62]</c:v>
                   </c:pt>
                   <c:pt idx="13">
-                    <c:v>Qiu, FPGA16</c:v>
+                    <c:v>[40]</c:v>
                   </c:pt>
                   <c:pt idx="14">
-                    <c:v>Guan, FCCM17</c:v>
+                    <c:v>[8]</c:v>
                   </c:pt>
                   <c:pt idx="15">
-                    <c:v>Lu, FCCM17</c:v>
+                    <c:v>[28]</c:v>
                   </c:pt>
                   <c:pt idx="16">
-                    <c:v>Li, FPL16</c:v>
+                    <c:v>[24]</c:v>
                   </c:pt>
                   <c:pt idx="17">
-                    <c:v>Zhang, ISLPED16</c:v>
+                    <c:v>[61]</c:v>
                   </c:pt>
                   <c:pt idx="18">
-                    <c:v>Xiao, DAC17</c:v>
+                    <c:v>[57]</c:v>
                   </c:pt>
                   <c:pt idx="19">
-                    <c:v>Zhang, ICCAD16</c:v>
+                    <c:v>[58]</c:v>
                   </c:pt>
                   <c:pt idx="20">
-                    <c:v>Aydonat, FPGA17</c:v>
+                    <c:v>[3]</c:v>
                   </c:pt>
                   <c:pt idx="21">
-                    <c:v>Podili, FCCM17</c:v>
+                    <c:v>[38]</c:v>
                   </c:pt>
                   <c:pt idx="22">
-                    <c:v>Zhang, FPGA17-F</c:v>
+                    <c:v>[60]</c:v>
                   </c:pt>
                   <c:pt idx="23">
-                    <c:v>Zhang, FPGA17-I</c:v>
+                    <c:v>[62]</c:v>
                   </c:pt>
                   <c:pt idx="24">
-                    <c:v>Zhang, FPGA15</c:v>
+                    <c:v>[59]</c:v>
                   </c:pt>
                   <c:pt idx="25">
-                    <c:v>Guan, ASPDAC17</c:v>
+                    <c:v>[9]</c:v>
                   </c:pt>
                 </c15:dlblRangeCache>
               </c15:datalabelsRange>
@@ -7952,7 +7939,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{6EFE76FE-4EF5-4FF2-8F38-5FF4C47902CC}" type="CELLRANGE">
+                    <a:fld id="{03BBC7F0-83DD-4EBC-A1E1-A3032E8C76B3}" type="CELLRANGE">
                       <a:rPr lang="zh-CN" altLang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -8072,7 +8059,6 @@
             </c:dLbl>
             <c:dLbl>
               <c:idx val="9"/>
-              <c:layout/>
               <c:tx>
                 <c:rich>
                   <a:bodyPr/>
@@ -8090,10 +8076,7 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                  <c15:xForSave val="1"/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000053-CC89-4426-AF9D-784001138308}"/>
                 </c:ext>
@@ -8101,7 +8084,6 @@
             </c:dLbl>
             <c:dLbl>
               <c:idx val="10"/>
-              <c:layout/>
               <c:tx>
                 <c:rich>
                   <a:bodyPr/>
@@ -8119,10 +8101,7 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                  <c15:xForSave val="1"/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000054-CC89-4426-AF9D-784001138308}"/>
                 </c:ext>
@@ -8598,6 +8577,9 @@
               <c:showBubbleSize val="0"/>
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000003-0B1F-4B6B-92C1-A0C5B4113BE1}"/>
+                </c:ext>
               </c:extLst>
             </c:dLbl>
             <c:spPr>
@@ -8782,82 +8764,82 @@
                 <c15:dlblRangeCache>
                   <c:ptCount val="26"/>
                   <c:pt idx="0">
-                    <c:v>Nakahara, FPL17</c:v>
+                    <c:v>[34]</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v>Moss, FPL17</c:v>
+                    <c:v>[32]</c:v>
                   </c:pt>
                   <c:pt idx="2">
-                    <c:v>Jiao, FPL17</c:v>
+                    <c:v>[21]</c:v>
                   </c:pt>
                   <c:pt idx="3">
-                    <c:v>Guo, TCAD17</c:v>
+                    <c:v>[11]</c:v>
                   </c:pt>
                   <c:pt idx="4">
-                    <c:v>Ma, FPGA17</c:v>
+                    <c:v>[30]</c:v>
                   </c:pt>
                   <c:pt idx="5">
-                    <c:v>Suda, FPGA16</c:v>
+                    <c:v>[48]</c:v>
                   </c:pt>
                   <c:pt idx="6">
-                    <c:v>Liu, FPT16</c:v>
+                    <c:v>[27]</c:v>
                   </c:pt>
                   <c:pt idx="7">
-                    <c:v>Han, FPGA17</c:v>
+                    <c:v>[13]</c:v>
                   </c:pt>
                   <c:pt idx="8">
-                    <c:v>Han, FPGA17</c:v>
+                    <c:v>[13]</c:v>
                   </c:pt>
                   <c:pt idx="9">
-                    <c:v>Shen, FPGA-18</c:v>
+                    <c:v>[44]</c:v>
                   </c:pt>
                   <c:pt idx="10">
-                    <c:v>Shen, FPGA-18</c:v>
+                    <c:v>[44]</c:v>
                   </c:pt>
                   <c:pt idx="11">
-                    <c:v>Venieris, FPGA17</c:v>
+                    <c:v>[51]</c:v>
                   </c:pt>
                   <c:pt idx="12">
-                    <c:v>Zhang, FPGA17-I</c:v>
+                    <c:v>[62]</c:v>
                   </c:pt>
                   <c:pt idx="13">
-                    <c:v>Qiu, FPGA16</c:v>
+                    <c:v>[40]</c:v>
                   </c:pt>
                   <c:pt idx="14">
-                    <c:v>Guan, FCCM17</c:v>
+                    <c:v>[8]</c:v>
                   </c:pt>
                   <c:pt idx="15">
-                    <c:v>Lu, FCCM17</c:v>
+                    <c:v>[28]</c:v>
                   </c:pt>
                   <c:pt idx="16">
-                    <c:v>Li, FPL16</c:v>
+                    <c:v>[24]</c:v>
                   </c:pt>
                   <c:pt idx="17">
-                    <c:v>Zhang, ISLPED16</c:v>
+                    <c:v>[61]</c:v>
                   </c:pt>
                   <c:pt idx="18">
-                    <c:v>Xiao, DAC17</c:v>
+                    <c:v>[57]</c:v>
                   </c:pt>
                   <c:pt idx="19">
-                    <c:v>Zhang, ICCAD16</c:v>
+                    <c:v>[58]</c:v>
                   </c:pt>
                   <c:pt idx="20">
-                    <c:v>Aydonat, FPGA17</c:v>
+                    <c:v>[3]</c:v>
                   </c:pt>
                   <c:pt idx="21">
-                    <c:v>Podili, FCCM17</c:v>
+                    <c:v>[38]</c:v>
                   </c:pt>
                   <c:pt idx="22">
-                    <c:v>Zhang, FPGA17-F</c:v>
+                    <c:v>[60]</c:v>
                   </c:pt>
                   <c:pt idx="23">
-                    <c:v>Zhang, FPGA17-I</c:v>
+                    <c:v>[62]</c:v>
                   </c:pt>
                   <c:pt idx="24">
-                    <c:v>Zhang, FPGA15</c:v>
+                    <c:v>[59]</c:v>
                   </c:pt>
                   <c:pt idx="25">
-                    <c:v>Guan, ASPDAC17</c:v>
+                    <c:v>[9]</c:v>
                   </c:pt>
                 </c15:dlblRangeCache>
               </c15:datalabelsRange>
@@ -9119,7 +9101,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{E3F07725-7EA8-485B-B8C7-44D552199A19}" type="CELLRANGE">
+                    <a:fld id="{F22F890E-0377-4234-B552-B45C10170677}" type="CELLRANGE">
                       <a:rPr lang="zh-CN" altLang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -9148,7 +9130,6 @@
             </c:dLbl>
             <c:dLbl>
               <c:idx val="9"/>
-              <c:layout/>
               <c:tx>
                 <c:rich>
                   <a:bodyPr/>
@@ -9165,10 +9146,7 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                  <c15:xForSave val="1"/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000069-CC89-4426-AF9D-784001138308}"/>
                 </c:ext>
@@ -9176,7 +9154,6 @@
             </c:dLbl>
             <c:dLbl>
               <c:idx val="10"/>
-              <c:layout/>
               <c:tx>
                 <c:rich>
                   <a:bodyPr/>
@@ -9193,10 +9170,7 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                  <c15:xForSave val="1"/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{0000006A-CC89-4426-AF9D-784001138308}"/>
                 </c:ext>
@@ -9653,6 +9627,9 @@
               <c:showBubbleSize val="0"/>
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000004-0B1F-4B6B-92C1-A0C5B4113BE1}"/>
+                </c:ext>
               </c:extLst>
             </c:dLbl>
             <c:spPr>
@@ -9833,82 +9810,82 @@
                 <c15:dlblRangeCache>
                   <c:ptCount val="26"/>
                   <c:pt idx="0">
-                    <c:v>Nakahara, FPL17</c:v>
+                    <c:v>[34]</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v>Moss, FPL17</c:v>
+                    <c:v>[32]</c:v>
                   </c:pt>
                   <c:pt idx="2">
-                    <c:v>Jiao, FPL17</c:v>
+                    <c:v>[21]</c:v>
                   </c:pt>
                   <c:pt idx="3">
-                    <c:v>Guo, TCAD17</c:v>
+                    <c:v>[11]</c:v>
                   </c:pt>
                   <c:pt idx="4">
-                    <c:v>Ma, FPGA17</c:v>
+                    <c:v>[30]</c:v>
                   </c:pt>
                   <c:pt idx="5">
-                    <c:v>Suda, FPGA16</c:v>
+                    <c:v>[48]</c:v>
                   </c:pt>
                   <c:pt idx="6">
-                    <c:v>Liu, FPT16</c:v>
+                    <c:v>[27]</c:v>
                   </c:pt>
                   <c:pt idx="7">
-                    <c:v>Han, FPGA17</c:v>
+                    <c:v>[13]</c:v>
                   </c:pt>
                   <c:pt idx="8">
-                    <c:v>Han, FPGA17</c:v>
+                    <c:v>[13]</c:v>
                   </c:pt>
                   <c:pt idx="9">
-                    <c:v>Shen, FPGA-18</c:v>
+                    <c:v>[44]</c:v>
                   </c:pt>
                   <c:pt idx="10">
-                    <c:v>Shen, FPGA-18</c:v>
+                    <c:v>[44]</c:v>
                   </c:pt>
                   <c:pt idx="11">
-                    <c:v>Venieris, FPGA17</c:v>
+                    <c:v>[51]</c:v>
                   </c:pt>
                   <c:pt idx="12">
-                    <c:v>Zhang, FPGA17-I</c:v>
+                    <c:v>[62]</c:v>
                   </c:pt>
                   <c:pt idx="13">
-                    <c:v>Qiu, FPGA16</c:v>
+                    <c:v>[40]</c:v>
                   </c:pt>
                   <c:pt idx="14">
-                    <c:v>Guan, FCCM17</c:v>
+                    <c:v>[8]</c:v>
                   </c:pt>
                   <c:pt idx="15">
-                    <c:v>Lu, FCCM17</c:v>
+                    <c:v>[28]</c:v>
                   </c:pt>
                   <c:pt idx="16">
-                    <c:v>Li, FPL16</c:v>
+                    <c:v>[24]</c:v>
                   </c:pt>
                   <c:pt idx="17">
-                    <c:v>Zhang, ISLPED16</c:v>
+                    <c:v>[61]</c:v>
                   </c:pt>
                   <c:pt idx="18">
-                    <c:v>Xiao, DAC17</c:v>
+                    <c:v>[57]</c:v>
                   </c:pt>
                   <c:pt idx="19">
-                    <c:v>Zhang, ICCAD16</c:v>
+                    <c:v>[58]</c:v>
                   </c:pt>
                   <c:pt idx="20">
-                    <c:v>Aydonat, FPGA17</c:v>
+                    <c:v>[3]</c:v>
                   </c:pt>
                   <c:pt idx="21">
-                    <c:v>Podili, FCCM17</c:v>
+                    <c:v>[38]</c:v>
                   </c:pt>
                   <c:pt idx="22">
-                    <c:v>Zhang, FPGA17-F</c:v>
+                    <c:v>[60]</c:v>
                   </c:pt>
                   <c:pt idx="23">
-                    <c:v>Zhang, FPGA17-I</c:v>
+                    <c:v>[62]</c:v>
                   </c:pt>
                   <c:pt idx="24">
-                    <c:v>Zhang, FPGA15</c:v>
+                    <c:v>[59]</c:v>
                   </c:pt>
                   <c:pt idx="25">
-                    <c:v>Guan, ASPDAC17</c:v>
+                    <c:v>[9]</c:v>
                   </c:pt>
                 </c15:dlblRangeCache>
               </c15:datalabelsRange>
@@ -10257,7 +10234,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{29A86039-EDDA-4021-B82A-1687C99B12C6}" type="CELLRANGE">
+                    <a:fld id="{EC87AA96-98ED-4EEC-A331-7B66CC32AD8D}" type="CELLRANGE">
                       <a:rPr lang="zh-CN" altLang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -10841,6 +10818,9 @@
               <c:showBubbleSize val="0"/>
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000005-0B1F-4B6B-92C1-A0C5B4113BE1}"/>
+                </c:ext>
               </c:extLst>
             </c:dLbl>
             <c:spPr>
@@ -11048,82 +11028,82 @@
                 <c15:dlblRangeCache>
                   <c:ptCount val="26"/>
                   <c:pt idx="0">
-                    <c:v>Nakahara, FPL17</c:v>
+                    <c:v>[34]</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v>Moss, FPL17</c:v>
+                    <c:v>[32]</c:v>
                   </c:pt>
                   <c:pt idx="2">
-                    <c:v>Jiao, FPL17</c:v>
+                    <c:v>[21]</c:v>
                   </c:pt>
                   <c:pt idx="3">
-                    <c:v>Guo, TCAD17</c:v>
+                    <c:v>[11]</c:v>
                   </c:pt>
                   <c:pt idx="4">
-                    <c:v>Ma, FPGA17</c:v>
+                    <c:v>[30]</c:v>
                   </c:pt>
                   <c:pt idx="5">
-                    <c:v>Suda, FPGA16</c:v>
+                    <c:v>[48]</c:v>
                   </c:pt>
                   <c:pt idx="6">
-                    <c:v>Liu, FPT16</c:v>
+                    <c:v>[27]</c:v>
                   </c:pt>
                   <c:pt idx="7">
-                    <c:v>Han, FPGA17</c:v>
+                    <c:v>[13]</c:v>
                   </c:pt>
                   <c:pt idx="8">
-                    <c:v>Han, FPGA17</c:v>
+                    <c:v>[13]</c:v>
                   </c:pt>
                   <c:pt idx="9">
-                    <c:v>Shen, FPGA-18</c:v>
+                    <c:v>[44]</c:v>
                   </c:pt>
                   <c:pt idx="10">
-                    <c:v>Shen, FPGA-18</c:v>
+                    <c:v>[44]</c:v>
                   </c:pt>
                   <c:pt idx="11">
-                    <c:v>Venieris, FPGA17</c:v>
+                    <c:v>[51]</c:v>
                   </c:pt>
                   <c:pt idx="12">
-                    <c:v>Zhang, FPGA17-I</c:v>
+                    <c:v>[62]</c:v>
                   </c:pt>
                   <c:pt idx="13">
-                    <c:v>Qiu, FPGA16</c:v>
+                    <c:v>[40]</c:v>
                   </c:pt>
                   <c:pt idx="14">
-                    <c:v>Guan, FCCM17</c:v>
+                    <c:v>[8]</c:v>
                   </c:pt>
                   <c:pt idx="15">
-                    <c:v>Lu, FCCM17</c:v>
+                    <c:v>[28]</c:v>
                   </c:pt>
                   <c:pt idx="16">
-                    <c:v>Li, FPL16</c:v>
+                    <c:v>[24]</c:v>
                   </c:pt>
                   <c:pt idx="17">
-                    <c:v>Zhang, ISLPED16</c:v>
+                    <c:v>[61]</c:v>
                   </c:pt>
                   <c:pt idx="18">
-                    <c:v>Xiao, DAC17</c:v>
+                    <c:v>[57]</c:v>
                   </c:pt>
                   <c:pt idx="19">
-                    <c:v>Zhang, ICCAD16</c:v>
+                    <c:v>[58]</c:v>
                   </c:pt>
                   <c:pt idx="20">
-                    <c:v>Aydonat, FPGA17</c:v>
+                    <c:v>[3]</c:v>
                   </c:pt>
                   <c:pt idx="21">
-                    <c:v>Podili, FCCM17</c:v>
+                    <c:v>[38]</c:v>
                   </c:pt>
                   <c:pt idx="22">
-                    <c:v>Zhang, FPGA17-F</c:v>
+                    <c:v>[60]</c:v>
                   </c:pt>
                   <c:pt idx="23">
-                    <c:v>Zhang, FPGA17-I</c:v>
+                    <c:v>[62]</c:v>
                   </c:pt>
                   <c:pt idx="24">
-                    <c:v>Zhang, FPGA15</c:v>
+                    <c:v>[59]</c:v>
                   </c:pt>
                   <c:pt idx="25">
-                    <c:v>Guan, ASPDAC17</c:v>
+                    <c:v>[9]</c:v>
                   </c:pt>
                 </c15:dlblRangeCache>
               </c15:datalabelsRange>
@@ -11392,7 +11372,6 @@
             </c:dLbl>
             <c:dLbl>
               <c:idx val="9"/>
-              <c:layout/>
               <c:tx>
                 <c:rich>
                   <a:bodyPr/>
@@ -11409,10 +11388,7 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                  <c15:xForSave val="1"/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{0000009C-CC89-4426-AF9D-784001138308}"/>
                 </c:ext>
@@ -11420,7 +11396,6 @@
             </c:dLbl>
             <c:dLbl>
               <c:idx val="10"/>
-              <c:layout/>
               <c:tx>
                 <c:rich>
                   <a:bodyPr/>
@@ -11437,10 +11412,7 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                  <c15:xForSave val="1"/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{0000009D-CC89-4426-AF9D-784001138308}"/>
                 </c:ext>
@@ -11670,7 +11642,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{5CCC2B3F-A84F-4775-8773-66987CBCC711}" type="CELLRANGE">
+                    <a:fld id="{F283864A-672D-4340-AF56-423A0D650AF2}" type="CELLRANGE">
                       <a:rPr lang="zh-CN" altLang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -11908,6 +11880,9 @@
               <c:showBubbleSize val="0"/>
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000006-0B1F-4B6B-92C1-A0C5B4113BE1}"/>
+                </c:ext>
               </c:extLst>
             </c:dLbl>
             <c:spPr>
@@ -12085,82 +12060,82 @@
                 <c15:dlblRangeCache>
                   <c:ptCount val="26"/>
                   <c:pt idx="0">
-                    <c:v>Nakahara, FPL17</c:v>
+                    <c:v>[34]</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v>Moss, FPL17</c:v>
+                    <c:v>[32]</c:v>
                   </c:pt>
                   <c:pt idx="2">
-                    <c:v>Jiao, FPL17</c:v>
+                    <c:v>[21]</c:v>
                   </c:pt>
                   <c:pt idx="3">
-                    <c:v>Guo, TCAD17</c:v>
+                    <c:v>[11]</c:v>
                   </c:pt>
                   <c:pt idx="4">
-                    <c:v>Ma, FPGA17</c:v>
+                    <c:v>[30]</c:v>
                   </c:pt>
                   <c:pt idx="5">
-                    <c:v>Suda, FPGA16</c:v>
+                    <c:v>[48]</c:v>
                   </c:pt>
                   <c:pt idx="6">
-                    <c:v>Liu, FPT16</c:v>
+                    <c:v>[27]</c:v>
                   </c:pt>
                   <c:pt idx="7">
-                    <c:v>Han, FPGA17</c:v>
+                    <c:v>[13]</c:v>
                   </c:pt>
                   <c:pt idx="8">
-                    <c:v>Han, FPGA17</c:v>
+                    <c:v>[13]</c:v>
                   </c:pt>
                   <c:pt idx="9">
-                    <c:v>Shen, FPGA-18</c:v>
+                    <c:v>[44]</c:v>
                   </c:pt>
                   <c:pt idx="10">
-                    <c:v>Shen, FPGA-18</c:v>
+                    <c:v>[44]</c:v>
                   </c:pt>
                   <c:pt idx="11">
-                    <c:v>Venieris, FPGA17</c:v>
+                    <c:v>[51]</c:v>
                   </c:pt>
                   <c:pt idx="12">
-                    <c:v>Zhang, FPGA17-I</c:v>
+                    <c:v>[62]</c:v>
                   </c:pt>
                   <c:pt idx="13">
-                    <c:v>Qiu, FPGA16</c:v>
+                    <c:v>[40]</c:v>
                   </c:pt>
                   <c:pt idx="14">
-                    <c:v>Guan, FCCM17</c:v>
+                    <c:v>[8]</c:v>
                   </c:pt>
                   <c:pt idx="15">
-                    <c:v>Lu, FCCM17</c:v>
+                    <c:v>[28]</c:v>
                   </c:pt>
                   <c:pt idx="16">
-                    <c:v>Li, FPL16</c:v>
+                    <c:v>[24]</c:v>
                   </c:pt>
                   <c:pt idx="17">
-                    <c:v>Zhang, ISLPED16</c:v>
+                    <c:v>[61]</c:v>
                   </c:pt>
                   <c:pt idx="18">
-                    <c:v>Xiao, DAC17</c:v>
+                    <c:v>[57]</c:v>
                   </c:pt>
                   <c:pt idx="19">
-                    <c:v>Zhang, ICCAD16</c:v>
+                    <c:v>[58]</c:v>
                   </c:pt>
                   <c:pt idx="20">
-                    <c:v>Aydonat, FPGA17</c:v>
+                    <c:v>[3]</c:v>
                   </c:pt>
                   <c:pt idx="21">
-                    <c:v>Podili, FCCM17</c:v>
+                    <c:v>[38]</c:v>
                   </c:pt>
                   <c:pt idx="22">
-                    <c:v>Zhang, FPGA17-F</c:v>
+                    <c:v>[60]</c:v>
                   </c:pt>
                   <c:pt idx="23">
-                    <c:v>Zhang, FPGA17-I</c:v>
+                    <c:v>[62]</c:v>
                   </c:pt>
                   <c:pt idx="24">
-                    <c:v>Zhang, FPGA15</c:v>
+                    <c:v>[59]</c:v>
                   </c:pt>
                   <c:pt idx="25">
-                    <c:v>Guan, ASPDAC17</c:v>
+                    <c:v>[9]</c:v>
                   </c:pt>
                 </c15:dlblRangeCache>
               </c15:datalabelsRange>
@@ -12455,9 +12430,7 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:xForSave val="1"/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{000000B4-CC89-4426-AF9D-784001138308}"/>
                 </c:ext>
@@ -12482,9 +12455,7 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:xForSave val="1"/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{000000B5-CC89-4426-AF9D-784001138308}"/>
                 </c:ext>
@@ -12975,6 +12946,9 @@
               <c:showBubbleSize val="0"/>
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000007-0B1F-4B6B-92C1-A0C5B4113BE1}"/>
+                </c:ext>
               </c:extLst>
             </c:dLbl>
             <c:spPr>
@@ -13152,82 +13126,82 @@
                 <c15:dlblRangeCache>
                   <c:ptCount val="26"/>
                   <c:pt idx="0">
-                    <c:v>Nakahara, FPL17</c:v>
+                    <c:v>[34]</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v>Moss, FPL17</c:v>
+                    <c:v>[32]</c:v>
                   </c:pt>
                   <c:pt idx="2">
-                    <c:v>Jiao, FPL17</c:v>
+                    <c:v>[21]</c:v>
                   </c:pt>
                   <c:pt idx="3">
-                    <c:v>Guo, TCAD17</c:v>
+                    <c:v>[11]</c:v>
                   </c:pt>
                   <c:pt idx="4">
-                    <c:v>Ma, FPGA17</c:v>
+                    <c:v>[30]</c:v>
                   </c:pt>
                   <c:pt idx="5">
-                    <c:v>Suda, FPGA16</c:v>
+                    <c:v>[48]</c:v>
                   </c:pt>
                   <c:pt idx="6">
-                    <c:v>Liu, FPT16</c:v>
+                    <c:v>[27]</c:v>
                   </c:pt>
                   <c:pt idx="7">
-                    <c:v>Han, FPGA17</c:v>
+                    <c:v>[13]</c:v>
                   </c:pt>
                   <c:pt idx="8">
-                    <c:v>Han, FPGA17</c:v>
+                    <c:v>[13]</c:v>
                   </c:pt>
                   <c:pt idx="9">
-                    <c:v>Shen, FPGA-18</c:v>
+                    <c:v>[44]</c:v>
                   </c:pt>
                   <c:pt idx="10">
-                    <c:v>Shen, FPGA-18</c:v>
+                    <c:v>[44]</c:v>
                   </c:pt>
                   <c:pt idx="11">
-                    <c:v>Venieris, FPGA17</c:v>
+                    <c:v>[51]</c:v>
                   </c:pt>
                   <c:pt idx="12">
-                    <c:v>Zhang, FPGA17-I</c:v>
+                    <c:v>[62]</c:v>
                   </c:pt>
                   <c:pt idx="13">
-                    <c:v>Qiu, FPGA16</c:v>
+                    <c:v>[40]</c:v>
                   </c:pt>
                   <c:pt idx="14">
-                    <c:v>Guan, FCCM17</c:v>
+                    <c:v>[8]</c:v>
                   </c:pt>
                   <c:pt idx="15">
-                    <c:v>Lu, FCCM17</c:v>
+                    <c:v>[28]</c:v>
                   </c:pt>
                   <c:pt idx="16">
-                    <c:v>Li, FPL16</c:v>
+                    <c:v>[24]</c:v>
                   </c:pt>
                   <c:pt idx="17">
-                    <c:v>Zhang, ISLPED16</c:v>
+                    <c:v>[61]</c:v>
                   </c:pt>
                   <c:pt idx="18">
-                    <c:v>Xiao, DAC17</c:v>
+                    <c:v>[57]</c:v>
                   </c:pt>
                   <c:pt idx="19">
-                    <c:v>Zhang, ICCAD16</c:v>
+                    <c:v>[58]</c:v>
                   </c:pt>
                   <c:pt idx="20">
-                    <c:v>Aydonat, FPGA17</c:v>
+                    <c:v>[3]</c:v>
                   </c:pt>
                   <c:pt idx="21">
-                    <c:v>Podili, FCCM17</c:v>
+                    <c:v>[38]</c:v>
                   </c:pt>
                   <c:pt idx="22">
-                    <c:v>Zhang, FPGA17-F</c:v>
+                    <c:v>[60]</c:v>
                   </c:pt>
                   <c:pt idx="23">
-                    <c:v>Zhang, FPGA17-I</c:v>
+                    <c:v>[62]</c:v>
                   </c:pt>
                   <c:pt idx="24">
-                    <c:v>Zhang, FPGA15</c:v>
+                    <c:v>[59]</c:v>
                   </c:pt>
                   <c:pt idx="25">
-                    <c:v>Guan, ASPDAC17</c:v>
+                    <c:v>[9]</c:v>
                   </c:pt>
                 </c15:dlblRangeCache>
               </c15:datalabelsRange>
@@ -13496,7 +13470,6 @@
             </c:dLbl>
             <c:dLbl>
               <c:idx val="9"/>
-              <c:layout/>
               <c:tx>
                 <c:rich>
                   <a:bodyPr/>
@@ -13513,10 +13486,7 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                  <c15:xForSave val="1"/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{000000CB-CC89-4426-AF9D-784001138308}"/>
                 </c:ext>
@@ -13524,7 +13494,6 @@
             </c:dLbl>
             <c:dLbl>
               <c:idx val="10"/>
-              <c:layout/>
               <c:tx>
                 <c:rich>
                   <a:bodyPr/>
@@ -13541,10 +13510,7 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                  <c15:xForSave val="1"/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{000000CC-CC89-4426-AF9D-784001138308}"/>
                 </c:ext>
@@ -13905,7 +13871,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{2A76E6D0-018D-46EE-ACBA-0251AD639FCF}" type="CELLRANGE">
+                    <a:fld id="{54982059-EFDE-43A4-8B4F-04CF69122EBE}" type="CELLRANGE">
                       <a:rPr lang="zh-CN" altLang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -13940,7 +13906,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{26586FE7-9C71-4BD7-A832-991793372865}" type="CELLRANGE">
+                    <a:fld id="{7CE854C0-2A13-4AA3-911A-1B404B5E2DC8}" type="CELLRANGE">
                       <a:rPr lang="zh-CN" altLang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -14058,6 +14024,9 @@
               <c:showBubbleSize val="0"/>
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000008-0B1F-4B6B-92C1-A0C5B4113BE1}"/>
+                </c:ext>
               </c:extLst>
             </c:dLbl>
             <c:spPr>
@@ -14244,82 +14213,82 @@
                 <c15:dlblRangeCache>
                   <c:ptCount val="26"/>
                   <c:pt idx="0">
-                    <c:v>Nakahara, FPL17</c:v>
+                    <c:v>[34]</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v>Moss, FPL17</c:v>
+                    <c:v>[32]</c:v>
                   </c:pt>
                   <c:pt idx="2">
-                    <c:v>Jiao, FPL17</c:v>
+                    <c:v>[21]</c:v>
                   </c:pt>
                   <c:pt idx="3">
-                    <c:v>Guo, TCAD17</c:v>
+                    <c:v>[11]</c:v>
                   </c:pt>
                   <c:pt idx="4">
-                    <c:v>Ma, FPGA17</c:v>
+                    <c:v>[30]</c:v>
                   </c:pt>
                   <c:pt idx="5">
-                    <c:v>Suda, FPGA16</c:v>
+                    <c:v>[48]</c:v>
                   </c:pt>
                   <c:pt idx="6">
-                    <c:v>Liu, FPT16</c:v>
+                    <c:v>[27]</c:v>
                   </c:pt>
                   <c:pt idx="7">
-                    <c:v>Han, FPGA17</c:v>
+                    <c:v>[13]</c:v>
                   </c:pt>
                   <c:pt idx="8">
-                    <c:v>Han, FPGA17</c:v>
+                    <c:v>[13]</c:v>
                   </c:pt>
                   <c:pt idx="9">
-                    <c:v>Shen, FPGA-18</c:v>
+                    <c:v>[44]</c:v>
                   </c:pt>
                   <c:pt idx="10">
-                    <c:v>Shen, FPGA-18</c:v>
+                    <c:v>[44]</c:v>
                   </c:pt>
                   <c:pt idx="11">
-                    <c:v>Venieris, FPGA17</c:v>
+                    <c:v>[51]</c:v>
                   </c:pt>
                   <c:pt idx="12">
-                    <c:v>Zhang, FPGA17-I</c:v>
+                    <c:v>[62]</c:v>
                   </c:pt>
                   <c:pt idx="13">
-                    <c:v>Qiu, FPGA16</c:v>
+                    <c:v>[40]</c:v>
                   </c:pt>
                   <c:pt idx="14">
-                    <c:v>Guan, FCCM17</c:v>
+                    <c:v>[8]</c:v>
                   </c:pt>
                   <c:pt idx="15">
-                    <c:v>Lu, FCCM17</c:v>
+                    <c:v>[28]</c:v>
                   </c:pt>
                   <c:pt idx="16">
-                    <c:v>Li, FPL16</c:v>
+                    <c:v>[24]</c:v>
                   </c:pt>
                   <c:pt idx="17">
-                    <c:v>Zhang, ISLPED16</c:v>
+                    <c:v>[61]</c:v>
                   </c:pt>
                   <c:pt idx="18">
-                    <c:v>Xiao, DAC17</c:v>
+                    <c:v>[57]</c:v>
                   </c:pt>
                   <c:pt idx="19">
-                    <c:v>Zhang, ICCAD16</c:v>
+                    <c:v>[58]</c:v>
                   </c:pt>
                   <c:pt idx="20">
-                    <c:v>Aydonat, FPGA17</c:v>
+                    <c:v>[3]</c:v>
                   </c:pt>
                   <c:pt idx="21">
-                    <c:v>Podili, FCCM17</c:v>
+                    <c:v>[38]</c:v>
                   </c:pt>
                   <c:pt idx="22">
-                    <c:v>Zhang, FPGA17-F</c:v>
+                    <c:v>[60]</c:v>
                   </c:pt>
                   <c:pt idx="23">
-                    <c:v>Zhang, FPGA17-I</c:v>
+                    <c:v>[62]</c:v>
                   </c:pt>
                   <c:pt idx="24">
-                    <c:v>Zhang, FPGA15</c:v>
+                    <c:v>[59]</c:v>
                   </c:pt>
                   <c:pt idx="25">
-                    <c:v>Guan, ASPDAC17</c:v>
+                    <c:v>[9]</c:v>
                   </c:pt>
                 </c15:dlblRangeCache>
               </c15:datalabelsRange>
@@ -14604,9 +14573,7 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:xForSave val="1"/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000114-CC89-4426-AF9D-784001138308}"/>
                 </c:ext>
@@ -14630,9 +14597,7 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:xForSave val="1"/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000115-CC89-4426-AF9D-784001138308}"/>
                 </c:ext>
@@ -15140,6 +15105,9 @@
                   <c15:layout/>
                   <c15:dlblFieldTable/>
                   <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000009-0B1F-4B6B-92C1-A0C5B4113BE1}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -15326,82 +15294,82 @@
                 <c15:dlblRangeCache>
                   <c:ptCount val="31"/>
                   <c:pt idx="0">
-                    <c:v>Nakahara, FPL17</c:v>
+                    <c:v>[34]</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v>Moss, FPL17</c:v>
+                    <c:v>[32]</c:v>
                   </c:pt>
                   <c:pt idx="2">
-                    <c:v>Jiao, FPL17</c:v>
+                    <c:v>[21]</c:v>
                   </c:pt>
                   <c:pt idx="3">
-                    <c:v>Guo, TCAD17</c:v>
+                    <c:v>[11]</c:v>
                   </c:pt>
                   <c:pt idx="4">
-                    <c:v>Ma, FPGA17</c:v>
+                    <c:v>[30]</c:v>
                   </c:pt>
                   <c:pt idx="5">
-                    <c:v>Suda, FPGA16</c:v>
+                    <c:v>[48]</c:v>
                   </c:pt>
                   <c:pt idx="6">
-                    <c:v>Liu, FPT16</c:v>
+                    <c:v>[27]</c:v>
                   </c:pt>
                   <c:pt idx="7">
-                    <c:v>Han, FPGA17</c:v>
+                    <c:v>[13]</c:v>
                   </c:pt>
                   <c:pt idx="8">
-                    <c:v>Han, FPGA17</c:v>
+                    <c:v>[13]</c:v>
                   </c:pt>
                   <c:pt idx="9">
-                    <c:v>Shen, FPGA-18</c:v>
+                    <c:v>[44]</c:v>
                   </c:pt>
                   <c:pt idx="10">
-                    <c:v>Shen, FPGA-18</c:v>
+                    <c:v>[44]</c:v>
                   </c:pt>
                   <c:pt idx="11">
-                    <c:v>Venieris, FPGA17</c:v>
+                    <c:v>[51]</c:v>
                   </c:pt>
                   <c:pt idx="12">
-                    <c:v>Zhang, FPGA17-I</c:v>
+                    <c:v>[62]</c:v>
                   </c:pt>
                   <c:pt idx="13">
-                    <c:v>Qiu, FPGA16</c:v>
+                    <c:v>[40]</c:v>
                   </c:pt>
                   <c:pt idx="14">
-                    <c:v>Guan, FCCM17</c:v>
+                    <c:v>[8]</c:v>
                   </c:pt>
                   <c:pt idx="15">
-                    <c:v>Lu, FCCM17</c:v>
+                    <c:v>[28]</c:v>
                   </c:pt>
                   <c:pt idx="16">
-                    <c:v>Li, FPL16</c:v>
+                    <c:v>[24]</c:v>
                   </c:pt>
                   <c:pt idx="17">
-                    <c:v>Zhang, ISLPED16</c:v>
+                    <c:v>[61]</c:v>
                   </c:pt>
                   <c:pt idx="18">
-                    <c:v>Xiao, DAC17</c:v>
+                    <c:v>[57]</c:v>
                   </c:pt>
                   <c:pt idx="19">
-                    <c:v>Zhang, ICCAD16</c:v>
+                    <c:v>[58]</c:v>
                   </c:pt>
                   <c:pt idx="20">
-                    <c:v>Aydonat, FPGA17</c:v>
+                    <c:v>[3]</c:v>
                   </c:pt>
                   <c:pt idx="21">
-                    <c:v>Podili, FCCM17</c:v>
+                    <c:v>[38]</c:v>
                   </c:pt>
                   <c:pt idx="22">
-                    <c:v>Zhang, FPGA17-F</c:v>
+                    <c:v>[60]</c:v>
                   </c:pt>
                   <c:pt idx="23">
-                    <c:v>Zhang, FPGA17-I</c:v>
+                    <c:v>[62]</c:v>
                   </c:pt>
                   <c:pt idx="24">
-                    <c:v>Zhang, FPGA15</c:v>
+                    <c:v>[59]</c:v>
                   </c:pt>
                   <c:pt idx="25">
-                    <c:v>Guan, ASPDAC17</c:v>
+                    <c:v>[9]</c:v>
                   </c:pt>
                   <c:pt idx="26">
                     <c:v>Nvidia TX1(batch-1)</c:v>
@@ -21320,7 +21288,7 @@
       <selection pane="bottomLeft" activeCell="B53" sqref="B53"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="3.5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="96.5" customWidth="1"/>
@@ -21334,7 +21302,7 @@
     <col min="15" max="15" width="23.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>3</v>
       </c>
@@ -21381,7 +21349,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="2" spans="1:15">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A2" s="40" t="s">
         <v>6</v>
       </c>
@@ -21400,7 +21368,7 @@
       <c r="N2" s="5"/>
       <c r="O2" s="5"/>
     </row>
-    <row r="3" spans="1:15">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A3" s="2">
         <v>1</v>
       </c>
@@ -21445,7 +21413,7 @@
       </c>
       <c r="O3" s="5"/>
     </row>
-    <row r="4" spans="1:15">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A4" s="2">
         <v>2</v>
       </c>
@@ -21474,7 +21442,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="5" spans="1:15">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A5" s="2">
         <v>3</v>
       </c>
@@ -21503,7 +21471,7 @@
       </c>
       <c r="O5" s="5"/>
     </row>
-    <row r="6" spans="1:15">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A6" s="2">
         <v>4</v>
       </c>
@@ -21548,7 +21516,7 @@
       </c>
       <c r="O6" s="5"/>
     </row>
-    <row r="7" spans="1:15">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A7" s="2">
         <v>5</v>
       </c>
@@ -21593,7 +21561,7 @@
       </c>
       <c r="O7" s="5"/>
     </row>
-    <row r="8" spans="1:15">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A8" s="2">
         <v>6</v>
       </c>
@@ -21622,7 +21590,7 @@
       </c>
       <c r="O8" s="5"/>
     </row>
-    <row r="9" spans="1:15">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A9" s="2">
         <v>7</v>
       </c>
@@ -21669,7 +21637,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="10" spans="1:15">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A10" s="2">
         <v>8</v>
       </c>
@@ -21714,7 +21682,7 @@
       </c>
       <c r="O10" s="5"/>
     </row>
-    <row r="11" spans="1:15">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A11" s="2">
         <v>9</v>
       </c>
@@ -21759,7 +21727,7 @@
       </c>
       <c r="O11" s="5"/>
     </row>
-    <row r="12" spans="1:15">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A12" s="2">
         <v>10</v>
       </c>
@@ -21804,7 +21772,7 @@
       </c>
       <c r="O12" s="5"/>
     </row>
-    <row r="13" spans="1:15">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A13" s="2">
         <v>11</v>
       </c>
@@ -21849,7 +21817,7 @@
       </c>
       <c r="O13" s="5"/>
     </row>
-    <row r="14" spans="1:15">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A14" s="2">
         <v>12</v>
       </c>
@@ -21894,7 +21862,7 @@
       </c>
       <c r="O14" s="5"/>
     </row>
-    <row r="15" spans="1:15">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A15" s="2">
         <v>13</v>
       </c>
@@ -21939,7 +21907,7 @@
       </c>
       <c r="O15" s="5"/>
     </row>
-    <row r="16" spans="1:15">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A16" s="40" t="s">
         <v>21</v>
       </c>
@@ -21958,7 +21926,7 @@
       <c r="N16" s="5"/>
       <c r="O16" s="5"/>
     </row>
-    <row r="17" spans="1:15">
+    <row r="17" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A17" s="1">
         <v>1</v>
       </c>
@@ -22003,7 +21971,7 @@
       </c>
       <c r="O17" s="5"/>
     </row>
-    <row r="18" spans="1:15">
+    <row r="18" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A18" s="1">
         <v>2</v>
       </c>
@@ -22044,7 +22012,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="19" spans="1:15">
+    <row r="19" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A19" s="1">
         <v>3</v>
       </c>
@@ -22079,7 +22047,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="20" spans="1:15">
+    <row r="20" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A20" s="1">
         <v>4</v>
       </c>
@@ -22122,7 +22090,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="21" spans="1:15">
+    <row r="21" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A21" s="1">
         <v>5</v>
       </c>
@@ -22151,7 +22119,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="22" spans="1:15">
+    <row r="22" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A22" s="1">
         <v>6</v>
       </c>
@@ -22196,7 +22164,7 @@
       </c>
       <c r="O22" s="5"/>
     </row>
-    <row r="23" spans="1:15">
+    <row r="23" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A23" s="1">
         <v>7</v>
       </c>
@@ -22225,7 +22193,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="24" spans="1:15">
+    <row r="24" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A24" s="1">
         <v>8</v>
       </c>
@@ -22254,7 +22222,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="25" spans="1:15">
+    <row r="25" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A25" s="1">
         <v>9</v>
       </c>
@@ -22283,7 +22251,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="26" spans="1:15">
+    <row r="26" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A26" s="1">
         <v>10</v>
       </c>
@@ -22312,7 +22280,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="27" spans="1:15">
+    <row r="27" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A27" s="1">
         <v>11</v>
       </c>
@@ -22357,7 +22325,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="28" spans="1:15">
+    <row r="28" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A28" s="1">
         <v>12</v>
       </c>
@@ -22386,7 +22354,7 @@
       </c>
       <c r="O28" s="5"/>
     </row>
-    <row r="29" spans="1:15">
+    <row r="29" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A29" s="40" t="s">
         <v>30</v>
       </c>
@@ -22405,7 +22373,7 @@
       <c r="N29" s="5"/>
       <c r="O29" s="5"/>
     </row>
-    <row r="30" spans="1:15">
+    <row r="30" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A30" s="1">
         <v>1</v>
       </c>
@@ -22450,7 +22418,7 @@
       </c>
       <c r="O30" s="5"/>
     </row>
-    <row r="31" spans="1:15">
+    <row r="31" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A31" s="1">
         <v>2</v>
       </c>
@@ -22477,7 +22445,7 @@
       <c r="N31" s="5"/>
       <c r="O31" s="5"/>
     </row>
-    <row r="32" spans="1:15">
+    <row r="32" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A32" s="1">
         <v>3</v>
       </c>
@@ -22522,7 +22490,7 @@
       </c>
       <c r="O32" s="5"/>
     </row>
-    <row r="33" spans="1:15">
+    <row r="33" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A33" s="1">
         <v>4</v>
       </c>
@@ -22563,7 +22531,7 @@
       </c>
       <c r="O33" s="5"/>
     </row>
-    <row r="34" spans="1:15">
+    <row r="34" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A34" s="1">
         <v>5</v>
       </c>
@@ -22606,7 +22574,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="35" spans="1:15">
+    <row r="35" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A35" s="1">
         <v>6</v>
       </c>
@@ -22645,7 +22613,7 @@
       </c>
       <c r="O35" s="5"/>
     </row>
-    <row r="36" spans="1:15">
+    <row r="36" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A36" s="1">
         <v>7</v>
       </c>
@@ -22690,7 +22658,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="37" spans="1:15">
+    <row r="37" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A37" s="1">
         <v>8</v>
       </c>
@@ -22727,7 +22695,7 @@
       </c>
       <c r="O37" s="5"/>
     </row>
-    <row r="38" spans="1:15">
+    <row r="38" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A38" s="1">
         <v>9</v>
       </c>
@@ -22768,7 +22736,7 @@
       </c>
       <c r="O38" s="5"/>
     </row>
-    <row r="39" spans="1:15">
+    <row r="39" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A39" s="1">
         <v>10</v>
       </c>
@@ -22797,7 +22765,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="40" spans="1:15">
+    <row r="40" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A40" s="1">
         <v>11</v>
       </c>
@@ -22830,7 +22798,7 @@
       </c>
       <c r="O40" s="5"/>
     </row>
-    <row r="41" spans="1:15">
+    <row r="41" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A41" s="1">
         <v>12</v>
       </c>
@@ -22875,7 +22843,7 @@
       </c>
       <c r="O41" s="5"/>
     </row>
-    <row r="42" spans="1:15">
+    <row r="42" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A42" s="1">
         <v>13</v>
       </c>
@@ -22908,7 +22876,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="43" spans="1:15">
+    <row r="43" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A43" s="1">
         <v>14</v>
       </c>
@@ -22949,7 +22917,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="44" spans="1:15">
+    <row r="44" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A44" s="1">
         <v>15</v>
       </c>
@@ -22988,7 +22956,7 @@
       <c r="N44" s="5"/>
       <c r="O44" s="5"/>
     </row>
-    <row r="45" spans="1:15">
+    <row r="45" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A45" s="41" t="s">
         <v>75</v>
       </c>
@@ -23007,7 +22975,7 @@
       <c r="N45" s="5"/>
       <c r="O45" s="5"/>
     </row>
-    <row r="46" spans="1:15">
+    <row r="46" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A46" s="1">
         <v>1</v>
       </c>
@@ -23052,7 +23020,7 @@
       </c>
       <c r="O46" s="5"/>
     </row>
-    <row r="47" spans="1:15">
+    <row r="47" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A47" s="1">
         <v>2</v>
       </c>
@@ -23081,7 +23049,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="48" spans="1:15">
+    <row r="48" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A48" s="1">
         <v>3</v>
       </c>
@@ -23122,7 +23090,7 @@
       </c>
       <c r="O48" s="5"/>
     </row>
-    <row r="49" spans="1:15">
+    <row r="49" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A49" s="1">
         <v>4</v>
       </c>
@@ -23151,7 +23119,7 @@
       </c>
       <c r="O49" s="5"/>
     </row>
-    <row r="50" spans="1:15">
+    <row r="50" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A50" s="40" t="s">
         <v>7</v>
       </c>
@@ -23170,7 +23138,7 @@
       <c r="N50" s="5"/>
       <c r="O50" s="5"/>
     </row>
-    <row r="51" spans="1:15">
+    <row r="51" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A51" s="1">
         <v>1</v>
       </c>
@@ -23211,7 +23179,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="52" spans="1:15">
+    <row r="52" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A52" s="40" t="s">
         <v>11</v>
       </c>
@@ -23230,7 +23198,7 @@
       <c r="N52" s="5"/>
       <c r="O52" s="5"/>
     </row>
-    <row r="53" spans="1:15">
+    <row r="53" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A53" s="1">
         <v>1</v>
       </c>
@@ -23275,7 +23243,7 @@
       </c>
       <c r="O53" s="5"/>
     </row>
-    <row r="54" spans="1:15">
+    <row r="54" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A54" s="40" t="s">
         <v>12</v>
       </c>
@@ -23294,7 +23262,7 @@
       <c r="N54" s="5"/>
       <c r="O54" s="5"/>
     </row>
-    <row r="55" spans="1:15">
+    <row r="55" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A55" s="1">
         <v>1</v>
       </c>
@@ -23335,7 +23303,7 @@
       </c>
       <c r="O55" s="5"/>
     </row>
-    <row r="56" spans="1:15">
+    <row r="56" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A56" s="1">
         <v>2</v>
       </c>
@@ -23382,7 +23350,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="57" spans="1:15">
+    <row r="57" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A57" s="1">
         <v>3</v>
       </c>
@@ -23411,7 +23379,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="58" spans="1:15">
+    <row r="58" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A58" s="40" t="s">
         <v>15</v>
       </c>
@@ -23430,7 +23398,7 @@
       <c r="N58" s="5"/>
       <c r="O58" s="5"/>
     </row>
-    <row r="59" spans="1:15">
+    <row r="59" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A59" s="1">
         <v>1</v>
       </c>
@@ -23467,7 +23435,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="60" spans="1:15">
+    <row r="60" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A60" s="1">
         <v>2</v>
       </c>
@@ -23512,7 +23480,7 @@
       </c>
       <c r="O60" s="5"/>
     </row>
-    <row r="61" spans="1:15">
+    <row r="61" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A61" s="40" t="s">
         <v>18</v>
       </c>
@@ -23531,7 +23499,7 @@
       <c r="N61" s="5"/>
       <c r="O61" s="5"/>
     </row>
-    <row r="62" spans="1:15">
+    <row r="62" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A62" s="1">
         <v>1</v>
       </c>
@@ -23570,7 +23538,7 @@
       </c>
       <c r="O62" s="5"/>
     </row>
-    <row r="63" spans="1:15">
+    <row r="63" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A63" s="40" t="s">
         <v>23</v>
       </c>
@@ -23589,7 +23557,7 @@
       <c r="N63" s="5"/>
       <c r="O63" s="5"/>
     </row>
-    <row r="64" spans="1:15">
+    <row r="64" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A64" s="1">
         <v>1</v>
       </c>
@@ -23620,7 +23588,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="65" spans="1:15">
+    <row r="65" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A65" s="1">
         <v>2</v>
       </c>
@@ -23661,7 +23629,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="66" spans="1:15">
+    <row r="66" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A66" s="1">
         <v>3</v>
       </c>
@@ -23702,7 +23670,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="67" spans="1:15">
+    <row r="67" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A67" s="40" t="s">
         <v>162</v>
       </c>
@@ -23721,7 +23689,7 @@
       <c r="N67" s="5"/>
       <c r="O67" s="5"/>
     </row>
-    <row r="68" spans="1:15">
+    <row r="68" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A68" s="3">
         <v>1</v>
       </c>
@@ -23766,7 +23734,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="69" spans="1:15">
+    <row r="69" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A69" s="3">
         <v>2</v>
       </c>
@@ -23803,7 +23771,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="70" spans="1:15">
+    <row r="70" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A70" s="3">
         <v>3</v>
       </c>
@@ -23832,7 +23800,7 @@
       </c>
       <c r="O70" s="5"/>
     </row>
-    <row r="71" spans="1:15">
+    <row r="71" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A71" s="3">
         <v>4</v>
       </c>
@@ -23873,7 +23841,7 @@
       </c>
       <c r="O71" s="5"/>
     </row>
-    <row r="72" spans="1:15">
+    <row r="72" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A72" s="40" t="s">
         <v>165</v>
       </c>
@@ -23892,7 +23860,7 @@
       <c r="N72" s="5"/>
       <c r="O72" s="5"/>
     </row>
-    <row r="73" spans="1:15">
+    <row r="73" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A73" s="3">
         <v>1</v>
       </c>
@@ -23970,7 +23938,7 @@
       <selection activeCell="Q33" sqref="Q33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="31.25" customWidth="1"/>
     <col min="7" max="7" width="20.125" customWidth="1"/>
@@ -23980,7 +23948,7 @@
     <col min="15" max="15" width="15.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>3</v>
       </c>
@@ -24030,7 +23998,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="2" spans="1:16">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A2" s="40" t="s">
         <v>6</v>
       </c>
@@ -24050,7 +24018,7 @@
       <c r="O2" s="5"/>
       <c r="P2" s="1"/>
     </row>
-    <row r="3" spans="1:16">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A3" s="2">
         <v>4</v>
       </c>
@@ -24095,7 +24063,7 @@
       </c>
       <c r="O3" s="24"/>
     </row>
-    <row r="4" spans="1:16">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A4" s="2">
         <v>5</v>
       </c>
@@ -24143,7 +24111,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:16">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A5" s="2">
         <v>7</v>
       </c>
@@ -24193,7 +24161,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:16">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A6" s="2">
         <v>8</v>
       </c>
@@ -24241,7 +24209,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:16">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A7" s="2">
         <v>9</v>
       </c>
@@ -24289,7 +24257,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:16">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A8" s="2">
         <v>10</v>
       </c>
@@ -24337,7 +24305,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:16">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A9" s="2">
         <v>11</v>
       </c>
@@ -24385,7 +24353,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="10" spans="1:16">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A10" s="2">
         <v>12</v>
       </c>
@@ -24433,7 +24401,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="11" spans="1:16">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A11" s="2">
         <v>13</v>
       </c>
@@ -24481,7 +24449,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="12" spans="1:16">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A12" s="40" t="s">
         <v>21</v>
       </c>
@@ -24501,7 +24469,7 @@
       <c r="O12" s="5"/>
       <c r="P12" s="1"/>
     </row>
-    <row r="13" spans="1:16">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
         <v>1</v>
       </c>
@@ -24549,7 +24517,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="14" spans="1:16">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A14" s="1">
         <v>2</v>
       </c>
@@ -24593,7 +24561,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="15" spans="1:16">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A15" s="1">
         <v>6</v>
       </c>
@@ -24641,7 +24609,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="16" spans="1:16">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A16" s="40" t="s">
         <v>30</v>
       </c>
@@ -24661,7 +24629,7 @@
       <c r="O16" s="5"/>
       <c r="P16" s="1"/>
     </row>
-    <row r="17" spans="1:16">
+    <row r="17" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A17" s="1">
         <v>1</v>
       </c>
@@ -24709,7 +24677,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="18" spans="1:16">
+    <row r="18" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A18" s="1">
         <v>3</v>
       </c>
@@ -24757,7 +24725,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="19" spans="1:16">
+    <row r="19" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A19" s="1">
         <v>6</v>
       </c>
@@ -24799,7 +24767,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="20" spans="1:16">
+    <row r="20" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A20" s="1">
         <v>12</v>
       </c>
@@ -24847,7 +24815,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="21" spans="1:16">
+    <row r="21" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A21" s="41" t="s">
         <v>75</v>
       </c>
@@ -24867,7 +24835,7 @@
       <c r="O21" s="5"/>
       <c r="P21" s="1"/>
     </row>
-    <row r="22" spans="1:16">
+    <row r="22" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A22" s="1">
         <v>1</v>
       </c>
@@ -24915,7 +24883,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="23" spans="1:16">
+    <row r="23" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A23" s="40" t="s">
         <v>7</v>
       </c>
@@ -24935,7 +24903,7 @@
       <c r="O23" s="5"/>
       <c r="P23" s="1"/>
     </row>
-    <row r="24" spans="1:16">
+    <row r="24" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A24" s="1">
         <v>1</v>
       </c>
@@ -24979,7 +24947,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="25" spans="1:16">
+    <row r="25" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A25" s="40" t="s">
         <v>11</v>
       </c>
@@ -24999,7 +24967,7 @@
       <c r="O25" s="5"/>
       <c r="P25" s="1"/>
     </row>
-    <row r="26" spans="1:16">
+    <row r="26" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A26" s="1">
         <v>1</v>
       </c>
@@ -25047,7 +25015,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="27" spans="1:16">
+    <row r="27" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A27" s="40" t="s">
         <v>12</v>
       </c>
@@ -25067,7 +25035,7 @@
       <c r="O27" s="5"/>
       <c r="P27" s="1"/>
     </row>
-    <row r="28" spans="1:16">
+    <row r="28" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A28" s="1">
         <v>2</v>
       </c>
@@ -25117,7 +25085,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="29" spans="1:16">
+    <row r="29" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A29" s="40" t="s">
         <v>15</v>
       </c>
@@ -25137,7 +25105,7 @@
       <c r="O29" s="5"/>
       <c r="P29" s="1"/>
     </row>
-    <row r="30" spans="1:16">
+    <row r="30" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A30" s="1">
         <v>2</v>
       </c>
@@ -25185,7 +25153,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="31" spans="1:16">
+    <row r="31" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A31" s="40" t="s">
         <v>18</v>
       </c>
@@ -25205,7 +25173,7 @@
       <c r="O31" s="5"/>
       <c r="P31" s="1"/>
     </row>
-    <row r="32" spans="1:16">
+    <row r="32" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A32" s="1">
         <v>1</v>
       </c>
@@ -25247,7 +25215,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="33" spans="1:16">
+    <row r="33" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A33" s="40" t="s">
         <v>165</v>
       </c>
@@ -25267,7 +25235,7 @@
       <c r="O33" s="5"/>
       <c r="P33" s="1"/>
     </row>
-    <row r="34" spans="1:16">
+    <row r="34" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A34" s="3">
         <v>1</v>
       </c>
@@ -25338,11 +25306,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P32"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="L27" sqref="L27:L28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="16.375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="16.375" customWidth="1"/>
@@ -25355,9 +25323,9 @@
     <col min="16" max="16" width="43.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16">
-      <c r="A1" s="60"/>
-      <c r="B1" s="44"/>
+    <row r="1" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A1" s="46"/>
+      <c r="B1" s="47"/>
       <c r="C1" s="15" t="s">
         <v>304</v>
       </c>
@@ -25371,35 +25339,35 @@
         <v>302</v>
       </c>
       <c r="G1" s="37" t="s">
-        <v>382</v>
-      </c>
-      <c r="H1" s="58" t="s">
+        <v>370</v>
+      </c>
+      <c r="H1" s="53" t="s">
         <v>297</v>
       </c>
-      <c r="I1" s="58"/>
-      <c r="J1" s="59"/>
+      <c r="I1" s="53"/>
+      <c r="J1" s="54"/>
       <c r="K1" s="39" t="s">
-        <v>384</v>
-      </c>
-      <c r="L1" s="56" t="s">
+        <v>372</v>
+      </c>
+      <c r="L1" s="51" t="s">
         <v>293</v>
       </c>
-      <c r="M1" s="44" t="s">
+      <c r="M1" s="47" t="s">
         <v>0</v>
       </c>
-      <c r="N1" s="44" t="s">
+      <c r="N1" s="47" t="s">
         <v>306</v>
       </c>
-      <c r="O1" s="44" t="s">
+      <c r="O1" s="47" t="s">
         <v>317</v>
       </c>
-      <c r="P1" s="52" t="s">
+      <c r="P1" s="55" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:16">
-      <c r="A2" s="60"/>
-      <c r="B2" s="45"/>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A2" s="46"/>
+      <c r="B2" s="48"/>
       <c r="C2" s="16" t="s">
         <v>305</v>
       </c>
@@ -25413,7 +25381,7 @@
         <v>303</v>
       </c>
       <c r="G2" s="38" t="s">
-        <v>383</v>
+        <v>371</v>
       </c>
       <c r="H2" s="12" t="s">
         <v>294</v>
@@ -25425,15 +25393,15 @@
         <v>296</v>
       </c>
       <c r="K2" s="31" t="s">
-        <v>385</v>
-      </c>
-      <c r="L2" s="57"/>
-      <c r="M2" s="45"/>
-      <c r="N2" s="45"/>
-      <c r="O2" s="45"/>
-      <c r="P2" s="53"/>
+        <v>373</v>
+      </c>
+      <c r="L2" s="52"/>
+      <c r="M2" s="48"/>
+      <c r="N2" s="48"/>
+      <c r="O2" s="48"/>
+      <c r="P2" s="56"/>
     </row>
-    <row r="3" spans="1:16">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>319</v>
       </c>
@@ -25481,9 +25449,9 @@
         <v>42</v>
       </c>
     </row>
-    <row r="4" spans="1:16">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>352</v>
+        <v>348</v>
       </c>
       <c r="B4" s="22"/>
       <c r="C4" s="11" t="s">
@@ -25529,7 +25497,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="5" spans="1:16">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>320</v>
       </c>
@@ -25577,9 +25545,9 @@
         <v>46</v>
       </c>
     </row>
-    <row r="6" spans="1:16">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>368</v>
+        <v>358</v>
       </c>
       <c r="B6" s="1"/>
       <c r="C6" s="5" t="s">
@@ -25625,11 +25593,11 @@
         <v>154</v>
       </c>
     </row>
-    <row r="7" spans="1:16">
-      <c r="A7" s="44" t="s">
-        <v>354</v>
-      </c>
-      <c r="B7" s="44"/>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A7" s="47" t="s">
+        <v>349</v>
+      </c>
+      <c r="B7" s="47"/>
       <c r="C7" s="5" t="s">
         <v>324</v>
       </c>
@@ -25657,25 +25625,25 @@
       <c r="K7" s="30">
         <v>20</v>
       </c>
-      <c r="L7" s="44" t="s">
+      <c r="L7" s="47" t="s">
         <v>289</v>
       </c>
-      <c r="M7" s="44" t="s">
+      <c r="M7" s="47" t="s">
         <v>113</v>
       </c>
-      <c r="N7" s="44" t="s">
+      <c r="N7" s="47" t="s">
         <v>307</v>
       </c>
-      <c r="O7" s="44">
+      <c r="O7" s="47">
         <v>17</v>
       </c>
-      <c r="P7" s="46" t="s">
+      <c r="P7" s="57" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="8" spans="1:16">
-      <c r="A8" s="45"/>
-      <c r="B8" s="45"/>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A8" s="48"/>
+      <c r="B8" s="48"/>
       <c r="C8" s="9" t="s">
         <v>325</v>
       </c>
@@ -25703,15 +25671,15 @@
       <c r="K8" s="30">
         <v>20</v>
       </c>
-      <c r="L8" s="45"/>
-      <c r="M8" s="45"/>
-      <c r="N8" s="45"/>
-      <c r="O8" s="45"/>
-      <c r="P8" s="47"/>
+      <c r="L8" s="48"/>
+      <c r="M8" s="48"/>
+      <c r="N8" s="48"/>
+      <c r="O8" s="48"/>
+      <c r="P8" s="58"/>
     </row>
-    <row r="9" spans="1:16">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="B9" s="1"/>
       <c r="C9" s="5" t="s">
@@ -25757,9 +25725,9 @@
         <v>38</v>
       </c>
     </row>
-    <row r="10" spans="1:16">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
-        <v>355</v>
+        <v>350</v>
       </c>
       <c r="B10" s="1"/>
       <c r="C10" s="5" t="s">
@@ -25805,9 +25773,9 @@
         <v>29</v>
       </c>
     </row>
-    <row r="11" spans="1:16">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
       <c r="B11" s="1"/>
       <c r="C11" s="5" t="s">
@@ -25853,9 +25821,9 @@
         <v>5</v>
       </c>
     </row>
-    <row r="12" spans="1:16">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
-        <v>369</v>
+        <v>359</v>
       </c>
       <c r="B12" s="1"/>
       <c r="C12" s="5" t="s">
@@ -25901,9 +25869,9 @@
         <v>27</v>
       </c>
     </row>
-    <row r="13" spans="1:16">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
-        <v>357</v>
+        <v>351</v>
       </c>
       <c r="B13" s="1"/>
       <c r="C13" s="5" t="s">
@@ -25949,9 +25917,9 @@
         <v>22</v>
       </c>
     </row>
-    <row r="14" spans="1:16">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
-        <v>358</v>
+        <v>352</v>
       </c>
       <c r="B14" s="1"/>
       <c r="C14" s="5" t="s">
@@ -25997,9 +25965,9 @@
         <v>36</v>
       </c>
     </row>
-    <row r="15" spans="1:16">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
-        <v>366</v>
+        <v>357</v>
       </c>
       <c r="B15" s="1"/>
       <c r="C15" s="5" t="s">
@@ -26045,7 +26013,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="16" spans="1:16">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
         <v>342</v>
       </c>
@@ -26093,7 +26061,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="17" spans="1:16">
+    <row r="17" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
         <v>339</v>
       </c>
@@ -26141,7 +26109,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="18" spans="1:16">
+    <row r="18" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
         <v>343</v>
       </c>
@@ -26183,9 +26151,9 @@
         <v>69</v>
       </c>
     </row>
-    <row r="19" spans="1:16">
+    <row r="19" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
-        <v>360</v>
+        <v>353</v>
       </c>
       <c r="B19" s="1"/>
       <c r="C19" s="5" t="s">
@@ -26231,9 +26199,9 @@
         <v>32</v>
       </c>
     </row>
-    <row r="20" spans="1:16">
+    <row r="20" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
-        <v>351</v>
+        <v>347</v>
       </c>
       <c r="B20" s="1"/>
       <c r="C20" s="5" t="s">
@@ -26279,77 +26247,77 @@
         <v>157</v>
       </c>
     </row>
-    <row r="21" spans="1:16">
-      <c r="A21" s="44" t="s">
-        <v>361</v>
-      </c>
-      <c r="B21" s="44"/>
-      <c r="C21" s="44" t="s">
+    <row r="21" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A21" s="47" t="s">
+        <v>354</v>
+      </c>
+      <c r="B21" s="47"/>
+      <c r="C21" s="47" t="s">
         <v>207</v>
       </c>
-      <c r="D21" s="61">
+      <c r="D21" s="49">
         <v>1280.3</v>
       </c>
-      <c r="E21" s="48">
+      <c r="E21" s="59">
         <v>160</v>
       </c>
-      <c r="F21" s="50">
+      <c r="F21" s="61">
         <v>8</v>
       </c>
-      <c r="G21" s="54">
+      <c r="G21" s="63">
         <v>150</v>
       </c>
-      <c r="H21" s="44" t="s">
+      <c r="H21" s="47" t="s">
         <v>336</v>
       </c>
-      <c r="I21" s="44" t="s">
+      <c r="I21" s="47" t="s">
         <v>337</v>
       </c>
-      <c r="J21" s="52" t="s">
+      <c r="J21" s="55" t="s">
         <v>338</v>
       </c>
-      <c r="K21" s="44">
+      <c r="K21" s="47">
         <v>28</v>
       </c>
       <c r="L21" s="10" t="s">
         <v>322</v>
       </c>
-      <c r="M21" s="44" t="s">
+      <c r="M21" s="47" t="s">
         <v>179</v>
       </c>
-      <c r="N21" s="44" t="s">
+      <c r="N21" s="47" t="s">
         <v>311</v>
       </c>
-      <c r="O21" s="44">
+      <c r="O21" s="47">
         <v>16</v>
       </c>
-      <c r="P21" s="46" t="s">
+      <c r="P21" s="57" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="22" spans="1:16">
-      <c r="A22" s="45"/>
-      <c r="B22" s="45"/>
-      <c r="C22" s="45"/>
-      <c r="D22" s="62"/>
-      <c r="E22" s="49"/>
-      <c r="F22" s="51"/>
-      <c r="G22" s="55"/>
-      <c r="H22" s="45"/>
-      <c r="I22" s="45"/>
-      <c r="J22" s="53"/>
-      <c r="K22" s="45"/>
+    <row r="22" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A22" s="48"/>
+      <c r="B22" s="48"/>
+      <c r="C22" s="48"/>
+      <c r="D22" s="50"/>
+      <c r="E22" s="60"/>
+      <c r="F22" s="62"/>
+      <c r="G22" s="64"/>
+      <c r="H22" s="48"/>
+      <c r="I22" s="48"/>
+      <c r="J22" s="56"/>
+      <c r="K22" s="48"/>
       <c r="L22" s="11" t="s">
         <v>323</v>
       </c>
-      <c r="M22" s="45"/>
-      <c r="N22" s="45"/>
-      <c r="O22" s="45"/>
-      <c r="P22" s="47"/>
+      <c r="M22" s="48"/>
+      <c r="N22" s="48"/>
+      <c r="O22" s="48"/>
+      <c r="P22" s="58"/>
     </row>
-    <row r="23" spans="1:16">
+    <row r="23" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="B23" s="1"/>
       <c r="C23" s="5" t="s">
@@ -26395,9 +26363,9 @@
         <v>10</v>
       </c>
     </row>
-    <row r="24" spans="1:16">
+    <row r="24" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
-        <v>362</v>
+        <v>355</v>
       </c>
       <c r="B24" s="1"/>
       <c r="C24" s="5" t="s">
@@ -26443,9 +26411,9 @@
         <v>83</v>
       </c>
     </row>
-    <row r="25" spans="1:16">
+    <row r="25" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
-        <v>371</v>
+        <v>360</v>
       </c>
       <c r="B25" s="1"/>
       <c r="C25" s="5" t="s">
@@ -26491,9 +26459,9 @@
         <v>85</v>
       </c>
     </row>
-    <row r="26" spans="1:16">
+    <row r="26" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
-        <v>363</v>
+        <v>356</v>
       </c>
       <c r="B26" s="1"/>
       <c r="C26" s="5" t="s">
@@ -26539,15 +26507,15 @@
         <v>164</v>
       </c>
     </row>
-    <row r="27" spans="1:16">
-      <c r="C27" s="64" t="s">
-        <v>401</v>
+    <row r="27" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="C27" s="44" t="s">
+        <v>387</v>
       </c>
     </row>
-    <row r="28" spans="1:16">
-      <c r="C28" s="63"/>
+    <row r="28" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="C28" s="45"/>
     </row>
-    <row r="32" spans="1:16">
+    <row r="32" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C32" s="17"/>
       <c r="D32" s="17"/>
       <c r="E32" s="8"/>
@@ -26564,26 +26532,6 @@
     </row>
   </sheetData>
   <mergeCells count="31">
-    <mergeCell ref="C27:C28"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="A21:A22"/>
-    <mergeCell ref="C21:C22"/>
-    <mergeCell ref="D21:D22"/>
-    <mergeCell ref="A7:A8"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="B7:B8"/>
-    <mergeCell ref="B21:B22"/>
-    <mergeCell ref="M1:M2"/>
-    <mergeCell ref="L1:L2"/>
-    <mergeCell ref="H1:J1"/>
-    <mergeCell ref="P1:P2"/>
-    <mergeCell ref="N1:N2"/>
-    <mergeCell ref="O1:O2"/>
-    <mergeCell ref="L7:L8"/>
-    <mergeCell ref="M7:M8"/>
-    <mergeCell ref="N7:N8"/>
-    <mergeCell ref="O7:O8"/>
-    <mergeCell ref="P7:P8"/>
     <mergeCell ref="M21:M22"/>
     <mergeCell ref="N21:N22"/>
     <mergeCell ref="O21:O22"/>
@@ -26595,6 +26543,26 @@
     <mergeCell ref="J21:J22"/>
     <mergeCell ref="G21:G22"/>
     <mergeCell ref="K21:K22"/>
+    <mergeCell ref="L7:L8"/>
+    <mergeCell ref="M7:M8"/>
+    <mergeCell ref="N7:N8"/>
+    <mergeCell ref="O7:O8"/>
+    <mergeCell ref="P7:P8"/>
+    <mergeCell ref="M1:M2"/>
+    <mergeCell ref="L1:L2"/>
+    <mergeCell ref="H1:J1"/>
+    <mergeCell ref="P1:P2"/>
+    <mergeCell ref="N1:N2"/>
+    <mergeCell ref="O1:O2"/>
+    <mergeCell ref="C27:C28"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="A21:A22"/>
+    <mergeCell ref="C21:C22"/>
+    <mergeCell ref="D21:D22"/>
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="B7:B8"/>
+    <mergeCell ref="B21:B22"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -26607,11 +26575,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W32"/>
   <sheetViews>
-    <sheetView zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <selection activeCell="Q41" sqref="Q41"/>
+    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="R41" sqref="R41"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="15.75" customWidth="1"/>
     <col min="3" max="3" width="11.125" bestFit="1" customWidth="1"/>
@@ -26623,9 +26591,10 @@
     <col min="15" max="15" width="16.5" customWidth="1"/>
     <col min="16" max="16" width="14" customWidth="1"/>
     <col min="17" max="17" width="20.25" customWidth="1"/>
+    <col min="18" max="18" width="19.875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23">
+    <row r="1" spans="1:23" x14ac:dyDescent="0.2">
       <c r="B1" s="29"/>
       <c r="C1" s="29" t="s">
         <v>329</v>
@@ -26664,10 +26633,10 @@
         <v>210</v>
       </c>
       <c r="O1" s="8" t="s">
-        <v>397</v>
+        <v>384</v>
       </c>
       <c r="P1" s="8" t="s">
-        <v>377</v>
+        <v>365</v>
       </c>
       <c r="Q1" s="29" t="s">
         <v>341</v>
@@ -26679,7 +26648,7 @@
       <c r="V1" s="29"/>
       <c r="W1" s="25"/>
     </row>
-    <row r="2" spans="1:23">
+    <row r="2" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1</v>
       </c>
@@ -26711,15 +26680,17 @@
       <c r="O2" s="27"/>
       <c r="P2" s="27"/>
       <c r="Q2" s="29" t="s">
+        <v>400</v>
+      </c>
+      <c r="R2" s="29" t="s">
         <v>318</v>
       </c>
-      <c r="R2" s="29"/>
       <c r="S2" s="27"/>
       <c r="T2" s="27"/>
       <c r="U2" s="27"/>
       <c r="V2" s="27"/>
     </row>
-    <row r="3" spans="1:23">
+    <row r="3" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>1</v>
       </c>
@@ -26751,15 +26722,17 @@
       <c r="O3" s="27"/>
       <c r="P3" s="27"/>
       <c r="Q3" s="29" t="s">
-        <v>344</v>
-      </c>
-      <c r="R3" s="29"/>
+        <v>402</v>
+      </c>
+      <c r="R3" s="29" t="s">
+        <v>343</v>
+      </c>
       <c r="S3" s="27"/>
       <c r="T3" s="27"/>
       <c r="U3" s="27"/>
       <c r="V3" s="27"/>
     </row>
-    <row r="4" spans="1:23">
+    <row r="4" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>2</v>
       </c>
@@ -26791,15 +26764,17 @@
       <c r="O4" s="27"/>
       <c r="P4" s="27"/>
       <c r="Q4" s="29" t="s">
-        <v>345</v>
-      </c>
-      <c r="R4" s="29"/>
+        <v>401</v>
+      </c>
+      <c r="R4" s="29" t="s">
+        <v>339</v>
+      </c>
       <c r="S4" s="27"/>
       <c r="T4" s="27"/>
       <c r="U4" s="27"/>
       <c r="V4" s="27"/>
     </row>
-    <row r="5" spans="1:23">
+    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>64</v>
       </c>
@@ -26831,16 +26806,18 @@
       <c r="O5" s="27"/>
       <c r="P5" s="27"/>
       <c r="Q5" s="29" t="s">
+        <v>406</v>
+      </c>
+      <c r="R5" s="29" t="s">
         <v>340</v>
       </c>
-      <c r="R5" s="29"/>
       <c r="S5" s="27"/>
       <c r="T5" s="27"/>
       <c r="U5" s="27"/>
       <c r="V5" s="26"/>
       <c r="W5" s="28"/>
     </row>
-    <row r="6" spans="1:23">
+    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>128</v>
       </c>
@@ -26872,15 +26849,17 @@
       <c r="O6" s="27"/>
       <c r="P6" s="27"/>
       <c r="Q6" s="29" t="s">
-        <v>348</v>
-      </c>
-      <c r="R6" s="29"/>
+        <v>411</v>
+      </c>
+      <c r="R6" s="29" t="s">
+        <v>345</v>
+      </c>
       <c r="S6" s="27"/>
       <c r="T6" s="27"/>
       <c r="U6" s="27"/>
       <c r="V6" s="27"/>
     </row>
-    <row r="7" spans="1:23">
+    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>128</v>
       </c>
@@ -26912,15 +26891,17 @@
       <c r="O7" s="27"/>
       <c r="P7" s="27"/>
       <c r="Q7" s="29" t="s">
-        <v>350</v>
-      </c>
-      <c r="R7" s="26"/>
+        <v>394</v>
+      </c>
+      <c r="R7" s="29" t="s">
+        <v>346</v>
+      </c>
       <c r="S7" s="26"/>
       <c r="T7" s="27"/>
       <c r="U7" s="27"/>
       <c r="V7" s="27"/>
     </row>
-    <row r="8" spans="1:23">
+    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>128</v>
       </c>
@@ -26952,15 +26933,17 @@
       <c r="O8" s="27"/>
       <c r="P8" s="27"/>
       <c r="Q8" s="29" t="s">
-        <v>351</v>
-      </c>
-      <c r="R8" s="26"/>
+        <v>404</v>
+      </c>
+      <c r="R8" s="29" t="s">
+        <v>347</v>
+      </c>
       <c r="S8" s="26"/>
       <c r="T8" s="27"/>
       <c r="U8" s="27"/>
       <c r="V8" s="27"/>
     </row>
-    <row r="9" spans="1:23">
+    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>192</v>
       </c>
@@ -26992,15 +26975,17 @@
       <c r="O9" s="27"/>
       <c r="P9" s="27"/>
       <c r="Q9" s="29" t="s">
-        <v>352</v>
-      </c>
-      <c r="R9" s="26"/>
+        <v>389</v>
+      </c>
+      <c r="R9" s="29" t="s">
+        <v>348</v>
+      </c>
       <c r="S9" s="26"/>
       <c r="T9" s="27"/>
       <c r="U9" s="27"/>
       <c r="V9" s="27"/>
     </row>
-    <row r="10" spans="1:23">
+    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>192</v>
       </c>
@@ -27032,20 +27017,22 @@
       <c r="O10" s="27"/>
       <c r="P10" s="27"/>
       <c r="Q10" s="29" t="s">
-        <v>352</v>
-      </c>
-      <c r="R10" s="26"/>
+        <v>389</v>
+      </c>
+      <c r="R10" s="29" t="s">
+        <v>348</v>
+      </c>
       <c r="S10" s="26"/>
       <c r="T10" s="27"/>
       <c r="U10" s="27"/>
       <c r="V10" s="27"/>
     </row>
-    <row r="11" spans="1:23">
+    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>256</v>
       </c>
       <c r="B11" s="29" t="s">
-        <v>393</v>
+        <v>381</v>
       </c>
       <c r="C11" s="26">
         <v>431</v>
@@ -27072,20 +27059,22 @@
       <c r="O11" s="27"/>
       <c r="P11" s="27"/>
       <c r="Q11" s="29" t="s">
-        <v>394</v>
-      </c>
-      <c r="R11" s="29"/>
+        <v>390</v>
+      </c>
+      <c r="R11" s="29" t="s">
+        <v>382</v>
+      </c>
       <c r="S11" s="27"/>
       <c r="T11" s="27"/>
       <c r="U11" s="27"/>
       <c r="V11" s="27"/>
     </row>
-    <row r="12" spans="1:23">
+    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>256</v>
       </c>
       <c r="B12" s="29" t="s">
-        <v>395</v>
+        <v>383</v>
       </c>
       <c r="C12" s="26">
         <v>785</v>
@@ -27112,15 +27101,17 @@
       <c r="O12" s="27"/>
       <c r="P12" s="27"/>
       <c r="Q12" s="29" t="s">
-        <v>396</v>
-      </c>
-      <c r="R12" s="29"/>
+        <v>391</v>
+      </c>
+      <c r="R12" s="29" t="s">
+        <v>382</v>
+      </c>
       <c r="S12" s="27"/>
       <c r="T12" s="27"/>
       <c r="U12" s="27"/>
       <c r="V12" s="27"/>
     </row>
-    <row r="13" spans="1:23">
+    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>256</v>
       </c>
@@ -27152,15 +27143,17 @@
       <c r="O13" s="27"/>
       <c r="P13" s="27"/>
       <c r="Q13" s="29" t="s">
-        <v>353</v>
-      </c>
-      <c r="R13" s="29"/>
+        <v>392</v>
+      </c>
+      <c r="R13" s="29" t="s">
+        <v>320</v>
+      </c>
       <c r="S13" s="27"/>
       <c r="T13" s="27"/>
       <c r="U13" s="27"/>
       <c r="V13" s="27"/>
     </row>
-    <row r="14" spans="1:23">
+    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>256</v>
       </c>
@@ -27192,15 +27185,17 @@
       <c r="O14" s="27"/>
       <c r="P14" s="27"/>
       <c r="Q14" s="29" t="s">
-        <v>398</v>
-      </c>
-      <c r="R14" s="29"/>
+        <v>393</v>
+      </c>
+      <c r="R14" s="29" t="s">
+        <v>385</v>
+      </c>
       <c r="S14" s="27"/>
       <c r="T14" s="27"/>
       <c r="U14" s="27"/>
       <c r="V14" s="27"/>
     </row>
-    <row r="15" spans="1:23">
+    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>256</v>
       </c>
@@ -27232,15 +27227,17 @@
       <c r="O15" s="27"/>
       <c r="P15" s="27"/>
       <c r="Q15" s="29" t="s">
-        <v>356</v>
-      </c>
-      <c r="R15" s="29"/>
+        <v>395</v>
+      </c>
+      <c r="R15" s="29" t="s">
+        <v>350</v>
+      </c>
       <c r="S15" s="27"/>
       <c r="T15" s="27"/>
       <c r="U15" s="27"/>
       <c r="V15" s="27"/>
     </row>
-    <row r="16" spans="1:23">
+    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>256</v>
       </c>
@@ -27272,15 +27269,17 @@
       <c r="O16" s="27"/>
       <c r="P16" s="27"/>
       <c r="Q16" s="29" t="s">
-        <v>357</v>
-      </c>
-      <c r="R16" s="29"/>
+        <v>397</v>
+      </c>
+      <c r="R16" s="29" t="s">
+        <v>351</v>
+      </c>
       <c r="S16" s="27"/>
       <c r="T16" s="27"/>
       <c r="U16" s="27"/>
       <c r="V16" s="27"/>
     </row>
-    <row r="17" spans="1:22">
+    <row r="17" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>256</v>
       </c>
@@ -27312,15 +27311,17 @@
       <c r="O17" s="27"/>
       <c r="P17" s="27"/>
       <c r="Q17" s="29" t="s">
-        <v>359</v>
-      </c>
-      <c r="R17" s="29"/>
+        <v>398</v>
+      </c>
+      <c r="R17" s="29" t="s">
+        <v>352</v>
+      </c>
       <c r="S17" s="27"/>
       <c r="T17" s="27"/>
       <c r="U17" s="27"/>
       <c r="V17" s="27"/>
     </row>
-    <row r="18" spans="1:22">
+    <row r="18" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>256</v>
       </c>
@@ -27352,15 +27353,17 @@
       <c r="O18" s="27"/>
       <c r="P18" s="27"/>
       <c r="Q18" s="29" t="s">
-        <v>360</v>
-      </c>
-      <c r="R18" s="29"/>
+        <v>403</v>
+      </c>
+      <c r="R18" s="29" t="s">
+        <v>353</v>
+      </c>
       <c r="S18" s="27"/>
       <c r="T18" s="27"/>
       <c r="U18" s="27"/>
       <c r="V18" s="27"/>
     </row>
-    <row r="19" spans="1:22">
+    <row r="19" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>256</v>
       </c>
@@ -27392,15 +27395,17 @@
       <c r="O19" s="27"/>
       <c r="P19" s="27"/>
       <c r="Q19" s="29" t="s">
-        <v>361</v>
-      </c>
-      <c r="R19" s="29"/>
+        <v>405</v>
+      </c>
+      <c r="R19" s="29" t="s">
+        <v>354</v>
+      </c>
       <c r="S19" s="27"/>
       <c r="T19" s="27"/>
       <c r="U19" s="27"/>
       <c r="V19" s="27"/>
     </row>
-    <row r="20" spans="1:22">
+    <row r="20" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>256</v>
       </c>
@@ -27432,15 +27437,17 @@
       <c r="O20" s="27"/>
       <c r="P20" s="27"/>
       <c r="Q20" s="29" t="s">
-        <v>362</v>
-      </c>
-      <c r="R20" s="29"/>
+        <v>407</v>
+      </c>
+      <c r="R20" s="29" t="s">
+        <v>355</v>
+      </c>
       <c r="S20" s="27"/>
       <c r="T20" s="27"/>
       <c r="U20" s="27"/>
       <c r="V20" s="27"/>
     </row>
-    <row r="21" spans="1:22">
+    <row r="21" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>256</v>
       </c>
@@ -27472,15 +27479,17 @@
       <c r="O21" s="27"/>
       <c r="P21" s="27"/>
       <c r="Q21" s="29" t="s">
-        <v>364</v>
-      </c>
-      <c r="R21" s="29"/>
+        <v>409</v>
+      </c>
+      <c r="R21" s="29" t="s">
+        <v>356</v>
+      </c>
       <c r="S21" s="27"/>
       <c r="T21" s="26"/>
       <c r="U21" s="26"/>
       <c r="V21" s="27"/>
     </row>
-    <row r="22" spans="1:22">
+    <row r="22" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>300</v>
       </c>
@@ -27512,15 +27521,17 @@
       <c r="O22" s="27"/>
       <c r="P22" s="27"/>
       <c r="Q22" s="29" t="s">
-        <v>365</v>
-      </c>
-      <c r="R22" s="29"/>
+        <v>388</v>
+      </c>
+      <c r="R22" s="29" t="s">
+        <v>319</v>
+      </c>
       <c r="S22" s="27"/>
       <c r="T22" s="27"/>
       <c r="U22" s="27"/>
       <c r="V22" s="27"/>
     </row>
-    <row r="23" spans="1:22">
+    <row r="23" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>1024</v>
       </c>
@@ -27552,15 +27563,17 @@
       <c r="O23" s="27"/>
       <c r="P23" s="27"/>
       <c r="Q23" s="29" t="s">
-        <v>367</v>
-      </c>
-      <c r="R23" s="29"/>
+        <v>399</v>
+      </c>
+      <c r="R23" s="29" t="s">
+        <v>357</v>
+      </c>
       <c r="S23" s="27"/>
       <c r="T23" s="27"/>
       <c r="U23" s="27"/>
       <c r="V23" s="27"/>
     </row>
-    <row r="24" spans="1:22">
+    <row r="24" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>1500</v>
       </c>
@@ -27592,15 +27605,17 @@
       <c r="O24" s="27"/>
       <c r="P24" s="27"/>
       <c r="Q24" s="29" t="s">
-        <v>399</v>
-      </c>
-      <c r="R24" s="29"/>
+        <v>410</v>
+      </c>
+      <c r="R24" s="29" t="s">
+        <v>386</v>
+      </c>
       <c r="S24" s="27"/>
       <c r="T24" s="27"/>
       <c r="U24" s="27"/>
       <c r="V24" s="27"/>
     </row>
-    <row r="25" spans="1:22">
+    <row r="25" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>1500</v>
       </c>
@@ -27632,11 +27647,13 @@
       <c r="O25" s="27"/>
       <c r="P25" s="27"/>
       <c r="Q25" s="29" t="s">
-        <v>400</v>
-      </c>
-      <c r="R25" s="32"/>
+        <v>393</v>
+      </c>
+      <c r="R25" s="29" t="s">
+        <v>385</v>
+      </c>
     </row>
-    <row r="26" spans="1:22">
+    <row r="26" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>1500</v>
       </c>
@@ -27668,10 +27685,13 @@
       <c r="O26" s="27"/>
       <c r="P26" s="27"/>
       <c r="Q26" s="29" t="s">
-        <v>370</v>
+        <v>396</v>
+      </c>
+      <c r="R26" s="29" t="s">
+        <v>359</v>
       </c>
     </row>
-    <row r="27" spans="1:22">
+    <row r="27" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>1500</v>
       </c>
@@ -27695,12 +27715,15 @@
       <c r="O27" s="27"/>
       <c r="P27" s="27"/>
       <c r="Q27" s="29" t="s">
-        <v>372</v>
+        <v>408</v>
+      </c>
+      <c r="R27" s="29" t="s">
+        <v>360</v>
       </c>
     </row>
-    <row r="28" spans="1:22">
+    <row r="28" spans="1:22" x14ac:dyDescent="0.2">
       <c r="B28" s="8" t="s">
-        <v>373</v>
+        <v>361</v>
       </c>
       <c r="C28" s="32">
         <v>3544</v>
@@ -27719,12 +27742,15 @@
       </c>
       <c r="P28" s="17"/>
       <c r="Q28" s="8" t="s">
-        <v>380</v>
+        <v>368</v>
+      </c>
+      <c r="R28" s="8" t="s">
+        <v>368</v>
       </c>
     </row>
-    <row r="29" spans="1:22">
+    <row r="29" spans="1:22" x14ac:dyDescent="0.2">
       <c r="B29" s="8" t="s">
-        <v>374</v>
+        <v>362</v>
       </c>
       <c r="C29" s="32">
         <v>5991</v>
@@ -27741,12 +27767,15 @@
         <v>3.777499319590365</v>
       </c>
       <c r="Q29" s="8" t="s">
-        <v>381</v>
+        <v>369</v>
+      </c>
+      <c r="R29" s="8" t="s">
+        <v>369</v>
       </c>
     </row>
-    <row r="30" spans="1:22">
+    <row r="30" spans="1:22" x14ac:dyDescent="0.2">
       <c r="B30" s="8" t="s">
-        <v>375</v>
+        <v>363</v>
       </c>
       <c r="C30" s="32">
         <v>868</v>
@@ -27763,12 +27792,15 @@
         <v>2.9385197251764921</v>
       </c>
       <c r="Q30" s="8" t="s">
-        <v>378</v>
+        <v>366</v>
+      </c>
+      <c r="R30" s="8" t="s">
+        <v>366</v>
       </c>
     </row>
-    <row r="31" spans="1:22">
+    <row r="31" spans="1:22" x14ac:dyDescent="0.2">
       <c r="B31" s="8" t="s">
-        <v>376</v>
+        <v>364</v>
       </c>
       <c r="C31" s="32">
         <v>81.400000000000006</v>
@@ -27785,12 +27817,15 @@
         <v>1.9106244048892012</v>
       </c>
       <c r="Q31" s="8" t="s">
-        <v>379</v>
+        <v>367</v>
+      </c>
+      <c r="R31" s="8" t="s">
+        <v>367</v>
       </c>
     </row>
-    <row r="32" spans="1:22">
+    <row r="32" spans="1:22" x14ac:dyDescent="0.2">
       <c r="B32" s="8" t="s">
-        <v>377</v>
+        <v>365</v>
       </c>
       <c r="C32" s="32">
         <v>2700</v>
@@ -27807,7 +27842,10 @@
         <v>3.4313637641589874</v>
       </c>
       <c r="Q32" s="8" t="s">
-        <v>377</v>
+        <v>365</v>
+      </c>
+      <c r="R32" s="8" t="s">
+        <v>365</v>
       </c>
     </row>
   </sheetData>
@@ -27829,9 +27867,9 @@
       <selection activeCell="F47" sqref="F47"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>331</v>
       </c>
@@ -27842,7 +27880,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" s="9">
         <v>97</v>
       </c>
@@ -27853,7 +27891,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" s="9">
         <v>54.4</v>
       </c>
@@ -27864,7 +27902,7 @@
         <v>87.7</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" s="9">
         <v>94.54</v>
       </c>
@@ -27875,7 +27913,7 @@
         <v>6.07</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" s="9">
         <v>87.5</v>
       </c>
@@ -27886,7 +27924,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" s="9">
         <v>91</v>
       </c>
@@ -27897,7 +27935,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" s="9">
         <v>100</v>
       </c>
@@ -27908,7 +27946,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="8" spans="1:3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" s="9">
         <v>89.2</v>
       </c>
@@ -27919,7 +27957,7 @@
         <v>86.7</v>
       </c>
     </row>
-    <row r="9" spans="1:3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" s="9">
         <v>12.5</v>
       </c>
@@ -27930,7 +27968,7 @@
         <v>65.2</v>
       </c>
     </row>
-    <row r="10" spans="1:3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" s="9">
         <v>80</v>
       </c>
@@ -27941,7 +27979,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="11" spans="1:3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" s="9">
         <v>65</v>
       </c>
@@ -27952,7 +27990,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="12" spans="1:3">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12" s="9">
         <v>100</v>
       </c>
@@ -27963,7 +28001,7 @@
         <v>17.600000000000001</v>
       </c>
     </row>
-    <row r="13" spans="1:3">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A13" s="9">
         <v>0.5</v>
       </c>
@@ -27974,7 +28012,7 @@
         <v>11.4</v>
       </c>
     </row>
-    <row r="14" spans="1:3">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A14" s="9">
         <v>40.5</v>
       </c>
@@ -27985,7 +28023,7 @@
         <v>37.700000000000003</v>
       </c>
     </row>
-    <row r="15" spans="1:3">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A15" s="9">
         <v>59.56</v>
       </c>
@@ -27996,7 +28034,7 @@
         <v>65.069999999999993</v>
       </c>
     </row>
-    <row r="16" spans="1:3">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A16" s="9">
         <v>39.9</v>
       </c>
@@ -28007,7 +28045,7 @@
         <v>39.700000000000003</v>
       </c>
     </row>
-    <row r="17" spans="1:3">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17" s="9">
         <v>87</v>
       </c>
@@ -28018,7 +28056,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="18" spans="1:3">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18" s="9">
         <v>91.9</v>
       </c>
@@ -28029,7 +28067,7 @@
         <v>83.2</v>
       </c>
     </row>
-    <row r="19" spans="1:3">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A19" s="9">
         <v>42</v>
       </c>
@@ -28040,7 +28078,7 @@
         <v>52.04</v>
       </c>
     </row>
-    <row r="20" spans="1:3">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A20" s="9">
         <v>78</v>
       </c>
@@ -28062,39 +28100,39 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J17" sqref="J17"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K18" sqref="K18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="7" max="7" width="12.75" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>386</v>
+        <v>374</v>
       </c>
       <c r="B1" t="s">
-        <v>387</v>
+        <v>375</v>
       </c>
       <c r="C1" t="s">
-        <v>388</v>
+        <v>376</v>
       </c>
       <c r="D1" t="s">
-        <v>389</v>
+        <v>377</v>
       </c>
       <c r="E1" t="s">
-        <v>391</v>
+        <v>379</v>
       </c>
       <c r="F1" t="s">
-        <v>390</v>
+        <v>378</v>
       </c>
       <c r="G1" t="s">
-        <v>392</v>
+        <v>380</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" s="19">
         <v>1382</v>
       </c>
@@ -28118,7 +28156,7 @@
         <v>4.561056105610561</v>
       </c>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" s="35">
         <v>2520</v>
       </c>
@@ -28142,7 +28180,7 @@
         <v>12.6</v>
       </c>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" s="19">
         <v>12.73</v>
       </c>
@@ -28166,7 +28204,7 @@
         <v>0.1273</v>
       </c>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" s="19">
         <v>123.5</v>
       </c>
@@ -28190,7 +28228,7 @@
         <v>0.61750000000000005</v>
       </c>
     </row>
-    <row r="6" spans="1:7">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" s="19">
         <v>1790</v>
       </c>
@@ -28214,7 +28252,7 @@
         <v>4.6493506493506498</v>
       </c>
     </row>
-    <row r="7" spans="1:7">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" s="19">
         <v>645.25</v>
       </c>
@@ -28238,7 +28276,7 @@
         <v>4.3016666666666667</v>
       </c>
     </row>
-    <row r="8" spans="1:7">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8" s="19">
         <v>136.97</v>
       </c>
@@ -28262,7 +28300,7 @@
         <v>0.91313333333333335</v>
       </c>
     </row>
-    <row r="9" spans="1:7">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9" s="19">
         <v>117.8</v>
       </c>
@@ -28286,7 +28324,7 @@
         <v>0.98166666666666669</v>
       </c>
     </row>
-    <row r="10" spans="1:7">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10" s="19">
         <v>61.62</v>
       </c>
@@ -28310,7 +28348,7 @@
         <v>0.61619999999999997</v>
       </c>
     </row>
-    <row r="11" spans="1:7">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11" s="19">
         <v>364.4</v>
       </c>
@@ -28334,7 +28372,7 @@
         <v>2.4293333333333331</v>
       </c>
     </row>
-    <row r="12" spans="1:7">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A12" s="19">
         <v>229</v>
       </c>
@@ -28358,7 +28396,7 @@
         <v>1.145</v>
       </c>
     </row>
-    <row r="13" spans="1:7">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13" s="19">
         <v>329.47</v>
       </c>
@@ -28382,7 +28420,7 @@
         <v>2.3039860139860142</v>
       </c>
     </row>
-    <row r="14" spans="1:7">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A14" s="19">
         <v>410.22</v>
       </c>
@@ -28406,7 +28444,7 @@
         <v>2.0510999999999999</v>
       </c>
     </row>
-    <row r="15" spans="1:7">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A15" s="19">
         <v>565.94000000000005</v>
       </c>
@@ -28430,7 +28468,7 @@
         <v>3.627820512820513</v>
       </c>
     </row>
-    <row r="16" spans="1:7">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A16" s="19">
         <v>222.1</v>
       </c>
@@ -28454,7 +28492,7 @@
         <v>2.2210000000000001</v>
       </c>
     </row>
-    <row r="17" spans="1:7">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A17" s="19">
         <v>84.3</v>
       </c>
@@ -28478,7 +28516,7 @@
         <v>0.56199999999999994</v>
       </c>
     </row>
-    <row r="18" spans="1:7">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A18" s="19">
         <v>229.5</v>
       </c>
@@ -28502,7 +28540,7 @@
         <v>2.2949999999999999</v>
       </c>
     </row>
-    <row r="19" spans="1:7">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A19" s="19">
         <v>7.26</v>
       </c>
@@ -28526,7 +28564,7 @@
         <v>4.8399999999999999E-2</v>
       </c>
     </row>
-    <row r="20" spans="1:7">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A20" s="19">
         <v>354</v>
       </c>

--- a/data/performance.xlsx
+++ b/data/performance.xlsx
@@ -2145,43 +2145,10 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
@@ -2202,10 +2169,43 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="20" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="21" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2344,7 +2344,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{CF0569AE-CEEA-4E12-8917-DD8839C9E7E9}" type="CELLRANGE">
+                    <a:fld id="{CF573468-0D1C-47DC-9171-27D883B53F25}" type="CELLRANGE">
                       <a:rPr lang="zh-CN" altLang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -2377,7 +2377,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{0BDFD1BE-94B0-4E6F-944B-9A69885F6680}" type="CELLRANGE">
+                    <a:fld id="{F540C997-FFAF-4C58-A50F-3EBC6A8AB574}" type="CELLRANGE">
                       <a:rPr lang="zh-CN" altLang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -2410,7 +2410,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{9CE40A81-E301-4312-A40E-05FB43AFDFD3}" type="CELLRANGE">
+                    <a:fld id="{DC6CE33F-8DE3-404D-82A4-BD5D8EA5968D}" type="CELLRANGE">
                       <a:rPr lang="zh-CN" altLang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -2443,7 +2443,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{5FE8B2A9-B9ED-4F0B-A240-E92FE12C80B6}" type="CELLRANGE">
+                    <a:fld id="{7EB9195D-01A6-4E53-81D5-6FF6D8701827}" type="CELLRANGE">
                       <a:rPr lang="zh-CN" altLang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -2476,7 +2476,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{B1BD5CAE-4355-4850-B0B7-E9FD14E29886}" type="CELLRANGE">
+                    <a:fld id="{6EDCE76D-B059-454C-B664-531E8970E5C2}" type="CELLRANGE">
                       <a:rPr lang="zh-CN" altLang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -2509,7 +2509,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{C24BBED8-EB92-4CA6-BD20-68F1F722DC5F}" type="CELLRANGE">
+                    <a:fld id="{3DC55065-1478-4939-90E3-E453F29057CE}" type="CELLRANGE">
                       <a:rPr lang="zh-CN" altLang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -2542,7 +2542,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{12A629BB-D149-465D-8EE2-BC52AA7D8481}" type="CELLRANGE">
+                    <a:fld id="{5EF1D7B9-F9FA-4AB1-8DD0-DA5C1F7377BF}" type="CELLRANGE">
                       <a:rPr lang="zh-CN" altLang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -2599,7 +2599,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{D495C0C0-29B1-44BD-820F-00B974F7AB5A}" type="CELLRANGE">
+                    <a:fld id="{47651668-B2BE-494E-90F2-015D568DCD3E}" type="CELLRANGE">
                       <a:rPr lang="zh-CN" altLang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -2632,7 +2632,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{825D0EDC-8A46-42B3-A3F3-73F0EB5E20CA}" type="CELLRANGE">
+                    <a:fld id="{7D917AA5-F75C-4230-9A24-BDBB76937D1B}" type="CELLRANGE">
                       <a:rPr lang="zh-CN" altLang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -2665,7 +2665,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{C09870EB-9050-43E3-B432-887170ED32ED}" type="CELLRANGE">
+                    <a:fld id="{501C359D-C248-4A89-B7DA-FD9BA6F36FDF}" type="CELLRANGE">
                       <a:rPr lang="zh-CN" altLang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -2722,7 +2722,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{FE604F8B-4626-42A0-8682-BFA7619E023A}" type="CELLRANGE">
+                    <a:fld id="{E7A43E67-E4B6-407E-9EF2-BB712FC65CC9}" type="CELLRANGE">
                       <a:rPr lang="zh-CN" altLang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -2755,7 +2755,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{49EE5D15-DC14-498D-ABEB-D52128B6F163}" type="CELLRANGE">
+                    <a:fld id="{9B27DCB3-63DE-4AB2-92E4-C4DAD95C92A8}" type="CELLRANGE">
                       <a:rPr lang="zh-CN" altLang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -2788,7 +2788,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{946E546B-B997-4014-89C4-95CE20A37851}" type="CELLRANGE">
+                    <a:fld id="{3078007E-C622-4707-88A9-7DC21F6790D6}" type="CELLRANGE">
                       <a:rPr lang="zh-CN" altLang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -2821,7 +2821,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{37AEA346-794A-4AC2-B215-1F9C4D34FAE0}" type="CELLRANGE">
+                    <a:fld id="{5E7B4136-E935-4F15-A9F3-82570434B7A2}" type="CELLRANGE">
                       <a:rPr lang="zh-CN" altLang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -2878,7 +2878,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{45448E3A-C4B5-44F9-B5E9-460996D8DFD9}" type="CELLRANGE">
+                    <a:fld id="{360FB0BD-20E4-4E8B-A433-171A79A2E927}" type="CELLRANGE">
                       <a:rPr lang="zh-CN" altLang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -2935,7 +2935,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{FAF76CE1-A664-41B0-8CB3-0DB11F645BB3}" type="CELLRANGE">
+                    <a:fld id="{404D7C93-8DBE-4B3B-8BE4-ADC683BABFB1}" type="CELLRANGE">
                       <a:rPr lang="zh-CN" altLang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -2992,7 +2992,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{DF8AB2FC-CBE5-4716-ABD3-86B374F89ACD}" type="CELLRANGE">
+                    <a:fld id="{E8DC7A03-2432-46F2-9F15-ECEBF08D2E6B}" type="CELLRANGE">
                       <a:rPr lang="zh-CN" altLang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -3049,7 +3049,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{47FFA451-CCA3-4A0B-8FDD-234C6519D5D1}" type="CELLRANGE">
+                    <a:fld id="{72CCD009-E76F-45EB-AC76-A3901B945555}" type="CELLRANGE">
                       <a:rPr lang="zh-CN" altLang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -3106,7 +3106,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{C5186EBE-D611-426E-A0F0-267CDC0D6AA3}" type="CELLRANGE">
+                    <a:fld id="{8DAA8DF5-BE1A-41AD-A3CD-FC8C7F87A331}" type="CELLRANGE">
                       <a:rPr lang="zh-CN" altLang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -3714,7 +3714,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -4152,7 +4151,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -4687,7 +4685,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{A86DADDF-CFDB-4816-A369-13022A523FB4}" type="CELLRANGE">
+                    <a:fld id="{579F3E79-FDF3-4CC2-81D0-AFE43FAA5617}" type="CELLRANGE">
                       <a:rPr lang="zh-CN" altLang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -7939,7 +7937,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{03BBC7F0-83DD-4EBC-A1E1-A3032E8C76B3}" type="CELLRANGE">
+                    <a:fld id="{F6B3A662-D3BD-47C2-9967-6C0BF8765420}" type="CELLRANGE">
                       <a:rPr lang="zh-CN" altLang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -9101,7 +9099,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{F22F890E-0377-4234-B552-B45C10170677}" type="CELLRANGE">
+                    <a:fld id="{2F0BE6D6-0F28-4C27-9B6F-873590CCA0E4}" type="CELLRANGE">
                       <a:rPr lang="zh-CN" altLang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -10234,7 +10232,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{EC87AA96-98ED-4EEC-A331-7B66CC32AD8D}" type="CELLRANGE">
+                    <a:fld id="{639CFF9E-F0BB-4608-A5BB-6E7BE59FF6FC}" type="CELLRANGE">
                       <a:rPr lang="zh-CN" altLang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -11642,7 +11640,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{F283864A-672D-4340-AF56-423A0D650AF2}" type="CELLRANGE">
+                    <a:fld id="{8023BAD3-3B13-47B7-9671-00F58B20D64A}" type="CELLRANGE">
                       <a:rPr lang="zh-CN" altLang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -13871,7 +13869,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{54982059-EFDE-43A4-8B4F-04CF69122EBE}" type="CELLRANGE">
+                    <a:fld id="{0004A307-2D3A-4A8C-9F4A-482E60170031}" type="CELLRANGE">
                       <a:rPr lang="zh-CN" altLang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -13906,7 +13904,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{7CE854C0-2A13-4AA3-911A-1B404B5E2DC8}" type="CELLRANGE">
+                    <a:fld id="{DE2FD431-9F63-4AAE-8464-B0C752D9EF57}" type="CELLRANGE">
                       <a:rPr lang="zh-CN" altLang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -16121,7 +16119,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -16516,7 +16513,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -25324,8 +25320,8 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A1" s="46"/>
-      <c r="B1" s="47"/>
+      <c r="A1" s="62"/>
+      <c r="B1" s="44"/>
       <c r="C1" s="15" t="s">
         <v>304</v>
       </c>
@@ -25341,33 +25337,33 @@
       <c r="G1" s="37" t="s">
         <v>370</v>
       </c>
-      <c r="H1" s="53" t="s">
+      <c r="H1" s="58" t="s">
         <v>297</v>
       </c>
-      <c r="I1" s="53"/>
-      <c r="J1" s="54"/>
+      <c r="I1" s="58"/>
+      <c r="J1" s="59"/>
       <c r="K1" s="39" t="s">
         <v>372</v>
       </c>
-      <c r="L1" s="51" t="s">
+      <c r="L1" s="56" t="s">
         <v>293</v>
       </c>
-      <c r="M1" s="47" t="s">
+      <c r="M1" s="44" t="s">
         <v>0</v>
       </c>
-      <c r="N1" s="47" t="s">
+      <c r="N1" s="44" t="s">
         <v>306</v>
       </c>
-      <c r="O1" s="47" t="s">
+      <c r="O1" s="44" t="s">
         <v>317</v>
       </c>
-      <c r="P1" s="55" t="s">
+      <c r="P1" s="52" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A2" s="46"/>
-      <c r="B2" s="48"/>
+      <c r="A2" s="62"/>
+      <c r="B2" s="45"/>
       <c r="C2" s="16" t="s">
         <v>305</v>
       </c>
@@ -25395,11 +25391,11 @@
       <c r="K2" s="31" t="s">
         <v>373</v>
       </c>
-      <c r="L2" s="52"/>
-      <c r="M2" s="48"/>
-      <c r="N2" s="48"/>
-      <c r="O2" s="48"/>
-      <c r="P2" s="56"/>
+      <c r="L2" s="57"/>
+      <c r="M2" s="45"/>
+      <c r="N2" s="45"/>
+      <c r="O2" s="45"/>
+      <c r="P2" s="53"/>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
@@ -25594,10 +25590,10 @@
       </c>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A7" s="47" t="s">
+      <c r="A7" s="44" t="s">
         <v>349</v>
       </c>
-      <c r="B7" s="47"/>
+      <c r="B7" s="44"/>
       <c r="C7" s="5" t="s">
         <v>324</v>
       </c>
@@ -25625,25 +25621,25 @@
       <c r="K7" s="30">
         <v>20</v>
       </c>
-      <c r="L7" s="47" t="s">
+      <c r="L7" s="44" t="s">
         <v>289</v>
       </c>
-      <c r="M7" s="47" t="s">
+      <c r="M7" s="44" t="s">
         <v>113</v>
       </c>
-      <c r="N7" s="47" t="s">
+      <c r="N7" s="44" t="s">
         <v>307</v>
       </c>
-      <c r="O7" s="47">
+      <c r="O7" s="44">
         <v>17</v>
       </c>
-      <c r="P7" s="57" t="s">
+      <c r="P7" s="46" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A8" s="48"/>
-      <c r="B8" s="48"/>
+      <c r="A8" s="45"/>
+      <c r="B8" s="45"/>
       <c r="C8" s="9" t="s">
         <v>325</v>
       </c>
@@ -25671,11 +25667,11 @@
       <c r="K8" s="30">
         <v>20</v>
       </c>
-      <c r="L8" s="48"/>
-      <c r="M8" s="48"/>
-      <c r="N8" s="48"/>
-      <c r="O8" s="48"/>
-      <c r="P8" s="58"/>
+      <c r="L8" s="45"/>
+      <c r="M8" s="45"/>
+      <c r="N8" s="45"/>
+      <c r="O8" s="45"/>
+      <c r="P8" s="47"/>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
@@ -26248,72 +26244,72 @@
       </c>
     </row>
     <row r="21" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A21" s="47" t="s">
+      <c r="A21" s="44" t="s">
         <v>354</v>
       </c>
-      <c r="B21" s="47"/>
-      <c r="C21" s="47" t="s">
+      <c r="B21" s="44"/>
+      <c r="C21" s="44" t="s">
         <v>207</v>
       </c>
-      <c r="D21" s="49">
+      <c r="D21" s="63">
         <v>1280.3</v>
       </c>
-      <c r="E21" s="59">
+      <c r="E21" s="48">
         <v>160</v>
       </c>
-      <c r="F21" s="61">
+      <c r="F21" s="50">
         <v>8</v>
       </c>
-      <c r="G21" s="63">
+      <c r="G21" s="54">
         <v>150</v>
       </c>
-      <c r="H21" s="47" t="s">
+      <c r="H21" s="44" t="s">
         <v>336</v>
       </c>
-      <c r="I21" s="47" t="s">
+      <c r="I21" s="44" t="s">
         <v>337</v>
       </c>
-      <c r="J21" s="55" t="s">
+      <c r="J21" s="52" t="s">
         <v>338</v>
       </c>
-      <c r="K21" s="47">
+      <c r="K21" s="44">
         <v>28</v>
       </c>
       <c r="L21" s="10" t="s">
         <v>322</v>
       </c>
-      <c r="M21" s="47" t="s">
+      <c r="M21" s="44" t="s">
         <v>179</v>
       </c>
-      <c r="N21" s="47" t="s">
+      <c r="N21" s="44" t="s">
         <v>311</v>
       </c>
-      <c r="O21" s="47">
+      <c r="O21" s="44">
         <v>16</v>
       </c>
-      <c r="P21" s="57" t="s">
+      <c r="P21" s="46" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="22" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A22" s="48"/>
-      <c r="B22" s="48"/>
-      <c r="C22" s="48"/>
-      <c r="D22" s="50"/>
-      <c r="E22" s="60"/>
-      <c r="F22" s="62"/>
-      <c r="G22" s="64"/>
-      <c r="H22" s="48"/>
-      <c r="I22" s="48"/>
-      <c r="J22" s="56"/>
-      <c r="K22" s="48"/>
+      <c r="A22" s="45"/>
+      <c r="B22" s="45"/>
+      <c r="C22" s="45"/>
+      <c r="D22" s="64"/>
+      <c r="E22" s="49"/>
+      <c r="F22" s="51"/>
+      <c r="G22" s="55"/>
+      <c r="H22" s="45"/>
+      <c r="I22" s="45"/>
+      <c r="J22" s="53"/>
+      <c r="K22" s="45"/>
       <c r="L22" s="11" t="s">
         <v>323</v>
       </c>
-      <c r="M22" s="48"/>
-      <c r="N22" s="48"/>
-      <c r="O22" s="48"/>
-      <c r="P22" s="58"/>
+      <c r="M22" s="45"/>
+      <c r="N22" s="45"/>
+      <c r="O22" s="45"/>
+      <c r="P22" s="47"/>
     </row>
     <row r="23" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
@@ -26508,12 +26504,12 @@
       </c>
     </row>
     <row r="27" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="C27" s="44" t="s">
+      <c r="C27" s="60" t="s">
         <v>387</v>
       </c>
     </row>
     <row r="28" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="C28" s="45"/>
+      <c r="C28" s="61"/>
     </row>
     <row r="32" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C32" s="17"/>
@@ -26532,6 +26528,26 @@
     </row>
   </sheetData>
   <mergeCells count="31">
+    <mergeCell ref="C27:C28"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="A21:A22"/>
+    <mergeCell ref="C21:C22"/>
+    <mergeCell ref="D21:D22"/>
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="B7:B8"/>
+    <mergeCell ref="B21:B22"/>
+    <mergeCell ref="M1:M2"/>
+    <mergeCell ref="L1:L2"/>
+    <mergeCell ref="H1:J1"/>
+    <mergeCell ref="P1:P2"/>
+    <mergeCell ref="N1:N2"/>
+    <mergeCell ref="O1:O2"/>
+    <mergeCell ref="L7:L8"/>
+    <mergeCell ref="M7:M8"/>
+    <mergeCell ref="N7:N8"/>
+    <mergeCell ref="O7:O8"/>
+    <mergeCell ref="P7:P8"/>
     <mergeCell ref="M21:M22"/>
     <mergeCell ref="N21:N22"/>
     <mergeCell ref="O21:O22"/>
@@ -26543,26 +26559,6 @@
     <mergeCell ref="J21:J22"/>
     <mergeCell ref="G21:G22"/>
     <mergeCell ref="K21:K22"/>
-    <mergeCell ref="L7:L8"/>
-    <mergeCell ref="M7:M8"/>
-    <mergeCell ref="N7:N8"/>
-    <mergeCell ref="O7:O8"/>
-    <mergeCell ref="P7:P8"/>
-    <mergeCell ref="M1:M2"/>
-    <mergeCell ref="L1:L2"/>
-    <mergeCell ref="H1:J1"/>
-    <mergeCell ref="P1:P2"/>
-    <mergeCell ref="N1:N2"/>
-    <mergeCell ref="O1:O2"/>
-    <mergeCell ref="C27:C28"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="A21:A22"/>
-    <mergeCell ref="C21:C22"/>
-    <mergeCell ref="D21:D22"/>
-    <mergeCell ref="A7:A8"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="B7:B8"/>
-    <mergeCell ref="B21:B22"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -26575,8 +26571,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="R41" sqref="R41"/>
+    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="Q6" sqref="Q6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>

--- a/data/performance.xlsx
+++ b/data/performance.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="842" uniqueCount="412">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="842" uniqueCount="413">
   <si>
     <t>Title</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1554,59 +1554,71 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>[3]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>[13]</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>[24]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[57]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[5]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[16]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[70]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[72]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[35]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[46]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[54]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[69]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[11]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[33]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>[44]</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>[44]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[51]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[62]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[48]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>[40]</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>[59]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[8]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[28]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>[38]</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>[34]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[21]</t>
+    <t>[27]</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1614,39 +1626,31 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>[24]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[27]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[61]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[11]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[57]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[9]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[58]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[60]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[30]</t>
+    <t>[71]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[14]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[65]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[12]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[68]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[50]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[50]</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2145,10 +2149,43 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
@@ -2169,43 +2206,10 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="20" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="21" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2344,7 +2348,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{CF573468-0D1C-47DC-9171-27D883B53F25}" type="CELLRANGE">
+                    <a:fld id="{A289A1D4-1F0D-4930-AC24-20C2ECBE4EBD}" type="CELLRANGE">
                       <a:rPr lang="zh-CN" altLang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -2377,7 +2381,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{F540C997-FFAF-4C58-A50F-3EBC6A8AB574}" type="CELLRANGE">
+                    <a:fld id="{F409329B-7106-4FFF-952B-8C700AEAF7B5}" type="CELLRANGE">
                       <a:rPr lang="zh-CN" altLang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -2410,7 +2414,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{DC6CE33F-8DE3-404D-82A4-BD5D8EA5968D}" type="CELLRANGE">
+                    <a:fld id="{24E576E5-DBB7-4F95-AB35-665478810E64}" type="CELLRANGE">
                       <a:rPr lang="zh-CN" altLang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -2443,7 +2447,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{7EB9195D-01A6-4E53-81D5-6FF6D8701827}" type="CELLRANGE">
+                    <a:fld id="{A240411A-6F48-4C48-A21A-16FEDB598DA2}" type="CELLRANGE">
                       <a:rPr lang="zh-CN" altLang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -2476,7 +2480,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{6EDCE76D-B059-454C-B664-531E8970E5C2}" type="CELLRANGE">
+                    <a:fld id="{C6F9CD30-3C72-48B0-8F71-2BF083E3A57E}" type="CELLRANGE">
                       <a:rPr lang="zh-CN" altLang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -2509,7 +2513,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{3DC55065-1478-4939-90E3-E453F29057CE}" type="CELLRANGE">
+                    <a:fld id="{92E5AD14-F9EA-4F35-AFB4-4FC8186952E7}" type="CELLRANGE">
                       <a:rPr lang="zh-CN" altLang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -2542,7 +2546,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{5EF1D7B9-F9FA-4AB1-8DD0-DA5C1F7377BF}" type="CELLRANGE">
+                    <a:fld id="{B158559C-2F5C-4E92-BD0A-FC1BEACACC5E}" type="CELLRANGE">
                       <a:rPr lang="zh-CN" altLang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -2599,7 +2603,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{47651668-B2BE-494E-90F2-015D568DCD3E}" type="CELLRANGE">
+                    <a:fld id="{0B1560CA-4B14-434E-A2B9-9B6E2D96D2B9}" type="CELLRANGE">
                       <a:rPr lang="zh-CN" altLang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -2632,7 +2636,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{7D917AA5-F75C-4230-9A24-BDBB76937D1B}" type="CELLRANGE">
+                    <a:fld id="{FB07B301-A427-4B22-A96C-9F5F5B16277B}" type="CELLRANGE">
                       <a:rPr lang="zh-CN" altLang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -2665,7 +2669,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{501C359D-C248-4A89-B7DA-FD9BA6F36FDF}" type="CELLRANGE">
+                    <a:fld id="{37CAC468-7B65-4E81-9832-ECAEAECB9D04}" type="CELLRANGE">
                       <a:rPr lang="zh-CN" altLang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -2722,7 +2726,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{E7A43E67-E4B6-407E-9EF2-BB712FC65CC9}" type="CELLRANGE">
+                    <a:fld id="{DE13296D-F842-4675-BEB1-501B41567BF9}" type="CELLRANGE">
                       <a:rPr lang="zh-CN" altLang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -2755,7 +2759,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{9B27DCB3-63DE-4AB2-92E4-C4DAD95C92A8}" type="CELLRANGE">
+                    <a:fld id="{A117FF8F-8C3E-41CF-89DE-61267D57D6D5}" type="CELLRANGE">
                       <a:rPr lang="zh-CN" altLang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -2788,7 +2792,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{3078007E-C622-4707-88A9-7DC21F6790D6}" type="CELLRANGE">
+                    <a:fld id="{2C6386B6-D4FF-430D-95D4-0CC32B7CF53D}" type="CELLRANGE">
                       <a:rPr lang="zh-CN" altLang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -2821,7 +2825,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{5E7B4136-E935-4F15-A9F3-82570434B7A2}" type="CELLRANGE">
+                    <a:fld id="{B2E14483-63C8-4E08-8BC9-0424D6DE3459}" type="CELLRANGE">
                       <a:rPr lang="zh-CN" altLang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -2878,7 +2882,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{360FB0BD-20E4-4E8B-A433-171A79A2E927}" type="CELLRANGE">
+                    <a:fld id="{E72B088C-D492-4286-BF85-5F6B4C2CF1FC}" type="CELLRANGE">
                       <a:rPr lang="zh-CN" altLang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -2935,7 +2939,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{404D7C93-8DBE-4B3B-8BE4-ADC683BABFB1}" type="CELLRANGE">
+                    <a:fld id="{6033F82B-B91E-4D1B-B248-73130C594AA9}" type="CELLRANGE">
                       <a:rPr lang="zh-CN" altLang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -2992,7 +2996,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{E8DC7A03-2432-46F2-9F15-ECEBF08D2E6B}" type="CELLRANGE">
+                    <a:fld id="{6F2B7FB1-1BDC-4DB1-BE07-C74CF3BA3D54}" type="CELLRANGE">
                       <a:rPr lang="zh-CN" altLang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -3049,7 +3053,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{72CCD009-E76F-45EB-AC76-A3901B945555}" type="CELLRANGE">
+                    <a:fld id="{94D53E77-A67E-46FC-9173-2BCEB88AD499}" type="CELLRANGE">
                       <a:rPr lang="zh-CN" altLang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -3106,7 +3110,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{8DAA8DF5-BE1A-41AD-A3CD-FC8C7F87A331}" type="CELLRANGE">
+                    <a:fld id="{01DF72DF-717C-4CB4-B837-3C8492C89212}" type="CELLRANGE">
                       <a:rPr lang="zh-CN" altLang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -4685,7 +4689,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{579F3E79-FDF3-4CC2-81D0-AFE43FAA5617}" type="CELLRANGE">
+                    <a:fld id="{0FC4C73D-09E9-4228-B353-84E027A1ADC9}" type="CELLRANGE">
                       <a:rPr lang="zh-CN" altLang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -5592,82 +5596,82 @@
                 <c15:dlblRangeCache>
                   <c:ptCount val="26"/>
                   <c:pt idx="0">
-                    <c:v>[34]</c:v>
+                    <c:v>[40]</c:v>
                   </c:pt>
                   <c:pt idx="1">
+                    <c:v>[38]</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>[24]</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>[14]</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>[35]</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>[54]</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
                     <c:v>[32]</c:v>
-                  </c:pt>
-                  <c:pt idx="2">
-                    <c:v>[21]</c:v>
-                  </c:pt>
-                  <c:pt idx="3">
-                    <c:v>[11]</c:v>
-                  </c:pt>
-                  <c:pt idx="4">
-                    <c:v>[30]</c:v>
-                  </c:pt>
-                  <c:pt idx="5">
-                    <c:v>[48]</c:v>
-                  </c:pt>
-                  <c:pt idx="6">
-                    <c:v>[27]</c:v>
                   </c:pt>
                   <c:pt idx="7">
                     <c:v>[13]</c:v>
                   </c:pt>
                   <c:pt idx="8">
-                    <c:v>[13]</c:v>
+                    <c:v>[16]</c:v>
                   </c:pt>
                   <c:pt idx="9">
+                    <c:v>[50]</c:v>
+                  </c:pt>
+                  <c:pt idx="10">
+                    <c:v>[50]</c:v>
+                  </c:pt>
+                  <c:pt idx="11">
+                    <c:v>[57]</c:v>
+                  </c:pt>
+                  <c:pt idx="12">
+                    <c:v>[72]</c:v>
+                  </c:pt>
+                  <c:pt idx="13">
+                    <c:v>[46]</c:v>
+                  </c:pt>
+                  <c:pt idx="14">
+                    <c:v>[11]</c:v>
+                  </c:pt>
+                  <c:pt idx="15">
+                    <c:v>[33]</c:v>
+                  </c:pt>
+                  <c:pt idx="16">
+                    <c:v>[27]</c:v>
+                  </c:pt>
+                  <c:pt idx="17">
+                    <c:v>[71]</c:v>
+                  </c:pt>
+                  <c:pt idx="18">
+                    <c:v>[65]</c:v>
+                  </c:pt>
+                  <c:pt idx="19">
+                    <c:v>[68]</c:v>
+                  </c:pt>
+                  <c:pt idx="20">
+                    <c:v>[5]</c:v>
+                  </c:pt>
+                  <c:pt idx="21">
                     <c:v>[44]</c:v>
                   </c:pt>
-                  <c:pt idx="10">
-                    <c:v>[44]</c:v>
-                  </c:pt>
-                  <c:pt idx="11">
-                    <c:v>[51]</c:v>
-                  </c:pt>
-                  <c:pt idx="12">
-                    <c:v>[62]</c:v>
-                  </c:pt>
-                  <c:pt idx="13">
-                    <c:v>[40]</c:v>
-                  </c:pt>
-                  <c:pt idx="14">
-                    <c:v>[8]</c:v>
-                  </c:pt>
-                  <c:pt idx="15">
-                    <c:v>[28]</c:v>
-                  </c:pt>
-                  <c:pt idx="16">
-                    <c:v>[24]</c:v>
-                  </c:pt>
-                  <c:pt idx="17">
-                    <c:v>[61]</c:v>
-                  </c:pt>
-                  <c:pt idx="18">
-                    <c:v>[57]</c:v>
-                  </c:pt>
-                  <c:pt idx="19">
-                    <c:v>[58]</c:v>
-                  </c:pt>
-                  <c:pt idx="20">
-                    <c:v>[3]</c:v>
-                  </c:pt>
-                  <c:pt idx="21">
-                    <c:v>[38]</c:v>
-                  </c:pt>
                   <c:pt idx="22">
-                    <c:v>[60]</c:v>
+                    <c:v>[70]</c:v>
                   </c:pt>
                   <c:pt idx="23">
-                    <c:v>[62]</c:v>
+                    <c:v>[72]</c:v>
                   </c:pt>
                   <c:pt idx="24">
-                    <c:v>[59]</c:v>
+                    <c:v>[69]</c:v>
                   </c:pt>
                   <c:pt idx="25">
-                    <c:v>[9]</c:v>
+                    <c:v>[12]</c:v>
                   </c:pt>
                 </c15:dlblRangeCache>
               </c15:datalabelsRange>
@@ -6610,82 +6614,82 @@
                 <c15:dlblRangeCache>
                   <c:ptCount val="26"/>
                   <c:pt idx="0">
-                    <c:v>[34]</c:v>
+                    <c:v>[40]</c:v>
                   </c:pt>
                   <c:pt idx="1">
+                    <c:v>[38]</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>[24]</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>[14]</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>[35]</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>[54]</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
                     <c:v>[32]</c:v>
-                  </c:pt>
-                  <c:pt idx="2">
-                    <c:v>[21]</c:v>
-                  </c:pt>
-                  <c:pt idx="3">
-                    <c:v>[11]</c:v>
-                  </c:pt>
-                  <c:pt idx="4">
-                    <c:v>[30]</c:v>
-                  </c:pt>
-                  <c:pt idx="5">
-                    <c:v>[48]</c:v>
-                  </c:pt>
-                  <c:pt idx="6">
-                    <c:v>[27]</c:v>
                   </c:pt>
                   <c:pt idx="7">
                     <c:v>[13]</c:v>
                   </c:pt>
                   <c:pt idx="8">
-                    <c:v>[13]</c:v>
+                    <c:v>[16]</c:v>
                   </c:pt>
                   <c:pt idx="9">
+                    <c:v>[50]</c:v>
+                  </c:pt>
+                  <c:pt idx="10">
+                    <c:v>[50]</c:v>
+                  </c:pt>
+                  <c:pt idx="11">
+                    <c:v>[57]</c:v>
+                  </c:pt>
+                  <c:pt idx="12">
+                    <c:v>[72]</c:v>
+                  </c:pt>
+                  <c:pt idx="13">
+                    <c:v>[46]</c:v>
+                  </c:pt>
+                  <c:pt idx="14">
+                    <c:v>[11]</c:v>
+                  </c:pt>
+                  <c:pt idx="15">
+                    <c:v>[33]</c:v>
+                  </c:pt>
+                  <c:pt idx="16">
+                    <c:v>[27]</c:v>
+                  </c:pt>
+                  <c:pt idx="17">
+                    <c:v>[71]</c:v>
+                  </c:pt>
+                  <c:pt idx="18">
+                    <c:v>[65]</c:v>
+                  </c:pt>
+                  <c:pt idx="19">
+                    <c:v>[68]</c:v>
+                  </c:pt>
+                  <c:pt idx="20">
+                    <c:v>[5]</c:v>
+                  </c:pt>
+                  <c:pt idx="21">
                     <c:v>[44]</c:v>
                   </c:pt>
-                  <c:pt idx="10">
-                    <c:v>[44]</c:v>
-                  </c:pt>
-                  <c:pt idx="11">
-                    <c:v>[51]</c:v>
-                  </c:pt>
-                  <c:pt idx="12">
-                    <c:v>[62]</c:v>
-                  </c:pt>
-                  <c:pt idx="13">
-                    <c:v>[40]</c:v>
-                  </c:pt>
-                  <c:pt idx="14">
-                    <c:v>[8]</c:v>
-                  </c:pt>
-                  <c:pt idx="15">
-                    <c:v>[28]</c:v>
-                  </c:pt>
-                  <c:pt idx="16">
-                    <c:v>[24]</c:v>
-                  </c:pt>
-                  <c:pt idx="17">
-                    <c:v>[61]</c:v>
-                  </c:pt>
-                  <c:pt idx="18">
-                    <c:v>[57]</c:v>
-                  </c:pt>
-                  <c:pt idx="19">
-                    <c:v>[58]</c:v>
-                  </c:pt>
-                  <c:pt idx="20">
-                    <c:v>[3]</c:v>
-                  </c:pt>
-                  <c:pt idx="21">
-                    <c:v>[38]</c:v>
-                  </c:pt>
                   <c:pt idx="22">
-                    <c:v>[60]</c:v>
+                    <c:v>[70]</c:v>
                   </c:pt>
                   <c:pt idx="23">
-                    <c:v>[62]</c:v>
+                    <c:v>[72]</c:v>
                   </c:pt>
                   <c:pt idx="24">
-                    <c:v>[59]</c:v>
+                    <c:v>[69]</c:v>
                   </c:pt>
                   <c:pt idx="25">
-                    <c:v>[9]</c:v>
+                    <c:v>[12]</c:v>
                   </c:pt>
                 </c15:dlblRangeCache>
               </c15:datalabelsRange>
@@ -7667,82 +7671,82 @@
                 <c15:dlblRangeCache>
                   <c:ptCount val="26"/>
                   <c:pt idx="0">
-                    <c:v>[34]</c:v>
+                    <c:v>[40]</c:v>
                   </c:pt>
                   <c:pt idx="1">
+                    <c:v>[38]</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>[24]</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>[14]</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>[35]</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>[54]</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
                     <c:v>[32]</c:v>
-                  </c:pt>
-                  <c:pt idx="2">
-                    <c:v>[21]</c:v>
-                  </c:pt>
-                  <c:pt idx="3">
-                    <c:v>[11]</c:v>
-                  </c:pt>
-                  <c:pt idx="4">
-                    <c:v>[30]</c:v>
-                  </c:pt>
-                  <c:pt idx="5">
-                    <c:v>[48]</c:v>
-                  </c:pt>
-                  <c:pt idx="6">
-                    <c:v>[27]</c:v>
                   </c:pt>
                   <c:pt idx="7">
                     <c:v>[13]</c:v>
                   </c:pt>
                   <c:pt idx="8">
-                    <c:v>[13]</c:v>
+                    <c:v>[16]</c:v>
                   </c:pt>
                   <c:pt idx="9">
+                    <c:v>[50]</c:v>
+                  </c:pt>
+                  <c:pt idx="10">
+                    <c:v>[50]</c:v>
+                  </c:pt>
+                  <c:pt idx="11">
+                    <c:v>[57]</c:v>
+                  </c:pt>
+                  <c:pt idx="12">
+                    <c:v>[72]</c:v>
+                  </c:pt>
+                  <c:pt idx="13">
+                    <c:v>[46]</c:v>
+                  </c:pt>
+                  <c:pt idx="14">
+                    <c:v>[11]</c:v>
+                  </c:pt>
+                  <c:pt idx="15">
+                    <c:v>[33]</c:v>
+                  </c:pt>
+                  <c:pt idx="16">
+                    <c:v>[27]</c:v>
+                  </c:pt>
+                  <c:pt idx="17">
+                    <c:v>[71]</c:v>
+                  </c:pt>
+                  <c:pt idx="18">
+                    <c:v>[65]</c:v>
+                  </c:pt>
+                  <c:pt idx="19">
+                    <c:v>[68]</c:v>
+                  </c:pt>
+                  <c:pt idx="20">
+                    <c:v>[5]</c:v>
+                  </c:pt>
+                  <c:pt idx="21">
                     <c:v>[44]</c:v>
                   </c:pt>
-                  <c:pt idx="10">
-                    <c:v>[44]</c:v>
-                  </c:pt>
-                  <c:pt idx="11">
-                    <c:v>[51]</c:v>
-                  </c:pt>
-                  <c:pt idx="12">
-                    <c:v>[62]</c:v>
-                  </c:pt>
-                  <c:pt idx="13">
-                    <c:v>[40]</c:v>
-                  </c:pt>
-                  <c:pt idx="14">
-                    <c:v>[8]</c:v>
-                  </c:pt>
-                  <c:pt idx="15">
-                    <c:v>[28]</c:v>
-                  </c:pt>
-                  <c:pt idx="16">
-                    <c:v>[24]</c:v>
-                  </c:pt>
-                  <c:pt idx="17">
-                    <c:v>[61]</c:v>
-                  </c:pt>
-                  <c:pt idx="18">
-                    <c:v>[57]</c:v>
-                  </c:pt>
-                  <c:pt idx="19">
-                    <c:v>[58]</c:v>
-                  </c:pt>
-                  <c:pt idx="20">
-                    <c:v>[3]</c:v>
-                  </c:pt>
-                  <c:pt idx="21">
-                    <c:v>[38]</c:v>
-                  </c:pt>
                   <c:pt idx="22">
-                    <c:v>[60]</c:v>
+                    <c:v>[70]</c:v>
                   </c:pt>
                   <c:pt idx="23">
-                    <c:v>[62]</c:v>
+                    <c:v>[72]</c:v>
                   </c:pt>
                   <c:pt idx="24">
-                    <c:v>[59]</c:v>
+                    <c:v>[69]</c:v>
                   </c:pt>
                   <c:pt idx="25">
-                    <c:v>[9]</c:v>
+                    <c:v>[12]</c:v>
                   </c:pt>
                 </c15:dlblRangeCache>
               </c15:datalabelsRange>
@@ -7937,7 +7941,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{F6B3A662-D3BD-47C2-9967-6C0BF8765420}" type="CELLRANGE">
+                    <a:fld id="{87D48914-4608-41A5-BA81-D3DA37ED3B25}" type="CELLRANGE">
                       <a:rPr lang="zh-CN" altLang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -8762,82 +8766,82 @@
                 <c15:dlblRangeCache>
                   <c:ptCount val="26"/>
                   <c:pt idx="0">
-                    <c:v>[34]</c:v>
+                    <c:v>[40]</c:v>
                   </c:pt>
                   <c:pt idx="1">
+                    <c:v>[38]</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>[24]</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>[14]</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>[35]</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>[54]</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
                     <c:v>[32]</c:v>
-                  </c:pt>
-                  <c:pt idx="2">
-                    <c:v>[21]</c:v>
-                  </c:pt>
-                  <c:pt idx="3">
-                    <c:v>[11]</c:v>
-                  </c:pt>
-                  <c:pt idx="4">
-                    <c:v>[30]</c:v>
-                  </c:pt>
-                  <c:pt idx="5">
-                    <c:v>[48]</c:v>
-                  </c:pt>
-                  <c:pt idx="6">
-                    <c:v>[27]</c:v>
                   </c:pt>
                   <c:pt idx="7">
                     <c:v>[13]</c:v>
                   </c:pt>
                   <c:pt idx="8">
-                    <c:v>[13]</c:v>
+                    <c:v>[16]</c:v>
                   </c:pt>
                   <c:pt idx="9">
+                    <c:v>[50]</c:v>
+                  </c:pt>
+                  <c:pt idx="10">
+                    <c:v>[50]</c:v>
+                  </c:pt>
+                  <c:pt idx="11">
+                    <c:v>[57]</c:v>
+                  </c:pt>
+                  <c:pt idx="12">
+                    <c:v>[72]</c:v>
+                  </c:pt>
+                  <c:pt idx="13">
+                    <c:v>[46]</c:v>
+                  </c:pt>
+                  <c:pt idx="14">
+                    <c:v>[11]</c:v>
+                  </c:pt>
+                  <c:pt idx="15">
+                    <c:v>[33]</c:v>
+                  </c:pt>
+                  <c:pt idx="16">
+                    <c:v>[27]</c:v>
+                  </c:pt>
+                  <c:pt idx="17">
+                    <c:v>[71]</c:v>
+                  </c:pt>
+                  <c:pt idx="18">
+                    <c:v>[65]</c:v>
+                  </c:pt>
+                  <c:pt idx="19">
+                    <c:v>[68]</c:v>
+                  </c:pt>
+                  <c:pt idx="20">
+                    <c:v>[5]</c:v>
+                  </c:pt>
+                  <c:pt idx="21">
                     <c:v>[44]</c:v>
                   </c:pt>
-                  <c:pt idx="10">
-                    <c:v>[44]</c:v>
-                  </c:pt>
-                  <c:pt idx="11">
-                    <c:v>[51]</c:v>
-                  </c:pt>
-                  <c:pt idx="12">
-                    <c:v>[62]</c:v>
-                  </c:pt>
-                  <c:pt idx="13">
-                    <c:v>[40]</c:v>
-                  </c:pt>
-                  <c:pt idx="14">
-                    <c:v>[8]</c:v>
-                  </c:pt>
-                  <c:pt idx="15">
-                    <c:v>[28]</c:v>
-                  </c:pt>
-                  <c:pt idx="16">
-                    <c:v>[24]</c:v>
-                  </c:pt>
-                  <c:pt idx="17">
-                    <c:v>[61]</c:v>
-                  </c:pt>
-                  <c:pt idx="18">
-                    <c:v>[57]</c:v>
-                  </c:pt>
-                  <c:pt idx="19">
-                    <c:v>[58]</c:v>
-                  </c:pt>
-                  <c:pt idx="20">
-                    <c:v>[3]</c:v>
-                  </c:pt>
-                  <c:pt idx="21">
-                    <c:v>[38]</c:v>
-                  </c:pt>
                   <c:pt idx="22">
-                    <c:v>[60]</c:v>
+                    <c:v>[70]</c:v>
                   </c:pt>
                   <c:pt idx="23">
-                    <c:v>[62]</c:v>
+                    <c:v>[72]</c:v>
                   </c:pt>
                   <c:pt idx="24">
-                    <c:v>[59]</c:v>
+                    <c:v>[69]</c:v>
                   </c:pt>
                   <c:pt idx="25">
-                    <c:v>[9]</c:v>
+                    <c:v>[12]</c:v>
                   </c:pt>
                 </c15:dlblRangeCache>
               </c15:datalabelsRange>
@@ -9099,7 +9103,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{2F0BE6D6-0F28-4C27-9B6F-873590CCA0E4}" type="CELLRANGE">
+                    <a:fld id="{748F7ED1-63D1-4579-8477-3CB65B6CFA78}" type="CELLRANGE">
                       <a:rPr lang="zh-CN" altLang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -9808,82 +9812,82 @@
                 <c15:dlblRangeCache>
                   <c:ptCount val="26"/>
                   <c:pt idx="0">
-                    <c:v>[34]</c:v>
+                    <c:v>[40]</c:v>
                   </c:pt>
                   <c:pt idx="1">
+                    <c:v>[38]</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>[24]</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>[14]</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>[35]</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>[54]</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
                     <c:v>[32]</c:v>
-                  </c:pt>
-                  <c:pt idx="2">
-                    <c:v>[21]</c:v>
-                  </c:pt>
-                  <c:pt idx="3">
-                    <c:v>[11]</c:v>
-                  </c:pt>
-                  <c:pt idx="4">
-                    <c:v>[30]</c:v>
-                  </c:pt>
-                  <c:pt idx="5">
-                    <c:v>[48]</c:v>
-                  </c:pt>
-                  <c:pt idx="6">
-                    <c:v>[27]</c:v>
                   </c:pt>
                   <c:pt idx="7">
                     <c:v>[13]</c:v>
                   </c:pt>
                   <c:pt idx="8">
-                    <c:v>[13]</c:v>
+                    <c:v>[16]</c:v>
                   </c:pt>
                   <c:pt idx="9">
+                    <c:v>[50]</c:v>
+                  </c:pt>
+                  <c:pt idx="10">
+                    <c:v>[50]</c:v>
+                  </c:pt>
+                  <c:pt idx="11">
+                    <c:v>[57]</c:v>
+                  </c:pt>
+                  <c:pt idx="12">
+                    <c:v>[72]</c:v>
+                  </c:pt>
+                  <c:pt idx="13">
+                    <c:v>[46]</c:v>
+                  </c:pt>
+                  <c:pt idx="14">
+                    <c:v>[11]</c:v>
+                  </c:pt>
+                  <c:pt idx="15">
+                    <c:v>[33]</c:v>
+                  </c:pt>
+                  <c:pt idx="16">
+                    <c:v>[27]</c:v>
+                  </c:pt>
+                  <c:pt idx="17">
+                    <c:v>[71]</c:v>
+                  </c:pt>
+                  <c:pt idx="18">
+                    <c:v>[65]</c:v>
+                  </c:pt>
+                  <c:pt idx="19">
+                    <c:v>[68]</c:v>
+                  </c:pt>
+                  <c:pt idx="20">
+                    <c:v>[5]</c:v>
+                  </c:pt>
+                  <c:pt idx="21">
                     <c:v>[44]</c:v>
                   </c:pt>
-                  <c:pt idx="10">
-                    <c:v>[44]</c:v>
-                  </c:pt>
-                  <c:pt idx="11">
-                    <c:v>[51]</c:v>
-                  </c:pt>
-                  <c:pt idx="12">
-                    <c:v>[62]</c:v>
-                  </c:pt>
-                  <c:pt idx="13">
-                    <c:v>[40]</c:v>
-                  </c:pt>
-                  <c:pt idx="14">
-                    <c:v>[8]</c:v>
-                  </c:pt>
-                  <c:pt idx="15">
-                    <c:v>[28]</c:v>
-                  </c:pt>
-                  <c:pt idx="16">
-                    <c:v>[24]</c:v>
-                  </c:pt>
-                  <c:pt idx="17">
-                    <c:v>[61]</c:v>
-                  </c:pt>
-                  <c:pt idx="18">
-                    <c:v>[57]</c:v>
-                  </c:pt>
-                  <c:pt idx="19">
-                    <c:v>[58]</c:v>
-                  </c:pt>
-                  <c:pt idx="20">
-                    <c:v>[3]</c:v>
-                  </c:pt>
-                  <c:pt idx="21">
-                    <c:v>[38]</c:v>
-                  </c:pt>
                   <c:pt idx="22">
-                    <c:v>[60]</c:v>
+                    <c:v>[70]</c:v>
                   </c:pt>
                   <c:pt idx="23">
-                    <c:v>[62]</c:v>
+                    <c:v>[72]</c:v>
                   </c:pt>
                   <c:pt idx="24">
-                    <c:v>[59]</c:v>
+                    <c:v>[69]</c:v>
                   </c:pt>
                   <c:pt idx="25">
-                    <c:v>[9]</c:v>
+                    <c:v>[12]</c:v>
                   </c:pt>
                 </c15:dlblRangeCache>
               </c15:datalabelsRange>
@@ -10232,7 +10236,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{639CFF9E-F0BB-4608-A5BB-6E7BE59FF6FC}" type="CELLRANGE">
+                    <a:fld id="{713327D7-580E-4A22-A619-F2351CE25CD9}" type="CELLRANGE">
                       <a:rPr lang="zh-CN" altLang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -11026,82 +11030,82 @@
                 <c15:dlblRangeCache>
                   <c:ptCount val="26"/>
                   <c:pt idx="0">
-                    <c:v>[34]</c:v>
+                    <c:v>[40]</c:v>
                   </c:pt>
                   <c:pt idx="1">
+                    <c:v>[38]</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>[24]</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>[14]</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>[35]</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>[54]</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
                     <c:v>[32]</c:v>
-                  </c:pt>
-                  <c:pt idx="2">
-                    <c:v>[21]</c:v>
-                  </c:pt>
-                  <c:pt idx="3">
-                    <c:v>[11]</c:v>
-                  </c:pt>
-                  <c:pt idx="4">
-                    <c:v>[30]</c:v>
-                  </c:pt>
-                  <c:pt idx="5">
-                    <c:v>[48]</c:v>
-                  </c:pt>
-                  <c:pt idx="6">
-                    <c:v>[27]</c:v>
                   </c:pt>
                   <c:pt idx="7">
                     <c:v>[13]</c:v>
                   </c:pt>
                   <c:pt idx="8">
-                    <c:v>[13]</c:v>
+                    <c:v>[16]</c:v>
                   </c:pt>
                   <c:pt idx="9">
+                    <c:v>[50]</c:v>
+                  </c:pt>
+                  <c:pt idx="10">
+                    <c:v>[50]</c:v>
+                  </c:pt>
+                  <c:pt idx="11">
+                    <c:v>[57]</c:v>
+                  </c:pt>
+                  <c:pt idx="12">
+                    <c:v>[72]</c:v>
+                  </c:pt>
+                  <c:pt idx="13">
+                    <c:v>[46]</c:v>
+                  </c:pt>
+                  <c:pt idx="14">
+                    <c:v>[11]</c:v>
+                  </c:pt>
+                  <c:pt idx="15">
+                    <c:v>[33]</c:v>
+                  </c:pt>
+                  <c:pt idx="16">
+                    <c:v>[27]</c:v>
+                  </c:pt>
+                  <c:pt idx="17">
+                    <c:v>[71]</c:v>
+                  </c:pt>
+                  <c:pt idx="18">
+                    <c:v>[65]</c:v>
+                  </c:pt>
+                  <c:pt idx="19">
+                    <c:v>[68]</c:v>
+                  </c:pt>
+                  <c:pt idx="20">
+                    <c:v>[5]</c:v>
+                  </c:pt>
+                  <c:pt idx="21">
                     <c:v>[44]</c:v>
                   </c:pt>
-                  <c:pt idx="10">
-                    <c:v>[44]</c:v>
-                  </c:pt>
-                  <c:pt idx="11">
-                    <c:v>[51]</c:v>
-                  </c:pt>
-                  <c:pt idx="12">
-                    <c:v>[62]</c:v>
-                  </c:pt>
-                  <c:pt idx="13">
-                    <c:v>[40]</c:v>
-                  </c:pt>
-                  <c:pt idx="14">
-                    <c:v>[8]</c:v>
-                  </c:pt>
-                  <c:pt idx="15">
-                    <c:v>[28]</c:v>
-                  </c:pt>
-                  <c:pt idx="16">
-                    <c:v>[24]</c:v>
-                  </c:pt>
-                  <c:pt idx="17">
-                    <c:v>[61]</c:v>
-                  </c:pt>
-                  <c:pt idx="18">
-                    <c:v>[57]</c:v>
-                  </c:pt>
-                  <c:pt idx="19">
-                    <c:v>[58]</c:v>
-                  </c:pt>
-                  <c:pt idx="20">
-                    <c:v>[3]</c:v>
-                  </c:pt>
-                  <c:pt idx="21">
-                    <c:v>[38]</c:v>
-                  </c:pt>
                   <c:pt idx="22">
-                    <c:v>[60]</c:v>
+                    <c:v>[70]</c:v>
                   </c:pt>
                   <c:pt idx="23">
-                    <c:v>[62]</c:v>
+                    <c:v>[72]</c:v>
                   </c:pt>
                   <c:pt idx="24">
-                    <c:v>[59]</c:v>
+                    <c:v>[69]</c:v>
                   </c:pt>
                   <c:pt idx="25">
-                    <c:v>[9]</c:v>
+                    <c:v>[12]</c:v>
                   </c:pt>
                 </c15:dlblRangeCache>
               </c15:datalabelsRange>
@@ -11640,7 +11644,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{8023BAD3-3B13-47B7-9671-00F58B20D64A}" type="CELLRANGE">
+                    <a:fld id="{4BFE932D-9C6A-4ECA-BF63-A19E8E56F0AD}" type="CELLRANGE">
                       <a:rPr lang="zh-CN" altLang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -12058,82 +12062,82 @@
                 <c15:dlblRangeCache>
                   <c:ptCount val="26"/>
                   <c:pt idx="0">
-                    <c:v>[34]</c:v>
+                    <c:v>[40]</c:v>
                   </c:pt>
                   <c:pt idx="1">
+                    <c:v>[38]</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>[24]</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>[14]</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>[35]</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>[54]</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
                     <c:v>[32]</c:v>
-                  </c:pt>
-                  <c:pt idx="2">
-                    <c:v>[21]</c:v>
-                  </c:pt>
-                  <c:pt idx="3">
-                    <c:v>[11]</c:v>
-                  </c:pt>
-                  <c:pt idx="4">
-                    <c:v>[30]</c:v>
-                  </c:pt>
-                  <c:pt idx="5">
-                    <c:v>[48]</c:v>
-                  </c:pt>
-                  <c:pt idx="6">
-                    <c:v>[27]</c:v>
                   </c:pt>
                   <c:pt idx="7">
                     <c:v>[13]</c:v>
                   </c:pt>
                   <c:pt idx="8">
-                    <c:v>[13]</c:v>
+                    <c:v>[16]</c:v>
                   </c:pt>
                   <c:pt idx="9">
+                    <c:v>[50]</c:v>
+                  </c:pt>
+                  <c:pt idx="10">
+                    <c:v>[50]</c:v>
+                  </c:pt>
+                  <c:pt idx="11">
+                    <c:v>[57]</c:v>
+                  </c:pt>
+                  <c:pt idx="12">
+                    <c:v>[72]</c:v>
+                  </c:pt>
+                  <c:pt idx="13">
+                    <c:v>[46]</c:v>
+                  </c:pt>
+                  <c:pt idx="14">
+                    <c:v>[11]</c:v>
+                  </c:pt>
+                  <c:pt idx="15">
+                    <c:v>[33]</c:v>
+                  </c:pt>
+                  <c:pt idx="16">
+                    <c:v>[27]</c:v>
+                  </c:pt>
+                  <c:pt idx="17">
+                    <c:v>[71]</c:v>
+                  </c:pt>
+                  <c:pt idx="18">
+                    <c:v>[65]</c:v>
+                  </c:pt>
+                  <c:pt idx="19">
+                    <c:v>[68]</c:v>
+                  </c:pt>
+                  <c:pt idx="20">
+                    <c:v>[5]</c:v>
+                  </c:pt>
+                  <c:pt idx="21">
                     <c:v>[44]</c:v>
                   </c:pt>
-                  <c:pt idx="10">
-                    <c:v>[44]</c:v>
-                  </c:pt>
-                  <c:pt idx="11">
-                    <c:v>[51]</c:v>
-                  </c:pt>
-                  <c:pt idx="12">
-                    <c:v>[62]</c:v>
-                  </c:pt>
-                  <c:pt idx="13">
-                    <c:v>[40]</c:v>
-                  </c:pt>
-                  <c:pt idx="14">
-                    <c:v>[8]</c:v>
-                  </c:pt>
-                  <c:pt idx="15">
-                    <c:v>[28]</c:v>
-                  </c:pt>
-                  <c:pt idx="16">
-                    <c:v>[24]</c:v>
-                  </c:pt>
-                  <c:pt idx="17">
-                    <c:v>[61]</c:v>
-                  </c:pt>
-                  <c:pt idx="18">
-                    <c:v>[57]</c:v>
-                  </c:pt>
-                  <c:pt idx="19">
-                    <c:v>[58]</c:v>
-                  </c:pt>
-                  <c:pt idx="20">
-                    <c:v>[3]</c:v>
-                  </c:pt>
-                  <c:pt idx="21">
-                    <c:v>[38]</c:v>
-                  </c:pt>
                   <c:pt idx="22">
-                    <c:v>[60]</c:v>
+                    <c:v>[70]</c:v>
                   </c:pt>
                   <c:pt idx="23">
-                    <c:v>[62]</c:v>
+                    <c:v>[72]</c:v>
                   </c:pt>
                   <c:pt idx="24">
-                    <c:v>[59]</c:v>
+                    <c:v>[69]</c:v>
                   </c:pt>
                   <c:pt idx="25">
-                    <c:v>[9]</c:v>
+                    <c:v>[12]</c:v>
                   </c:pt>
                 </c15:dlblRangeCache>
               </c15:datalabelsRange>
@@ -13124,82 +13128,82 @@
                 <c15:dlblRangeCache>
                   <c:ptCount val="26"/>
                   <c:pt idx="0">
-                    <c:v>[34]</c:v>
+                    <c:v>[40]</c:v>
                   </c:pt>
                   <c:pt idx="1">
+                    <c:v>[38]</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>[24]</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>[14]</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>[35]</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>[54]</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
                     <c:v>[32]</c:v>
-                  </c:pt>
-                  <c:pt idx="2">
-                    <c:v>[21]</c:v>
-                  </c:pt>
-                  <c:pt idx="3">
-                    <c:v>[11]</c:v>
-                  </c:pt>
-                  <c:pt idx="4">
-                    <c:v>[30]</c:v>
-                  </c:pt>
-                  <c:pt idx="5">
-                    <c:v>[48]</c:v>
-                  </c:pt>
-                  <c:pt idx="6">
-                    <c:v>[27]</c:v>
                   </c:pt>
                   <c:pt idx="7">
                     <c:v>[13]</c:v>
                   </c:pt>
                   <c:pt idx="8">
-                    <c:v>[13]</c:v>
+                    <c:v>[16]</c:v>
                   </c:pt>
                   <c:pt idx="9">
+                    <c:v>[50]</c:v>
+                  </c:pt>
+                  <c:pt idx="10">
+                    <c:v>[50]</c:v>
+                  </c:pt>
+                  <c:pt idx="11">
+                    <c:v>[57]</c:v>
+                  </c:pt>
+                  <c:pt idx="12">
+                    <c:v>[72]</c:v>
+                  </c:pt>
+                  <c:pt idx="13">
+                    <c:v>[46]</c:v>
+                  </c:pt>
+                  <c:pt idx="14">
+                    <c:v>[11]</c:v>
+                  </c:pt>
+                  <c:pt idx="15">
+                    <c:v>[33]</c:v>
+                  </c:pt>
+                  <c:pt idx="16">
+                    <c:v>[27]</c:v>
+                  </c:pt>
+                  <c:pt idx="17">
+                    <c:v>[71]</c:v>
+                  </c:pt>
+                  <c:pt idx="18">
+                    <c:v>[65]</c:v>
+                  </c:pt>
+                  <c:pt idx="19">
+                    <c:v>[68]</c:v>
+                  </c:pt>
+                  <c:pt idx="20">
+                    <c:v>[5]</c:v>
+                  </c:pt>
+                  <c:pt idx="21">
                     <c:v>[44]</c:v>
                   </c:pt>
-                  <c:pt idx="10">
-                    <c:v>[44]</c:v>
-                  </c:pt>
-                  <c:pt idx="11">
-                    <c:v>[51]</c:v>
-                  </c:pt>
-                  <c:pt idx="12">
-                    <c:v>[62]</c:v>
-                  </c:pt>
-                  <c:pt idx="13">
-                    <c:v>[40]</c:v>
-                  </c:pt>
-                  <c:pt idx="14">
-                    <c:v>[8]</c:v>
-                  </c:pt>
-                  <c:pt idx="15">
-                    <c:v>[28]</c:v>
-                  </c:pt>
-                  <c:pt idx="16">
-                    <c:v>[24]</c:v>
-                  </c:pt>
-                  <c:pt idx="17">
-                    <c:v>[61]</c:v>
-                  </c:pt>
-                  <c:pt idx="18">
-                    <c:v>[57]</c:v>
-                  </c:pt>
-                  <c:pt idx="19">
-                    <c:v>[58]</c:v>
-                  </c:pt>
-                  <c:pt idx="20">
-                    <c:v>[3]</c:v>
-                  </c:pt>
-                  <c:pt idx="21">
-                    <c:v>[38]</c:v>
-                  </c:pt>
                   <c:pt idx="22">
-                    <c:v>[60]</c:v>
+                    <c:v>[70]</c:v>
                   </c:pt>
                   <c:pt idx="23">
-                    <c:v>[62]</c:v>
+                    <c:v>[72]</c:v>
                   </c:pt>
                   <c:pt idx="24">
-                    <c:v>[59]</c:v>
+                    <c:v>[69]</c:v>
                   </c:pt>
                   <c:pt idx="25">
-                    <c:v>[9]</c:v>
+                    <c:v>[12]</c:v>
                   </c:pt>
                 </c15:dlblRangeCache>
               </c15:datalabelsRange>
@@ -13869,7 +13873,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{0004A307-2D3A-4A8C-9F4A-482E60170031}" type="CELLRANGE">
+                    <a:fld id="{5B9330D7-8768-4DDF-9D2A-B6F786AB9AF2}" type="CELLRANGE">
                       <a:rPr lang="zh-CN" altLang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -13904,7 +13908,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{DE2FD431-9F63-4AAE-8464-B0C752D9EF57}" type="CELLRANGE">
+                    <a:fld id="{B20C2E50-4CE5-4787-89F8-5E54AFB7A262}" type="CELLRANGE">
                       <a:rPr lang="zh-CN" altLang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -14211,82 +14215,82 @@
                 <c15:dlblRangeCache>
                   <c:ptCount val="26"/>
                   <c:pt idx="0">
-                    <c:v>[34]</c:v>
+                    <c:v>[40]</c:v>
                   </c:pt>
                   <c:pt idx="1">
+                    <c:v>[38]</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>[24]</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>[14]</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>[35]</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>[54]</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
                     <c:v>[32]</c:v>
-                  </c:pt>
-                  <c:pt idx="2">
-                    <c:v>[21]</c:v>
-                  </c:pt>
-                  <c:pt idx="3">
-                    <c:v>[11]</c:v>
-                  </c:pt>
-                  <c:pt idx="4">
-                    <c:v>[30]</c:v>
-                  </c:pt>
-                  <c:pt idx="5">
-                    <c:v>[48]</c:v>
-                  </c:pt>
-                  <c:pt idx="6">
-                    <c:v>[27]</c:v>
                   </c:pt>
                   <c:pt idx="7">
                     <c:v>[13]</c:v>
                   </c:pt>
                   <c:pt idx="8">
-                    <c:v>[13]</c:v>
+                    <c:v>[16]</c:v>
                   </c:pt>
                   <c:pt idx="9">
+                    <c:v>[50]</c:v>
+                  </c:pt>
+                  <c:pt idx="10">
+                    <c:v>[50]</c:v>
+                  </c:pt>
+                  <c:pt idx="11">
+                    <c:v>[57]</c:v>
+                  </c:pt>
+                  <c:pt idx="12">
+                    <c:v>[72]</c:v>
+                  </c:pt>
+                  <c:pt idx="13">
+                    <c:v>[46]</c:v>
+                  </c:pt>
+                  <c:pt idx="14">
+                    <c:v>[11]</c:v>
+                  </c:pt>
+                  <c:pt idx="15">
+                    <c:v>[33]</c:v>
+                  </c:pt>
+                  <c:pt idx="16">
+                    <c:v>[27]</c:v>
+                  </c:pt>
+                  <c:pt idx="17">
+                    <c:v>[71]</c:v>
+                  </c:pt>
+                  <c:pt idx="18">
+                    <c:v>[65]</c:v>
+                  </c:pt>
+                  <c:pt idx="19">
+                    <c:v>[68]</c:v>
+                  </c:pt>
+                  <c:pt idx="20">
+                    <c:v>[5]</c:v>
+                  </c:pt>
+                  <c:pt idx="21">
                     <c:v>[44]</c:v>
                   </c:pt>
-                  <c:pt idx="10">
-                    <c:v>[44]</c:v>
-                  </c:pt>
-                  <c:pt idx="11">
-                    <c:v>[51]</c:v>
-                  </c:pt>
-                  <c:pt idx="12">
-                    <c:v>[62]</c:v>
-                  </c:pt>
-                  <c:pt idx="13">
-                    <c:v>[40]</c:v>
-                  </c:pt>
-                  <c:pt idx="14">
-                    <c:v>[8]</c:v>
-                  </c:pt>
-                  <c:pt idx="15">
-                    <c:v>[28]</c:v>
-                  </c:pt>
-                  <c:pt idx="16">
-                    <c:v>[24]</c:v>
-                  </c:pt>
-                  <c:pt idx="17">
-                    <c:v>[61]</c:v>
-                  </c:pt>
-                  <c:pt idx="18">
-                    <c:v>[57]</c:v>
-                  </c:pt>
-                  <c:pt idx="19">
-                    <c:v>[58]</c:v>
-                  </c:pt>
-                  <c:pt idx="20">
-                    <c:v>[3]</c:v>
-                  </c:pt>
-                  <c:pt idx="21">
-                    <c:v>[38]</c:v>
-                  </c:pt>
                   <c:pt idx="22">
-                    <c:v>[60]</c:v>
+                    <c:v>[70]</c:v>
                   </c:pt>
                   <c:pt idx="23">
-                    <c:v>[62]</c:v>
+                    <c:v>[72]</c:v>
                   </c:pt>
                   <c:pt idx="24">
-                    <c:v>[59]</c:v>
+                    <c:v>[69]</c:v>
                   </c:pt>
                   <c:pt idx="25">
-                    <c:v>[9]</c:v>
+                    <c:v>[12]</c:v>
                   </c:pt>
                 </c15:dlblRangeCache>
               </c15:datalabelsRange>
@@ -15292,82 +15296,82 @@
                 <c15:dlblRangeCache>
                   <c:ptCount val="31"/>
                   <c:pt idx="0">
-                    <c:v>[34]</c:v>
+                    <c:v>[40]</c:v>
                   </c:pt>
                   <c:pt idx="1">
+                    <c:v>[38]</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>[24]</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>[14]</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>[35]</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>[54]</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
                     <c:v>[32]</c:v>
-                  </c:pt>
-                  <c:pt idx="2">
-                    <c:v>[21]</c:v>
-                  </c:pt>
-                  <c:pt idx="3">
-                    <c:v>[11]</c:v>
-                  </c:pt>
-                  <c:pt idx="4">
-                    <c:v>[30]</c:v>
-                  </c:pt>
-                  <c:pt idx="5">
-                    <c:v>[48]</c:v>
-                  </c:pt>
-                  <c:pt idx="6">
-                    <c:v>[27]</c:v>
                   </c:pt>
                   <c:pt idx="7">
                     <c:v>[13]</c:v>
                   </c:pt>
                   <c:pt idx="8">
-                    <c:v>[13]</c:v>
+                    <c:v>[16]</c:v>
                   </c:pt>
                   <c:pt idx="9">
+                    <c:v>[50]</c:v>
+                  </c:pt>
+                  <c:pt idx="10">
+                    <c:v>[50]</c:v>
+                  </c:pt>
+                  <c:pt idx="11">
+                    <c:v>[57]</c:v>
+                  </c:pt>
+                  <c:pt idx="12">
+                    <c:v>[72]</c:v>
+                  </c:pt>
+                  <c:pt idx="13">
+                    <c:v>[46]</c:v>
+                  </c:pt>
+                  <c:pt idx="14">
+                    <c:v>[11]</c:v>
+                  </c:pt>
+                  <c:pt idx="15">
+                    <c:v>[33]</c:v>
+                  </c:pt>
+                  <c:pt idx="16">
+                    <c:v>[27]</c:v>
+                  </c:pt>
+                  <c:pt idx="17">
+                    <c:v>[71]</c:v>
+                  </c:pt>
+                  <c:pt idx="18">
+                    <c:v>[65]</c:v>
+                  </c:pt>
+                  <c:pt idx="19">
+                    <c:v>[68]</c:v>
+                  </c:pt>
+                  <c:pt idx="20">
+                    <c:v>[5]</c:v>
+                  </c:pt>
+                  <c:pt idx="21">
                     <c:v>[44]</c:v>
                   </c:pt>
-                  <c:pt idx="10">
-                    <c:v>[44]</c:v>
-                  </c:pt>
-                  <c:pt idx="11">
-                    <c:v>[51]</c:v>
-                  </c:pt>
-                  <c:pt idx="12">
-                    <c:v>[62]</c:v>
-                  </c:pt>
-                  <c:pt idx="13">
-                    <c:v>[40]</c:v>
-                  </c:pt>
-                  <c:pt idx="14">
-                    <c:v>[8]</c:v>
-                  </c:pt>
-                  <c:pt idx="15">
-                    <c:v>[28]</c:v>
-                  </c:pt>
-                  <c:pt idx="16">
-                    <c:v>[24]</c:v>
-                  </c:pt>
-                  <c:pt idx="17">
-                    <c:v>[61]</c:v>
-                  </c:pt>
-                  <c:pt idx="18">
-                    <c:v>[57]</c:v>
-                  </c:pt>
-                  <c:pt idx="19">
-                    <c:v>[58]</c:v>
-                  </c:pt>
-                  <c:pt idx="20">
-                    <c:v>[3]</c:v>
-                  </c:pt>
-                  <c:pt idx="21">
-                    <c:v>[38]</c:v>
-                  </c:pt>
                   <c:pt idx="22">
-                    <c:v>[60]</c:v>
+                    <c:v>[70]</c:v>
                   </c:pt>
                   <c:pt idx="23">
-                    <c:v>[62]</c:v>
+                    <c:v>[72]</c:v>
                   </c:pt>
                   <c:pt idx="24">
-                    <c:v>[59]</c:v>
+                    <c:v>[69]</c:v>
                   </c:pt>
                   <c:pt idx="25">
-                    <c:v>[9]</c:v>
+                    <c:v>[12]</c:v>
                   </c:pt>
                   <c:pt idx="26">
                     <c:v>Nvidia TX1(batch-1)</c:v>
@@ -25320,8 +25324,8 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A1" s="62"/>
-      <c r="B1" s="44"/>
+      <c r="A1" s="46"/>
+      <c r="B1" s="47"/>
       <c r="C1" s="15" t="s">
         <v>304</v>
       </c>
@@ -25337,33 +25341,33 @@
       <c r="G1" s="37" t="s">
         <v>370</v>
       </c>
-      <c r="H1" s="58" t="s">
+      <c r="H1" s="53" t="s">
         <v>297</v>
       </c>
-      <c r="I1" s="58"/>
-      <c r="J1" s="59"/>
+      <c r="I1" s="53"/>
+      <c r="J1" s="54"/>
       <c r="K1" s="39" t="s">
         <v>372</v>
       </c>
-      <c r="L1" s="56" t="s">
+      <c r="L1" s="51" t="s">
         <v>293</v>
       </c>
-      <c r="M1" s="44" t="s">
+      <c r="M1" s="47" t="s">
         <v>0</v>
       </c>
-      <c r="N1" s="44" t="s">
+      <c r="N1" s="47" t="s">
         <v>306</v>
       </c>
-      <c r="O1" s="44" t="s">
+      <c r="O1" s="47" t="s">
         <v>317</v>
       </c>
-      <c r="P1" s="52" t="s">
+      <c r="P1" s="55" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A2" s="62"/>
-      <c r="B2" s="45"/>
+      <c r="A2" s="46"/>
+      <c r="B2" s="48"/>
       <c r="C2" s="16" t="s">
         <v>305</v>
       </c>
@@ -25391,11 +25395,11 @@
       <c r="K2" s="31" t="s">
         <v>373</v>
       </c>
-      <c r="L2" s="57"/>
-      <c r="M2" s="45"/>
-      <c r="N2" s="45"/>
-      <c r="O2" s="45"/>
-      <c r="P2" s="53"/>
+      <c r="L2" s="52"/>
+      <c r="M2" s="48"/>
+      <c r="N2" s="48"/>
+      <c r="O2" s="48"/>
+      <c r="P2" s="56"/>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
@@ -25590,10 +25594,10 @@
       </c>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A7" s="44" t="s">
+      <c r="A7" s="47" t="s">
         <v>349</v>
       </c>
-      <c r="B7" s="44"/>
+      <c r="B7" s="47"/>
       <c r="C7" s="5" t="s">
         <v>324</v>
       </c>
@@ -25621,25 +25625,25 @@
       <c r="K7" s="30">
         <v>20</v>
       </c>
-      <c r="L7" s="44" t="s">
+      <c r="L7" s="47" t="s">
         <v>289</v>
       </c>
-      <c r="M7" s="44" t="s">
+      <c r="M7" s="47" t="s">
         <v>113</v>
       </c>
-      <c r="N7" s="44" t="s">
+      <c r="N7" s="47" t="s">
         <v>307</v>
       </c>
-      <c r="O7" s="44">
+      <c r="O7" s="47">
         <v>17</v>
       </c>
-      <c r="P7" s="46" t="s">
+      <c r="P7" s="57" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A8" s="45"/>
-      <c r="B8" s="45"/>
+      <c r="A8" s="48"/>
+      <c r="B8" s="48"/>
       <c r="C8" s="9" t="s">
         <v>325</v>
       </c>
@@ -25667,11 +25671,11 @@
       <c r="K8" s="30">
         <v>20</v>
       </c>
-      <c r="L8" s="45"/>
-      <c r="M8" s="45"/>
-      <c r="N8" s="45"/>
-      <c r="O8" s="45"/>
-      <c r="P8" s="47"/>
+      <c r="L8" s="48"/>
+      <c r="M8" s="48"/>
+      <c r="N8" s="48"/>
+      <c r="O8" s="48"/>
+      <c r="P8" s="58"/>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
@@ -26244,72 +26248,72 @@
       </c>
     </row>
     <row r="21" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A21" s="44" t="s">
+      <c r="A21" s="47" t="s">
         <v>354</v>
       </c>
-      <c r="B21" s="44"/>
-      <c r="C21" s="44" t="s">
+      <c r="B21" s="47"/>
+      <c r="C21" s="47" t="s">
         <v>207</v>
       </c>
-      <c r="D21" s="63">
+      <c r="D21" s="49">
         <v>1280.3</v>
       </c>
-      <c r="E21" s="48">
+      <c r="E21" s="59">
         <v>160</v>
       </c>
-      <c r="F21" s="50">
+      <c r="F21" s="61">
         <v>8</v>
       </c>
-      <c r="G21" s="54">
+      <c r="G21" s="63">
         <v>150</v>
       </c>
-      <c r="H21" s="44" t="s">
+      <c r="H21" s="47" t="s">
         <v>336</v>
       </c>
-      <c r="I21" s="44" t="s">
+      <c r="I21" s="47" t="s">
         <v>337</v>
       </c>
-      <c r="J21" s="52" t="s">
+      <c r="J21" s="55" t="s">
         <v>338</v>
       </c>
-      <c r="K21" s="44">
+      <c r="K21" s="47">
         <v>28</v>
       </c>
       <c r="L21" s="10" t="s">
         <v>322</v>
       </c>
-      <c r="M21" s="44" t="s">
+      <c r="M21" s="47" t="s">
         <v>179</v>
       </c>
-      <c r="N21" s="44" t="s">
+      <c r="N21" s="47" t="s">
         <v>311</v>
       </c>
-      <c r="O21" s="44">
+      <c r="O21" s="47">
         <v>16</v>
       </c>
-      <c r="P21" s="46" t="s">
+      <c r="P21" s="57" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="22" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A22" s="45"/>
-      <c r="B22" s="45"/>
-      <c r="C22" s="45"/>
-      <c r="D22" s="64"/>
-      <c r="E22" s="49"/>
-      <c r="F22" s="51"/>
-      <c r="G22" s="55"/>
-      <c r="H22" s="45"/>
-      <c r="I22" s="45"/>
-      <c r="J22" s="53"/>
-      <c r="K22" s="45"/>
+      <c r="A22" s="48"/>
+      <c r="B22" s="48"/>
+      <c r="C22" s="48"/>
+      <c r="D22" s="50"/>
+      <c r="E22" s="60"/>
+      <c r="F22" s="62"/>
+      <c r="G22" s="64"/>
+      <c r="H22" s="48"/>
+      <c r="I22" s="48"/>
+      <c r="J22" s="56"/>
+      <c r="K22" s="48"/>
       <c r="L22" s="11" t="s">
         <v>323</v>
       </c>
-      <c r="M22" s="45"/>
-      <c r="N22" s="45"/>
-      <c r="O22" s="45"/>
-      <c r="P22" s="47"/>
+      <c r="M22" s="48"/>
+      <c r="N22" s="48"/>
+      <c r="O22" s="48"/>
+      <c r="P22" s="58"/>
     </row>
     <row r="23" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
@@ -26504,12 +26508,12 @@
       </c>
     </row>
     <row r="27" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="C27" s="60" t="s">
+      <c r="C27" s="44" t="s">
         <v>387</v>
       </c>
     </row>
     <row r="28" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="C28" s="61"/>
+      <c r="C28" s="45"/>
     </row>
     <row r="32" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C32" s="17"/>
@@ -26528,26 +26532,6 @@
     </row>
   </sheetData>
   <mergeCells count="31">
-    <mergeCell ref="C27:C28"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="A21:A22"/>
-    <mergeCell ref="C21:C22"/>
-    <mergeCell ref="D21:D22"/>
-    <mergeCell ref="A7:A8"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="B7:B8"/>
-    <mergeCell ref="B21:B22"/>
-    <mergeCell ref="M1:M2"/>
-    <mergeCell ref="L1:L2"/>
-    <mergeCell ref="H1:J1"/>
-    <mergeCell ref="P1:P2"/>
-    <mergeCell ref="N1:N2"/>
-    <mergeCell ref="O1:O2"/>
-    <mergeCell ref="L7:L8"/>
-    <mergeCell ref="M7:M8"/>
-    <mergeCell ref="N7:N8"/>
-    <mergeCell ref="O7:O8"/>
-    <mergeCell ref="P7:P8"/>
     <mergeCell ref="M21:M22"/>
     <mergeCell ref="N21:N22"/>
     <mergeCell ref="O21:O22"/>
@@ -26559,6 +26543,26 @@
     <mergeCell ref="J21:J22"/>
     <mergeCell ref="G21:G22"/>
     <mergeCell ref="K21:K22"/>
+    <mergeCell ref="L7:L8"/>
+    <mergeCell ref="M7:M8"/>
+    <mergeCell ref="N7:N8"/>
+    <mergeCell ref="O7:O8"/>
+    <mergeCell ref="P7:P8"/>
+    <mergeCell ref="M1:M2"/>
+    <mergeCell ref="L1:L2"/>
+    <mergeCell ref="H1:J1"/>
+    <mergeCell ref="P1:P2"/>
+    <mergeCell ref="N1:N2"/>
+    <mergeCell ref="O1:O2"/>
+    <mergeCell ref="C27:C28"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="A21:A22"/>
+    <mergeCell ref="C21:C22"/>
+    <mergeCell ref="D21:D22"/>
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="B7:B8"/>
+    <mergeCell ref="B21:B22"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -26571,8 +26575,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="Q6" sqref="Q6"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="P22" sqref="P22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -26581,12 +26585,16 @@
     <col min="3" max="3" width="11.125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="6.75" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="10.375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="6.75" customWidth="1"/>
-    <col min="7" max="7" width="12.25" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.25" customWidth="1"/>
-    <col min="15" max="15" width="16.5" customWidth="1"/>
-    <col min="16" max="16" width="14" customWidth="1"/>
-    <col min="17" max="17" width="20.25" customWidth="1"/>
+    <col min="6" max="7" width="6.75" customWidth="1"/>
+    <col min="8" max="8" width="5" customWidth="1"/>
+    <col min="10" max="10" width="6.625" customWidth="1"/>
+    <col min="11" max="11" width="7.375" customWidth="1"/>
+    <col min="12" max="12" width="7.25" customWidth="1"/>
+    <col min="13" max="13" width="6.875" customWidth="1"/>
+    <col min="14" max="14" width="7.5" customWidth="1"/>
+    <col min="15" max="15" width="9.375" customWidth="1"/>
+    <col min="16" max="16" width="9.875" customWidth="1"/>
+    <col min="17" max="17" width="10.625" customWidth="1"/>
     <col min="18" max="18" width="19.875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -26676,7 +26684,7 @@
       <c r="O2" s="27"/>
       <c r="P2" s="27"/>
       <c r="Q2" s="29" t="s">
-        <v>400</v>
+        <v>402</v>
       </c>
       <c r="R2" s="29" t="s">
         <v>318</v>
@@ -26718,7 +26726,7 @@
       <c r="O3" s="27"/>
       <c r="P3" s="27"/>
       <c r="Q3" s="29" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="R3" s="29" t="s">
         <v>343</v>
@@ -26760,7 +26768,7 @@
       <c r="O4" s="27"/>
       <c r="P4" s="27"/>
       <c r="Q4" s="29" t="s">
-        <v>401</v>
+        <v>389</v>
       </c>
       <c r="R4" s="29" t="s">
         <v>339</v>
@@ -26802,7 +26810,7 @@
       <c r="O5" s="27"/>
       <c r="P5" s="27"/>
       <c r="Q5" s="29" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="R5" s="29" t="s">
         <v>340</v>
@@ -26845,7 +26853,7 @@
       <c r="O6" s="27"/>
       <c r="P6" s="27"/>
       <c r="Q6" s="29" t="s">
-        <v>411</v>
+        <v>395</v>
       </c>
       <c r="R6" s="29" t="s">
         <v>345</v>
@@ -26887,7 +26895,7 @@
       <c r="O7" s="27"/>
       <c r="P7" s="27"/>
       <c r="Q7" s="29" t="s">
-        <v>394</v>
+        <v>397</v>
       </c>
       <c r="R7" s="29" t="s">
         <v>346</v>
@@ -26929,7 +26937,7 @@
       <c r="O8" s="27"/>
       <c r="P8" s="27"/>
       <c r="Q8" s="29" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="R8" s="29" t="s">
         <v>347</v>
@@ -26971,7 +26979,7 @@
       <c r="O9" s="27"/>
       <c r="P9" s="27"/>
       <c r="Q9" s="29" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="R9" s="29" t="s">
         <v>348</v>
@@ -27013,7 +27021,7 @@
       <c r="O10" s="27"/>
       <c r="P10" s="27"/>
       <c r="Q10" s="29" t="s">
-        <v>389</v>
+        <v>392</v>
       </c>
       <c r="R10" s="29" t="s">
         <v>348</v>
@@ -27055,7 +27063,7 @@
       <c r="O11" s="27"/>
       <c r="P11" s="27"/>
       <c r="Q11" s="29" t="s">
-        <v>390</v>
+        <v>411</v>
       </c>
       <c r="R11" s="29" t="s">
         <v>382</v>
@@ -27097,7 +27105,7 @@
       <c r="O12" s="27"/>
       <c r="P12" s="27"/>
       <c r="Q12" s="29" t="s">
-        <v>391</v>
+        <v>412</v>
       </c>
       <c r="R12" s="29" t="s">
         <v>382</v>
@@ -27139,7 +27147,7 @@
       <c r="O13" s="27"/>
       <c r="P13" s="27"/>
       <c r="Q13" s="29" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="R13" s="29" t="s">
         <v>320</v>
@@ -27181,7 +27189,7 @@
       <c r="O14" s="27"/>
       <c r="P14" s="27"/>
       <c r="Q14" s="29" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="R14" s="29" t="s">
         <v>385</v>
@@ -27223,7 +27231,7 @@
       <c r="O15" s="27"/>
       <c r="P15" s="27"/>
       <c r="Q15" s="29" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="R15" s="29" t="s">
         <v>350</v>
@@ -27265,7 +27273,7 @@
       <c r="O16" s="27"/>
       <c r="P16" s="27"/>
       <c r="Q16" s="29" t="s">
-        <v>397</v>
+        <v>399</v>
       </c>
       <c r="R16" s="29" t="s">
         <v>351</v>
@@ -27307,7 +27315,7 @@
       <c r="O17" s="27"/>
       <c r="P17" s="27"/>
       <c r="Q17" s="29" t="s">
-        <v>398</v>
+        <v>400</v>
       </c>
       <c r="R17" s="29" t="s">
         <v>352</v>
@@ -27349,7 +27357,7 @@
       <c r="O18" s="27"/>
       <c r="P18" s="27"/>
       <c r="Q18" s="29" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="R18" s="29" t="s">
         <v>353</v>
@@ -27391,7 +27399,7 @@
       <c r="O19" s="27"/>
       <c r="P19" s="27"/>
       <c r="Q19" s="29" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="R19" s="29" t="s">
         <v>354</v>
@@ -27433,7 +27441,7 @@
       <c r="O20" s="27"/>
       <c r="P20" s="27"/>
       <c r="Q20" s="29" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="R20" s="29" t="s">
         <v>355</v>
@@ -27475,7 +27483,7 @@
       <c r="O21" s="27"/>
       <c r="P21" s="27"/>
       <c r="Q21" s="29" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="R21" s="29" t="s">
         <v>356</v>
@@ -27517,7 +27525,7 @@
       <c r="O22" s="27"/>
       <c r="P22" s="27"/>
       <c r="Q22" s="29" t="s">
-        <v>388</v>
+        <v>391</v>
       </c>
       <c r="R22" s="29" t="s">
         <v>319</v>
@@ -27559,7 +27567,7 @@
       <c r="O23" s="27"/>
       <c r="P23" s="27"/>
       <c r="Q23" s="29" t="s">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="R23" s="29" t="s">
         <v>357</v>
@@ -27601,7 +27609,7 @@
       <c r="O24" s="27"/>
       <c r="P24" s="27"/>
       <c r="Q24" s="29" t="s">
-        <v>410</v>
+        <v>393</v>
       </c>
       <c r="R24" s="29" t="s">
         <v>386</v>
@@ -27643,7 +27651,7 @@
       <c r="O25" s="27"/>
       <c r="P25" s="27"/>
       <c r="Q25" s="29" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="R25" s="29" t="s">
         <v>385</v>
@@ -27681,7 +27689,7 @@
       <c r="O26" s="27"/>
       <c r="P26" s="27"/>
       <c r="Q26" s="29" t="s">
-        <v>396</v>
+        <v>398</v>
       </c>
       <c r="R26" s="29" t="s">
         <v>359</v>
@@ -27711,7 +27719,7 @@
       <c r="O27" s="27"/>
       <c r="P27" s="27"/>
       <c r="Q27" s="29" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="R27" s="29" t="s">
         <v>360</v>

--- a/data/performance.xlsx
+++ b/data/performance.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="842" uniqueCount="413">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="842" uniqueCount="414">
   <si>
     <t>Title</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1558,27 +1558,35 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>[24]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>[57]</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>[5]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[16]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>[70]</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>[72]</t>
+    <t>[38]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[27]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[14]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[43]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[41]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[17]</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1586,71 +1594,67 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>[46]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[54]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[69]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[11]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[33]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[44]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[40]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[38]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[27]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[32]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[71]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[14]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[65]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[12]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[68]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[50]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[50]</t>
+    <t>[19]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[53]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[53]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[61]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[77]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[49]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[36]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[30]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[76]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[73]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[7]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[47]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[75]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[77]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[74]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[15]</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2149,43 +2153,10 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
@@ -2206,10 +2177,43 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="20" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="21" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2348,7 +2352,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{A289A1D4-1F0D-4930-AC24-20C2ECBE4EBD}" type="CELLRANGE">
+                    <a:fld id="{A5D13641-62BE-4498-8207-643F0688E758}" type="CELLRANGE">
                       <a:rPr lang="zh-CN" altLang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -2381,7 +2385,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{F409329B-7106-4FFF-952B-8C700AEAF7B5}" type="CELLRANGE">
+                    <a:fld id="{660CE9FA-D7B3-46D7-B4D9-8BD1197D2B22}" type="CELLRANGE">
                       <a:rPr lang="zh-CN" altLang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -2414,7 +2418,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{24E576E5-DBB7-4F95-AB35-665478810E64}" type="CELLRANGE">
+                    <a:fld id="{FC245FE1-BC71-4986-8450-9B35051A76D5}" type="CELLRANGE">
                       <a:rPr lang="zh-CN" altLang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -2447,7 +2451,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{A240411A-6F48-4C48-A21A-16FEDB598DA2}" type="CELLRANGE">
+                    <a:fld id="{99AD02CC-6BCC-45D6-97AF-1EE3477B3230}" type="CELLRANGE">
                       <a:rPr lang="zh-CN" altLang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -2480,7 +2484,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{C6F9CD30-3C72-48B0-8F71-2BF083E3A57E}" type="CELLRANGE">
+                    <a:fld id="{DC84B902-2C31-4EE1-8035-AD3BE2D6B96E}" type="CELLRANGE">
                       <a:rPr lang="zh-CN" altLang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -2513,7 +2517,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{92E5AD14-F9EA-4F35-AFB4-4FC8186952E7}" type="CELLRANGE">
+                    <a:fld id="{E49DE0AF-9886-4878-9C2B-C4E4814D8544}" type="CELLRANGE">
                       <a:rPr lang="zh-CN" altLang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -2546,7 +2550,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{B158559C-2F5C-4E92-BD0A-FC1BEACACC5E}" type="CELLRANGE">
+                    <a:fld id="{7C7CC7C4-3A8A-4F0C-8E3D-75FF2C63DDF7}" type="CELLRANGE">
                       <a:rPr lang="zh-CN" altLang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -2603,7 +2607,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{0B1560CA-4B14-434E-A2B9-9B6E2D96D2B9}" type="CELLRANGE">
+                    <a:fld id="{67513A73-894C-4DAA-A497-3063D460A465}" type="CELLRANGE">
                       <a:rPr lang="zh-CN" altLang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -2636,7 +2640,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{FB07B301-A427-4B22-A96C-9F5F5B16277B}" type="CELLRANGE">
+                    <a:fld id="{1E52EB66-ECEB-4A3C-A418-D4E4EE91CA1B}" type="CELLRANGE">
                       <a:rPr lang="zh-CN" altLang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -2669,7 +2673,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{37CAC468-7B65-4E81-9832-ECAEAECB9D04}" type="CELLRANGE">
+                    <a:fld id="{CCF16E4F-DA22-4695-816E-D11DF0D71539}" type="CELLRANGE">
                       <a:rPr lang="zh-CN" altLang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -2726,7 +2730,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{DE13296D-F842-4675-BEB1-501B41567BF9}" type="CELLRANGE">
+                    <a:fld id="{F1FC3E75-4843-4B69-ABC4-89E3730E768E}" type="CELLRANGE">
                       <a:rPr lang="zh-CN" altLang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -2759,7 +2763,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{A117FF8F-8C3E-41CF-89DE-61267D57D6D5}" type="CELLRANGE">
+                    <a:fld id="{D6586551-BCB1-489C-811B-ED244A945C38}" type="CELLRANGE">
                       <a:rPr lang="zh-CN" altLang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -2792,7 +2796,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{2C6386B6-D4FF-430D-95D4-0CC32B7CF53D}" type="CELLRANGE">
+                    <a:fld id="{6076EC45-82B2-4890-8C03-D4E400C793C1}" type="CELLRANGE">
                       <a:rPr lang="zh-CN" altLang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -2825,7 +2829,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{B2E14483-63C8-4E08-8BC9-0424D6DE3459}" type="CELLRANGE">
+                    <a:fld id="{A596691A-45CD-4467-9C04-35F887055B51}" type="CELLRANGE">
                       <a:rPr lang="zh-CN" altLang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -2882,7 +2886,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{E72B088C-D492-4286-BF85-5F6B4C2CF1FC}" type="CELLRANGE">
+                    <a:fld id="{F97D6715-0E89-4346-886A-2BCFE873961B}" type="CELLRANGE">
                       <a:rPr lang="zh-CN" altLang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -2939,7 +2943,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{6033F82B-B91E-4D1B-B248-73130C594AA9}" type="CELLRANGE">
+                    <a:fld id="{1A0E2B4E-EAB9-4832-A663-D94306DB1818}" type="CELLRANGE">
                       <a:rPr lang="zh-CN" altLang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -2996,7 +3000,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{6F2B7FB1-1BDC-4DB1-BE07-C74CF3BA3D54}" type="CELLRANGE">
+                    <a:fld id="{E3D71C53-45D8-4B51-9707-86FB5FE1FE8E}" type="CELLRANGE">
                       <a:rPr lang="zh-CN" altLang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -3053,7 +3057,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{94D53E77-A67E-46FC-9173-2BCEB88AD499}" type="CELLRANGE">
+                    <a:fld id="{A6090FE9-2AB8-407E-8DCA-BC461EDF52A7}" type="CELLRANGE">
                       <a:rPr lang="zh-CN" altLang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -3110,7 +3114,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{01DF72DF-717C-4CB4-B837-3C8492C89212}" type="CELLRANGE">
+                    <a:fld id="{A7A6118B-8452-4ABE-8025-D17F724C3DEA}" type="CELLRANGE">
                       <a:rPr lang="zh-CN" altLang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -4689,7 +4693,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{0FC4C73D-09E9-4228-B353-84E027A1ADC9}" type="CELLRANGE">
+                    <a:fld id="{50D4222A-01BB-4270-B84A-C89BF89A8B39}" type="CELLRANGE">
                       <a:rPr lang="zh-CN" altLang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -5596,82 +5600,82 @@
                 <c15:dlblRangeCache>
                   <c:ptCount val="26"/>
                   <c:pt idx="0">
-                    <c:v>[40]</c:v>
+                    <c:v>[43]</c:v>
                   </c:pt>
                   <c:pt idx="1">
+                    <c:v>[41]</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>[27]</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>[17]</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
                     <c:v>[38]</c:v>
                   </c:pt>
-                  <c:pt idx="2">
-                    <c:v>[24]</c:v>
-                  </c:pt>
-                  <c:pt idx="3">
-                    <c:v>[14]</c:v>
-                  </c:pt>
-                  <c:pt idx="4">
-                    <c:v>[35]</c:v>
-                  </c:pt>
                   <c:pt idx="5">
-                    <c:v>[54]</c:v>
+                    <c:v>[57]</c:v>
                   </c:pt>
                   <c:pt idx="6">
-                    <c:v>[32]</c:v>
+                    <c:v>[35]</c:v>
                   </c:pt>
                   <c:pt idx="7">
                     <c:v>[13]</c:v>
                   </c:pt>
                   <c:pt idx="8">
-                    <c:v>[16]</c:v>
+                    <c:v>[19]</c:v>
                   </c:pt>
                   <c:pt idx="9">
-                    <c:v>[50]</c:v>
+                    <c:v>[53]</c:v>
                   </c:pt>
                   <c:pt idx="10">
-                    <c:v>[50]</c:v>
+                    <c:v>[53]</c:v>
                   </c:pt>
                   <c:pt idx="11">
-                    <c:v>[57]</c:v>
+                    <c:v>[61]</c:v>
                   </c:pt>
                   <c:pt idx="12">
-                    <c:v>[72]</c:v>
+                    <c:v>[77]</c:v>
                   </c:pt>
                   <c:pt idx="13">
-                    <c:v>[46]</c:v>
+                    <c:v>[49]</c:v>
                   </c:pt>
                   <c:pt idx="14">
-                    <c:v>[11]</c:v>
+                    <c:v>[14]</c:v>
                   </c:pt>
                   <c:pt idx="15">
-                    <c:v>[33]</c:v>
+                    <c:v>[36]</c:v>
                   </c:pt>
                   <c:pt idx="16">
-                    <c:v>[27]</c:v>
+                    <c:v>[30]</c:v>
                   </c:pt>
                   <c:pt idx="17">
-                    <c:v>[71]</c:v>
+                    <c:v>[76]</c:v>
                   </c:pt>
                   <c:pt idx="18">
-                    <c:v>[65]</c:v>
+                    <c:v>[70]</c:v>
                   </c:pt>
                   <c:pt idx="19">
-                    <c:v>[68]</c:v>
+                    <c:v>[73]</c:v>
                   </c:pt>
                   <c:pt idx="20">
-                    <c:v>[5]</c:v>
+                    <c:v>[7]</c:v>
                   </c:pt>
                   <c:pt idx="21">
-                    <c:v>[44]</c:v>
+                    <c:v>[47]</c:v>
                   </c:pt>
                   <c:pt idx="22">
-                    <c:v>[70]</c:v>
+                    <c:v>[75]</c:v>
                   </c:pt>
                   <c:pt idx="23">
-                    <c:v>[72]</c:v>
+                    <c:v>[77]</c:v>
                   </c:pt>
                   <c:pt idx="24">
-                    <c:v>[69]</c:v>
+                    <c:v>[74]</c:v>
                   </c:pt>
                   <c:pt idx="25">
-                    <c:v>[12]</c:v>
+                    <c:v>[15]</c:v>
                   </c:pt>
                 </c15:dlblRangeCache>
               </c15:datalabelsRange>
@@ -6614,82 +6618,82 @@
                 <c15:dlblRangeCache>
                   <c:ptCount val="26"/>
                   <c:pt idx="0">
-                    <c:v>[40]</c:v>
+                    <c:v>[43]</c:v>
                   </c:pt>
                   <c:pt idx="1">
+                    <c:v>[41]</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>[27]</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>[17]</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
                     <c:v>[38]</c:v>
                   </c:pt>
-                  <c:pt idx="2">
-                    <c:v>[24]</c:v>
-                  </c:pt>
-                  <c:pt idx="3">
-                    <c:v>[14]</c:v>
-                  </c:pt>
-                  <c:pt idx="4">
-                    <c:v>[35]</c:v>
-                  </c:pt>
                   <c:pt idx="5">
-                    <c:v>[54]</c:v>
+                    <c:v>[57]</c:v>
                   </c:pt>
                   <c:pt idx="6">
-                    <c:v>[32]</c:v>
+                    <c:v>[35]</c:v>
                   </c:pt>
                   <c:pt idx="7">
                     <c:v>[13]</c:v>
                   </c:pt>
                   <c:pt idx="8">
-                    <c:v>[16]</c:v>
+                    <c:v>[19]</c:v>
                   </c:pt>
                   <c:pt idx="9">
-                    <c:v>[50]</c:v>
+                    <c:v>[53]</c:v>
                   </c:pt>
                   <c:pt idx="10">
-                    <c:v>[50]</c:v>
+                    <c:v>[53]</c:v>
                   </c:pt>
                   <c:pt idx="11">
-                    <c:v>[57]</c:v>
+                    <c:v>[61]</c:v>
                   </c:pt>
                   <c:pt idx="12">
-                    <c:v>[72]</c:v>
+                    <c:v>[77]</c:v>
                   </c:pt>
                   <c:pt idx="13">
-                    <c:v>[46]</c:v>
+                    <c:v>[49]</c:v>
                   </c:pt>
                   <c:pt idx="14">
-                    <c:v>[11]</c:v>
+                    <c:v>[14]</c:v>
                   </c:pt>
                   <c:pt idx="15">
-                    <c:v>[33]</c:v>
+                    <c:v>[36]</c:v>
                   </c:pt>
                   <c:pt idx="16">
-                    <c:v>[27]</c:v>
+                    <c:v>[30]</c:v>
                   </c:pt>
                   <c:pt idx="17">
-                    <c:v>[71]</c:v>
+                    <c:v>[76]</c:v>
                   </c:pt>
                   <c:pt idx="18">
-                    <c:v>[65]</c:v>
+                    <c:v>[70]</c:v>
                   </c:pt>
                   <c:pt idx="19">
-                    <c:v>[68]</c:v>
+                    <c:v>[73]</c:v>
                   </c:pt>
                   <c:pt idx="20">
-                    <c:v>[5]</c:v>
+                    <c:v>[7]</c:v>
                   </c:pt>
                   <c:pt idx="21">
-                    <c:v>[44]</c:v>
+                    <c:v>[47]</c:v>
                   </c:pt>
                   <c:pt idx="22">
-                    <c:v>[70]</c:v>
+                    <c:v>[75]</c:v>
                   </c:pt>
                   <c:pt idx="23">
-                    <c:v>[72]</c:v>
+                    <c:v>[77]</c:v>
                   </c:pt>
                   <c:pt idx="24">
-                    <c:v>[69]</c:v>
+                    <c:v>[74]</c:v>
                   </c:pt>
                   <c:pt idx="25">
-                    <c:v>[12]</c:v>
+                    <c:v>[15]</c:v>
                   </c:pt>
                 </c15:dlblRangeCache>
               </c15:datalabelsRange>
@@ -7671,82 +7675,82 @@
                 <c15:dlblRangeCache>
                   <c:ptCount val="26"/>
                   <c:pt idx="0">
-                    <c:v>[40]</c:v>
+                    <c:v>[43]</c:v>
                   </c:pt>
                   <c:pt idx="1">
+                    <c:v>[41]</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>[27]</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>[17]</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
                     <c:v>[38]</c:v>
                   </c:pt>
-                  <c:pt idx="2">
-                    <c:v>[24]</c:v>
-                  </c:pt>
-                  <c:pt idx="3">
-                    <c:v>[14]</c:v>
-                  </c:pt>
-                  <c:pt idx="4">
-                    <c:v>[35]</c:v>
-                  </c:pt>
                   <c:pt idx="5">
-                    <c:v>[54]</c:v>
+                    <c:v>[57]</c:v>
                   </c:pt>
                   <c:pt idx="6">
-                    <c:v>[32]</c:v>
+                    <c:v>[35]</c:v>
                   </c:pt>
                   <c:pt idx="7">
                     <c:v>[13]</c:v>
                   </c:pt>
                   <c:pt idx="8">
-                    <c:v>[16]</c:v>
+                    <c:v>[19]</c:v>
                   </c:pt>
                   <c:pt idx="9">
-                    <c:v>[50]</c:v>
+                    <c:v>[53]</c:v>
                   </c:pt>
                   <c:pt idx="10">
-                    <c:v>[50]</c:v>
+                    <c:v>[53]</c:v>
                   </c:pt>
                   <c:pt idx="11">
-                    <c:v>[57]</c:v>
+                    <c:v>[61]</c:v>
                   </c:pt>
                   <c:pt idx="12">
-                    <c:v>[72]</c:v>
+                    <c:v>[77]</c:v>
                   </c:pt>
                   <c:pt idx="13">
-                    <c:v>[46]</c:v>
+                    <c:v>[49]</c:v>
                   </c:pt>
                   <c:pt idx="14">
-                    <c:v>[11]</c:v>
+                    <c:v>[14]</c:v>
                   </c:pt>
                   <c:pt idx="15">
-                    <c:v>[33]</c:v>
+                    <c:v>[36]</c:v>
                   </c:pt>
                   <c:pt idx="16">
-                    <c:v>[27]</c:v>
+                    <c:v>[30]</c:v>
                   </c:pt>
                   <c:pt idx="17">
-                    <c:v>[71]</c:v>
+                    <c:v>[76]</c:v>
                   </c:pt>
                   <c:pt idx="18">
-                    <c:v>[65]</c:v>
+                    <c:v>[70]</c:v>
                   </c:pt>
                   <c:pt idx="19">
-                    <c:v>[68]</c:v>
+                    <c:v>[73]</c:v>
                   </c:pt>
                   <c:pt idx="20">
-                    <c:v>[5]</c:v>
+                    <c:v>[7]</c:v>
                   </c:pt>
                   <c:pt idx="21">
-                    <c:v>[44]</c:v>
+                    <c:v>[47]</c:v>
                   </c:pt>
                   <c:pt idx="22">
-                    <c:v>[70]</c:v>
+                    <c:v>[75]</c:v>
                   </c:pt>
                   <c:pt idx="23">
-                    <c:v>[72]</c:v>
+                    <c:v>[77]</c:v>
                   </c:pt>
                   <c:pt idx="24">
-                    <c:v>[69]</c:v>
+                    <c:v>[74]</c:v>
                   </c:pt>
                   <c:pt idx="25">
-                    <c:v>[12]</c:v>
+                    <c:v>[15]</c:v>
                   </c:pt>
                 </c15:dlblRangeCache>
               </c15:datalabelsRange>
@@ -7941,7 +7945,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{87D48914-4608-41A5-BA81-D3DA37ED3B25}" type="CELLRANGE">
+                    <a:fld id="{3B3D1E9D-FF1F-4115-B8FD-E67B2E105F72}" type="CELLRANGE">
                       <a:rPr lang="zh-CN" altLang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -8766,82 +8770,82 @@
                 <c15:dlblRangeCache>
                   <c:ptCount val="26"/>
                   <c:pt idx="0">
-                    <c:v>[40]</c:v>
+                    <c:v>[43]</c:v>
                   </c:pt>
                   <c:pt idx="1">
+                    <c:v>[41]</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>[27]</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>[17]</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
                     <c:v>[38]</c:v>
                   </c:pt>
-                  <c:pt idx="2">
-                    <c:v>[24]</c:v>
-                  </c:pt>
-                  <c:pt idx="3">
-                    <c:v>[14]</c:v>
-                  </c:pt>
-                  <c:pt idx="4">
-                    <c:v>[35]</c:v>
-                  </c:pt>
                   <c:pt idx="5">
-                    <c:v>[54]</c:v>
+                    <c:v>[57]</c:v>
                   </c:pt>
                   <c:pt idx="6">
-                    <c:v>[32]</c:v>
+                    <c:v>[35]</c:v>
                   </c:pt>
                   <c:pt idx="7">
                     <c:v>[13]</c:v>
                   </c:pt>
                   <c:pt idx="8">
-                    <c:v>[16]</c:v>
+                    <c:v>[19]</c:v>
                   </c:pt>
                   <c:pt idx="9">
-                    <c:v>[50]</c:v>
+                    <c:v>[53]</c:v>
                   </c:pt>
                   <c:pt idx="10">
-                    <c:v>[50]</c:v>
+                    <c:v>[53]</c:v>
                   </c:pt>
                   <c:pt idx="11">
-                    <c:v>[57]</c:v>
+                    <c:v>[61]</c:v>
                   </c:pt>
                   <c:pt idx="12">
-                    <c:v>[72]</c:v>
+                    <c:v>[77]</c:v>
                   </c:pt>
                   <c:pt idx="13">
-                    <c:v>[46]</c:v>
+                    <c:v>[49]</c:v>
                   </c:pt>
                   <c:pt idx="14">
-                    <c:v>[11]</c:v>
+                    <c:v>[14]</c:v>
                   </c:pt>
                   <c:pt idx="15">
-                    <c:v>[33]</c:v>
+                    <c:v>[36]</c:v>
                   </c:pt>
                   <c:pt idx="16">
-                    <c:v>[27]</c:v>
+                    <c:v>[30]</c:v>
                   </c:pt>
                   <c:pt idx="17">
-                    <c:v>[71]</c:v>
+                    <c:v>[76]</c:v>
                   </c:pt>
                   <c:pt idx="18">
-                    <c:v>[65]</c:v>
+                    <c:v>[70]</c:v>
                   </c:pt>
                   <c:pt idx="19">
-                    <c:v>[68]</c:v>
+                    <c:v>[73]</c:v>
                   </c:pt>
                   <c:pt idx="20">
-                    <c:v>[5]</c:v>
+                    <c:v>[7]</c:v>
                   </c:pt>
                   <c:pt idx="21">
-                    <c:v>[44]</c:v>
+                    <c:v>[47]</c:v>
                   </c:pt>
                   <c:pt idx="22">
-                    <c:v>[70]</c:v>
+                    <c:v>[75]</c:v>
                   </c:pt>
                   <c:pt idx="23">
-                    <c:v>[72]</c:v>
+                    <c:v>[77]</c:v>
                   </c:pt>
                   <c:pt idx="24">
-                    <c:v>[69]</c:v>
+                    <c:v>[74]</c:v>
                   </c:pt>
                   <c:pt idx="25">
-                    <c:v>[12]</c:v>
+                    <c:v>[15]</c:v>
                   </c:pt>
                 </c15:dlblRangeCache>
               </c15:datalabelsRange>
@@ -9103,7 +9107,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{748F7ED1-63D1-4579-8477-3CB65B6CFA78}" type="CELLRANGE">
+                    <a:fld id="{EA9F2BC9-593A-4B82-888F-AD45AFFF5302}" type="CELLRANGE">
                       <a:rPr lang="zh-CN" altLang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -9812,82 +9816,82 @@
                 <c15:dlblRangeCache>
                   <c:ptCount val="26"/>
                   <c:pt idx="0">
-                    <c:v>[40]</c:v>
+                    <c:v>[43]</c:v>
                   </c:pt>
                   <c:pt idx="1">
+                    <c:v>[41]</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>[27]</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>[17]</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
                     <c:v>[38]</c:v>
                   </c:pt>
-                  <c:pt idx="2">
-                    <c:v>[24]</c:v>
-                  </c:pt>
-                  <c:pt idx="3">
-                    <c:v>[14]</c:v>
-                  </c:pt>
-                  <c:pt idx="4">
-                    <c:v>[35]</c:v>
-                  </c:pt>
                   <c:pt idx="5">
-                    <c:v>[54]</c:v>
+                    <c:v>[57]</c:v>
                   </c:pt>
                   <c:pt idx="6">
-                    <c:v>[32]</c:v>
+                    <c:v>[35]</c:v>
                   </c:pt>
                   <c:pt idx="7">
                     <c:v>[13]</c:v>
                   </c:pt>
                   <c:pt idx="8">
-                    <c:v>[16]</c:v>
+                    <c:v>[19]</c:v>
                   </c:pt>
                   <c:pt idx="9">
-                    <c:v>[50]</c:v>
+                    <c:v>[53]</c:v>
                   </c:pt>
                   <c:pt idx="10">
-                    <c:v>[50]</c:v>
+                    <c:v>[53]</c:v>
                   </c:pt>
                   <c:pt idx="11">
-                    <c:v>[57]</c:v>
+                    <c:v>[61]</c:v>
                   </c:pt>
                   <c:pt idx="12">
-                    <c:v>[72]</c:v>
+                    <c:v>[77]</c:v>
                   </c:pt>
                   <c:pt idx="13">
-                    <c:v>[46]</c:v>
+                    <c:v>[49]</c:v>
                   </c:pt>
                   <c:pt idx="14">
-                    <c:v>[11]</c:v>
+                    <c:v>[14]</c:v>
                   </c:pt>
                   <c:pt idx="15">
-                    <c:v>[33]</c:v>
+                    <c:v>[36]</c:v>
                   </c:pt>
                   <c:pt idx="16">
-                    <c:v>[27]</c:v>
+                    <c:v>[30]</c:v>
                   </c:pt>
                   <c:pt idx="17">
-                    <c:v>[71]</c:v>
+                    <c:v>[76]</c:v>
                   </c:pt>
                   <c:pt idx="18">
-                    <c:v>[65]</c:v>
+                    <c:v>[70]</c:v>
                   </c:pt>
                   <c:pt idx="19">
-                    <c:v>[68]</c:v>
+                    <c:v>[73]</c:v>
                   </c:pt>
                   <c:pt idx="20">
-                    <c:v>[5]</c:v>
+                    <c:v>[7]</c:v>
                   </c:pt>
                   <c:pt idx="21">
-                    <c:v>[44]</c:v>
+                    <c:v>[47]</c:v>
                   </c:pt>
                   <c:pt idx="22">
-                    <c:v>[70]</c:v>
+                    <c:v>[75]</c:v>
                   </c:pt>
                   <c:pt idx="23">
-                    <c:v>[72]</c:v>
+                    <c:v>[77]</c:v>
                   </c:pt>
                   <c:pt idx="24">
-                    <c:v>[69]</c:v>
+                    <c:v>[74]</c:v>
                   </c:pt>
                   <c:pt idx="25">
-                    <c:v>[12]</c:v>
+                    <c:v>[15]</c:v>
                   </c:pt>
                 </c15:dlblRangeCache>
               </c15:datalabelsRange>
@@ -10236,7 +10240,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{713327D7-580E-4A22-A619-F2351CE25CD9}" type="CELLRANGE">
+                    <a:fld id="{672223F9-6C27-4C09-9B38-A72AD7DAB931}" type="CELLRANGE">
                       <a:rPr lang="zh-CN" altLang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -11030,82 +11034,82 @@
                 <c15:dlblRangeCache>
                   <c:ptCount val="26"/>
                   <c:pt idx="0">
-                    <c:v>[40]</c:v>
+                    <c:v>[43]</c:v>
                   </c:pt>
                   <c:pt idx="1">
+                    <c:v>[41]</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>[27]</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>[17]</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
                     <c:v>[38]</c:v>
                   </c:pt>
-                  <c:pt idx="2">
-                    <c:v>[24]</c:v>
-                  </c:pt>
-                  <c:pt idx="3">
-                    <c:v>[14]</c:v>
-                  </c:pt>
-                  <c:pt idx="4">
-                    <c:v>[35]</c:v>
-                  </c:pt>
                   <c:pt idx="5">
-                    <c:v>[54]</c:v>
+                    <c:v>[57]</c:v>
                   </c:pt>
                   <c:pt idx="6">
-                    <c:v>[32]</c:v>
+                    <c:v>[35]</c:v>
                   </c:pt>
                   <c:pt idx="7">
                     <c:v>[13]</c:v>
                   </c:pt>
                   <c:pt idx="8">
-                    <c:v>[16]</c:v>
+                    <c:v>[19]</c:v>
                   </c:pt>
                   <c:pt idx="9">
-                    <c:v>[50]</c:v>
+                    <c:v>[53]</c:v>
                   </c:pt>
                   <c:pt idx="10">
-                    <c:v>[50]</c:v>
+                    <c:v>[53]</c:v>
                   </c:pt>
                   <c:pt idx="11">
-                    <c:v>[57]</c:v>
+                    <c:v>[61]</c:v>
                   </c:pt>
                   <c:pt idx="12">
-                    <c:v>[72]</c:v>
+                    <c:v>[77]</c:v>
                   </c:pt>
                   <c:pt idx="13">
-                    <c:v>[46]</c:v>
+                    <c:v>[49]</c:v>
                   </c:pt>
                   <c:pt idx="14">
-                    <c:v>[11]</c:v>
+                    <c:v>[14]</c:v>
                   </c:pt>
                   <c:pt idx="15">
-                    <c:v>[33]</c:v>
+                    <c:v>[36]</c:v>
                   </c:pt>
                   <c:pt idx="16">
-                    <c:v>[27]</c:v>
+                    <c:v>[30]</c:v>
                   </c:pt>
                   <c:pt idx="17">
-                    <c:v>[71]</c:v>
+                    <c:v>[76]</c:v>
                   </c:pt>
                   <c:pt idx="18">
-                    <c:v>[65]</c:v>
+                    <c:v>[70]</c:v>
                   </c:pt>
                   <c:pt idx="19">
-                    <c:v>[68]</c:v>
+                    <c:v>[73]</c:v>
                   </c:pt>
                   <c:pt idx="20">
-                    <c:v>[5]</c:v>
+                    <c:v>[7]</c:v>
                   </c:pt>
                   <c:pt idx="21">
-                    <c:v>[44]</c:v>
+                    <c:v>[47]</c:v>
                   </c:pt>
                   <c:pt idx="22">
-                    <c:v>[70]</c:v>
+                    <c:v>[75]</c:v>
                   </c:pt>
                   <c:pt idx="23">
-                    <c:v>[72]</c:v>
+                    <c:v>[77]</c:v>
                   </c:pt>
                   <c:pt idx="24">
-                    <c:v>[69]</c:v>
+                    <c:v>[74]</c:v>
                   </c:pt>
                   <c:pt idx="25">
-                    <c:v>[12]</c:v>
+                    <c:v>[15]</c:v>
                   </c:pt>
                 </c15:dlblRangeCache>
               </c15:datalabelsRange>
@@ -11644,7 +11648,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{4BFE932D-9C6A-4ECA-BF63-A19E8E56F0AD}" type="CELLRANGE">
+                    <a:fld id="{2F696503-9B57-417C-8831-7CA21E3B24ED}" type="CELLRANGE">
                       <a:rPr lang="zh-CN" altLang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -12062,82 +12066,82 @@
                 <c15:dlblRangeCache>
                   <c:ptCount val="26"/>
                   <c:pt idx="0">
-                    <c:v>[40]</c:v>
+                    <c:v>[43]</c:v>
                   </c:pt>
                   <c:pt idx="1">
+                    <c:v>[41]</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>[27]</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>[17]</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
                     <c:v>[38]</c:v>
                   </c:pt>
-                  <c:pt idx="2">
-                    <c:v>[24]</c:v>
-                  </c:pt>
-                  <c:pt idx="3">
-                    <c:v>[14]</c:v>
-                  </c:pt>
-                  <c:pt idx="4">
-                    <c:v>[35]</c:v>
-                  </c:pt>
                   <c:pt idx="5">
-                    <c:v>[54]</c:v>
+                    <c:v>[57]</c:v>
                   </c:pt>
                   <c:pt idx="6">
-                    <c:v>[32]</c:v>
+                    <c:v>[35]</c:v>
                   </c:pt>
                   <c:pt idx="7">
                     <c:v>[13]</c:v>
                   </c:pt>
                   <c:pt idx="8">
-                    <c:v>[16]</c:v>
+                    <c:v>[19]</c:v>
                   </c:pt>
                   <c:pt idx="9">
-                    <c:v>[50]</c:v>
+                    <c:v>[53]</c:v>
                   </c:pt>
                   <c:pt idx="10">
-                    <c:v>[50]</c:v>
+                    <c:v>[53]</c:v>
                   </c:pt>
                   <c:pt idx="11">
-                    <c:v>[57]</c:v>
+                    <c:v>[61]</c:v>
                   </c:pt>
                   <c:pt idx="12">
-                    <c:v>[72]</c:v>
+                    <c:v>[77]</c:v>
                   </c:pt>
                   <c:pt idx="13">
-                    <c:v>[46]</c:v>
+                    <c:v>[49]</c:v>
                   </c:pt>
                   <c:pt idx="14">
-                    <c:v>[11]</c:v>
+                    <c:v>[14]</c:v>
                   </c:pt>
                   <c:pt idx="15">
-                    <c:v>[33]</c:v>
+                    <c:v>[36]</c:v>
                   </c:pt>
                   <c:pt idx="16">
-                    <c:v>[27]</c:v>
+                    <c:v>[30]</c:v>
                   </c:pt>
                   <c:pt idx="17">
-                    <c:v>[71]</c:v>
+                    <c:v>[76]</c:v>
                   </c:pt>
                   <c:pt idx="18">
-                    <c:v>[65]</c:v>
+                    <c:v>[70]</c:v>
                   </c:pt>
                   <c:pt idx="19">
-                    <c:v>[68]</c:v>
+                    <c:v>[73]</c:v>
                   </c:pt>
                   <c:pt idx="20">
-                    <c:v>[5]</c:v>
+                    <c:v>[7]</c:v>
                   </c:pt>
                   <c:pt idx="21">
-                    <c:v>[44]</c:v>
+                    <c:v>[47]</c:v>
                   </c:pt>
                   <c:pt idx="22">
-                    <c:v>[70]</c:v>
+                    <c:v>[75]</c:v>
                   </c:pt>
                   <c:pt idx="23">
-                    <c:v>[72]</c:v>
+                    <c:v>[77]</c:v>
                   </c:pt>
                   <c:pt idx="24">
-                    <c:v>[69]</c:v>
+                    <c:v>[74]</c:v>
                   </c:pt>
                   <c:pt idx="25">
-                    <c:v>[12]</c:v>
+                    <c:v>[15]</c:v>
                   </c:pt>
                 </c15:dlblRangeCache>
               </c15:datalabelsRange>
@@ -13128,82 +13132,82 @@
                 <c15:dlblRangeCache>
                   <c:ptCount val="26"/>
                   <c:pt idx="0">
-                    <c:v>[40]</c:v>
+                    <c:v>[43]</c:v>
                   </c:pt>
                   <c:pt idx="1">
+                    <c:v>[41]</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>[27]</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>[17]</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
                     <c:v>[38]</c:v>
                   </c:pt>
-                  <c:pt idx="2">
-                    <c:v>[24]</c:v>
-                  </c:pt>
-                  <c:pt idx="3">
-                    <c:v>[14]</c:v>
-                  </c:pt>
-                  <c:pt idx="4">
-                    <c:v>[35]</c:v>
-                  </c:pt>
                   <c:pt idx="5">
-                    <c:v>[54]</c:v>
+                    <c:v>[57]</c:v>
                   </c:pt>
                   <c:pt idx="6">
-                    <c:v>[32]</c:v>
+                    <c:v>[35]</c:v>
                   </c:pt>
                   <c:pt idx="7">
                     <c:v>[13]</c:v>
                   </c:pt>
                   <c:pt idx="8">
-                    <c:v>[16]</c:v>
+                    <c:v>[19]</c:v>
                   </c:pt>
                   <c:pt idx="9">
-                    <c:v>[50]</c:v>
+                    <c:v>[53]</c:v>
                   </c:pt>
                   <c:pt idx="10">
-                    <c:v>[50]</c:v>
+                    <c:v>[53]</c:v>
                   </c:pt>
                   <c:pt idx="11">
-                    <c:v>[57]</c:v>
+                    <c:v>[61]</c:v>
                   </c:pt>
                   <c:pt idx="12">
-                    <c:v>[72]</c:v>
+                    <c:v>[77]</c:v>
                   </c:pt>
                   <c:pt idx="13">
-                    <c:v>[46]</c:v>
+                    <c:v>[49]</c:v>
                   </c:pt>
                   <c:pt idx="14">
-                    <c:v>[11]</c:v>
+                    <c:v>[14]</c:v>
                   </c:pt>
                   <c:pt idx="15">
-                    <c:v>[33]</c:v>
+                    <c:v>[36]</c:v>
                   </c:pt>
                   <c:pt idx="16">
-                    <c:v>[27]</c:v>
+                    <c:v>[30]</c:v>
                   </c:pt>
                   <c:pt idx="17">
-                    <c:v>[71]</c:v>
+                    <c:v>[76]</c:v>
                   </c:pt>
                   <c:pt idx="18">
-                    <c:v>[65]</c:v>
+                    <c:v>[70]</c:v>
                   </c:pt>
                   <c:pt idx="19">
-                    <c:v>[68]</c:v>
+                    <c:v>[73]</c:v>
                   </c:pt>
                   <c:pt idx="20">
-                    <c:v>[5]</c:v>
+                    <c:v>[7]</c:v>
                   </c:pt>
                   <c:pt idx="21">
-                    <c:v>[44]</c:v>
+                    <c:v>[47]</c:v>
                   </c:pt>
                   <c:pt idx="22">
-                    <c:v>[70]</c:v>
+                    <c:v>[75]</c:v>
                   </c:pt>
                   <c:pt idx="23">
-                    <c:v>[72]</c:v>
+                    <c:v>[77]</c:v>
                   </c:pt>
                   <c:pt idx="24">
-                    <c:v>[69]</c:v>
+                    <c:v>[74]</c:v>
                   </c:pt>
                   <c:pt idx="25">
-                    <c:v>[12]</c:v>
+                    <c:v>[15]</c:v>
                   </c:pt>
                 </c15:dlblRangeCache>
               </c15:datalabelsRange>
@@ -13873,7 +13877,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{5B9330D7-8768-4DDF-9D2A-B6F786AB9AF2}" type="CELLRANGE">
+                    <a:fld id="{A0D9B140-E656-49B8-848C-0D327D4EE1D7}" type="CELLRANGE">
                       <a:rPr lang="zh-CN" altLang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -13908,7 +13912,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{B20C2E50-4CE5-4787-89F8-5E54AFB7A262}" type="CELLRANGE">
+                    <a:fld id="{62084E0C-A6D4-4C49-A6DE-B43A854C4A17}" type="CELLRANGE">
                       <a:rPr lang="zh-CN" altLang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -14215,82 +14219,82 @@
                 <c15:dlblRangeCache>
                   <c:ptCount val="26"/>
                   <c:pt idx="0">
-                    <c:v>[40]</c:v>
+                    <c:v>[43]</c:v>
                   </c:pt>
                   <c:pt idx="1">
+                    <c:v>[41]</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>[27]</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>[17]</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
                     <c:v>[38]</c:v>
                   </c:pt>
-                  <c:pt idx="2">
-                    <c:v>[24]</c:v>
-                  </c:pt>
-                  <c:pt idx="3">
-                    <c:v>[14]</c:v>
-                  </c:pt>
-                  <c:pt idx="4">
-                    <c:v>[35]</c:v>
-                  </c:pt>
                   <c:pt idx="5">
-                    <c:v>[54]</c:v>
+                    <c:v>[57]</c:v>
                   </c:pt>
                   <c:pt idx="6">
-                    <c:v>[32]</c:v>
+                    <c:v>[35]</c:v>
                   </c:pt>
                   <c:pt idx="7">
                     <c:v>[13]</c:v>
                   </c:pt>
                   <c:pt idx="8">
-                    <c:v>[16]</c:v>
+                    <c:v>[19]</c:v>
                   </c:pt>
                   <c:pt idx="9">
-                    <c:v>[50]</c:v>
+                    <c:v>[53]</c:v>
                   </c:pt>
                   <c:pt idx="10">
-                    <c:v>[50]</c:v>
+                    <c:v>[53]</c:v>
                   </c:pt>
                   <c:pt idx="11">
-                    <c:v>[57]</c:v>
+                    <c:v>[61]</c:v>
                   </c:pt>
                   <c:pt idx="12">
-                    <c:v>[72]</c:v>
+                    <c:v>[77]</c:v>
                   </c:pt>
                   <c:pt idx="13">
-                    <c:v>[46]</c:v>
+                    <c:v>[49]</c:v>
                   </c:pt>
                   <c:pt idx="14">
-                    <c:v>[11]</c:v>
+                    <c:v>[14]</c:v>
                   </c:pt>
                   <c:pt idx="15">
-                    <c:v>[33]</c:v>
+                    <c:v>[36]</c:v>
                   </c:pt>
                   <c:pt idx="16">
-                    <c:v>[27]</c:v>
+                    <c:v>[30]</c:v>
                   </c:pt>
                   <c:pt idx="17">
-                    <c:v>[71]</c:v>
+                    <c:v>[76]</c:v>
                   </c:pt>
                   <c:pt idx="18">
-                    <c:v>[65]</c:v>
+                    <c:v>[70]</c:v>
                   </c:pt>
                   <c:pt idx="19">
-                    <c:v>[68]</c:v>
+                    <c:v>[73]</c:v>
                   </c:pt>
                   <c:pt idx="20">
-                    <c:v>[5]</c:v>
+                    <c:v>[7]</c:v>
                   </c:pt>
                   <c:pt idx="21">
-                    <c:v>[44]</c:v>
+                    <c:v>[47]</c:v>
                   </c:pt>
                   <c:pt idx="22">
-                    <c:v>[70]</c:v>
+                    <c:v>[75]</c:v>
                   </c:pt>
                   <c:pt idx="23">
-                    <c:v>[72]</c:v>
+                    <c:v>[77]</c:v>
                   </c:pt>
                   <c:pt idx="24">
-                    <c:v>[69]</c:v>
+                    <c:v>[74]</c:v>
                   </c:pt>
                   <c:pt idx="25">
-                    <c:v>[12]</c:v>
+                    <c:v>[15]</c:v>
                   </c:pt>
                 </c15:dlblRangeCache>
               </c15:datalabelsRange>
@@ -15296,82 +15300,82 @@
                 <c15:dlblRangeCache>
                   <c:ptCount val="31"/>
                   <c:pt idx="0">
-                    <c:v>[40]</c:v>
+                    <c:v>[43]</c:v>
                   </c:pt>
                   <c:pt idx="1">
+                    <c:v>[41]</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>[27]</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>[17]</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
                     <c:v>[38]</c:v>
                   </c:pt>
-                  <c:pt idx="2">
-                    <c:v>[24]</c:v>
-                  </c:pt>
-                  <c:pt idx="3">
-                    <c:v>[14]</c:v>
-                  </c:pt>
-                  <c:pt idx="4">
-                    <c:v>[35]</c:v>
-                  </c:pt>
                   <c:pt idx="5">
-                    <c:v>[54]</c:v>
+                    <c:v>[57]</c:v>
                   </c:pt>
                   <c:pt idx="6">
-                    <c:v>[32]</c:v>
+                    <c:v>[35]</c:v>
                   </c:pt>
                   <c:pt idx="7">
                     <c:v>[13]</c:v>
                   </c:pt>
                   <c:pt idx="8">
-                    <c:v>[16]</c:v>
+                    <c:v>[19]</c:v>
                   </c:pt>
                   <c:pt idx="9">
-                    <c:v>[50]</c:v>
+                    <c:v>[53]</c:v>
                   </c:pt>
                   <c:pt idx="10">
-                    <c:v>[50]</c:v>
+                    <c:v>[53]</c:v>
                   </c:pt>
                   <c:pt idx="11">
-                    <c:v>[57]</c:v>
+                    <c:v>[61]</c:v>
                   </c:pt>
                   <c:pt idx="12">
-                    <c:v>[72]</c:v>
+                    <c:v>[77]</c:v>
                   </c:pt>
                   <c:pt idx="13">
-                    <c:v>[46]</c:v>
+                    <c:v>[49]</c:v>
                   </c:pt>
                   <c:pt idx="14">
-                    <c:v>[11]</c:v>
+                    <c:v>[14]</c:v>
                   </c:pt>
                   <c:pt idx="15">
-                    <c:v>[33]</c:v>
+                    <c:v>[36]</c:v>
                   </c:pt>
                   <c:pt idx="16">
-                    <c:v>[27]</c:v>
+                    <c:v>[30]</c:v>
                   </c:pt>
                   <c:pt idx="17">
-                    <c:v>[71]</c:v>
+                    <c:v>[76]</c:v>
                   </c:pt>
                   <c:pt idx="18">
-                    <c:v>[65]</c:v>
+                    <c:v>[70]</c:v>
                   </c:pt>
                   <c:pt idx="19">
-                    <c:v>[68]</c:v>
+                    <c:v>[73]</c:v>
                   </c:pt>
                   <c:pt idx="20">
-                    <c:v>[5]</c:v>
+                    <c:v>[7]</c:v>
                   </c:pt>
                   <c:pt idx="21">
-                    <c:v>[44]</c:v>
+                    <c:v>[47]</c:v>
                   </c:pt>
                   <c:pt idx="22">
-                    <c:v>[70]</c:v>
+                    <c:v>[75]</c:v>
                   </c:pt>
                   <c:pt idx="23">
-                    <c:v>[72]</c:v>
+                    <c:v>[77]</c:v>
                   </c:pt>
                   <c:pt idx="24">
-                    <c:v>[69]</c:v>
+                    <c:v>[74]</c:v>
                   </c:pt>
                   <c:pt idx="25">
-                    <c:v>[12]</c:v>
+                    <c:v>[15]</c:v>
                   </c:pt>
                   <c:pt idx="26">
                     <c:v>Nvidia TX1(batch-1)</c:v>
@@ -25324,8 +25328,8 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A1" s="46"/>
-      <c r="B1" s="47"/>
+      <c r="A1" s="62"/>
+      <c r="B1" s="44"/>
       <c r="C1" s="15" t="s">
         <v>304</v>
       </c>
@@ -25341,33 +25345,33 @@
       <c r="G1" s="37" t="s">
         <v>370</v>
       </c>
-      <c r="H1" s="53" t="s">
+      <c r="H1" s="58" t="s">
         <v>297</v>
       </c>
-      <c r="I1" s="53"/>
-      <c r="J1" s="54"/>
+      <c r="I1" s="58"/>
+      <c r="J1" s="59"/>
       <c r="K1" s="39" t="s">
         <v>372</v>
       </c>
-      <c r="L1" s="51" t="s">
+      <c r="L1" s="56" t="s">
         <v>293</v>
       </c>
-      <c r="M1" s="47" t="s">
+      <c r="M1" s="44" t="s">
         <v>0</v>
       </c>
-      <c r="N1" s="47" t="s">
+      <c r="N1" s="44" t="s">
         <v>306</v>
       </c>
-      <c r="O1" s="47" t="s">
+      <c r="O1" s="44" t="s">
         <v>317</v>
       </c>
-      <c r="P1" s="55" t="s">
+      <c r="P1" s="52" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A2" s="46"/>
-      <c r="B2" s="48"/>
+      <c r="A2" s="62"/>
+      <c r="B2" s="45"/>
       <c r="C2" s="16" t="s">
         <v>305</v>
       </c>
@@ -25395,11 +25399,11 @@
       <c r="K2" s="31" t="s">
         <v>373</v>
       </c>
-      <c r="L2" s="52"/>
-      <c r="M2" s="48"/>
-      <c r="N2" s="48"/>
-      <c r="O2" s="48"/>
-      <c r="P2" s="56"/>
+      <c r="L2" s="57"/>
+      <c r="M2" s="45"/>
+      <c r="N2" s="45"/>
+      <c r="O2" s="45"/>
+      <c r="P2" s="53"/>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
@@ -25594,10 +25598,10 @@
       </c>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A7" s="47" t="s">
+      <c r="A7" s="44" t="s">
         <v>349</v>
       </c>
-      <c r="B7" s="47"/>
+      <c r="B7" s="44"/>
       <c r="C7" s="5" t="s">
         <v>324</v>
       </c>
@@ -25625,25 +25629,25 @@
       <c r="K7" s="30">
         <v>20</v>
       </c>
-      <c r="L7" s="47" t="s">
+      <c r="L7" s="44" t="s">
         <v>289</v>
       </c>
-      <c r="M7" s="47" t="s">
+      <c r="M7" s="44" t="s">
         <v>113</v>
       </c>
-      <c r="N7" s="47" t="s">
+      <c r="N7" s="44" t="s">
         <v>307</v>
       </c>
-      <c r="O7" s="47">
+      <c r="O7" s="44">
         <v>17</v>
       </c>
-      <c r="P7" s="57" t="s">
+      <c r="P7" s="46" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A8" s="48"/>
-      <c r="B8" s="48"/>
+      <c r="A8" s="45"/>
+      <c r="B8" s="45"/>
       <c r="C8" s="9" t="s">
         <v>325</v>
       </c>
@@ -25671,11 +25675,11 @@
       <c r="K8" s="30">
         <v>20</v>
       </c>
-      <c r="L8" s="48"/>
-      <c r="M8" s="48"/>
-      <c r="N8" s="48"/>
-      <c r="O8" s="48"/>
-      <c r="P8" s="58"/>
+      <c r="L8" s="45"/>
+      <c r="M8" s="45"/>
+      <c r="N8" s="45"/>
+      <c r="O8" s="45"/>
+      <c r="P8" s="47"/>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
@@ -26248,72 +26252,72 @@
       </c>
     </row>
     <row r="21" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A21" s="47" t="s">
+      <c r="A21" s="44" t="s">
         <v>354</v>
       </c>
-      <c r="B21" s="47"/>
-      <c r="C21" s="47" t="s">
+      <c r="B21" s="44"/>
+      <c r="C21" s="44" t="s">
         <v>207</v>
       </c>
-      <c r="D21" s="49">
+      <c r="D21" s="63">
         <v>1280.3</v>
       </c>
-      <c r="E21" s="59">
+      <c r="E21" s="48">
         <v>160</v>
       </c>
-      <c r="F21" s="61">
+      <c r="F21" s="50">
         <v>8</v>
       </c>
-      <c r="G21" s="63">
+      <c r="G21" s="54">
         <v>150</v>
       </c>
-      <c r="H21" s="47" t="s">
+      <c r="H21" s="44" t="s">
         <v>336</v>
       </c>
-      <c r="I21" s="47" t="s">
+      <c r="I21" s="44" t="s">
         <v>337</v>
       </c>
-      <c r="J21" s="55" t="s">
+      <c r="J21" s="52" t="s">
         <v>338</v>
       </c>
-      <c r="K21" s="47">
+      <c r="K21" s="44">
         <v>28</v>
       </c>
       <c r="L21" s="10" t="s">
         <v>322</v>
       </c>
-      <c r="M21" s="47" t="s">
+      <c r="M21" s="44" t="s">
         <v>179</v>
       </c>
-      <c r="N21" s="47" t="s">
+      <c r="N21" s="44" t="s">
         <v>311</v>
       </c>
-      <c r="O21" s="47">
+      <c r="O21" s="44">
         <v>16</v>
       </c>
-      <c r="P21" s="57" t="s">
+      <c r="P21" s="46" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="22" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A22" s="48"/>
-      <c r="B22" s="48"/>
-      <c r="C22" s="48"/>
-      <c r="D22" s="50"/>
-      <c r="E22" s="60"/>
-      <c r="F22" s="62"/>
-      <c r="G22" s="64"/>
-      <c r="H22" s="48"/>
-      <c r="I22" s="48"/>
-      <c r="J22" s="56"/>
-      <c r="K22" s="48"/>
+      <c r="A22" s="45"/>
+      <c r="B22" s="45"/>
+      <c r="C22" s="45"/>
+      <c r="D22" s="64"/>
+      <c r="E22" s="49"/>
+      <c r="F22" s="51"/>
+      <c r="G22" s="55"/>
+      <c r="H22" s="45"/>
+      <c r="I22" s="45"/>
+      <c r="J22" s="53"/>
+      <c r="K22" s="45"/>
       <c r="L22" s="11" t="s">
         <v>323</v>
       </c>
-      <c r="M22" s="48"/>
-      <c r="N22" s="48"/>
-      <c r="O22" s="48"/>
-      <c r="P22" s="58"/>
+      <c r="M22" s="45"/>
+      <c r="N22" s="45"/>
+      <c r="O22" s="45"/>
+      <c r="P22" s="47"/>
     </row>
     <row r="23" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
@@ -26508,12 +26512,12 @@
       </c>
     </row>
     <row r="27" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="C27" s="44" t="s">
+      <c r="C27" s="60" t="s">
         <v>387</v>
       </c>
     </row>
     <row r="28" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="C28" s="45"/>
+      <c r="C28" s="61"/>
     </row>
     <row r="32" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C32" s="17"/>
@@ -26532,6 +26536,26 @@
     </row>
   </sheetData>
   <mergeCells count="31">
+    <mergeCell ref="C27:C28"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="A21:A22"/>
+    <mergeCell ref="C21:C22"/>
+    <mergeCell ref="D21:D22"/>
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="B7:B8"/>
+    <mergeCell ref="B21:B22"/>
+    <mergeCell ref="M1:M2"/>
+    <mergeCell ref="L1:L2"/>
+    <mergeCell ref="H1:J1"/>
+    <mergeCell ref="P1:P2"/>
+    <mergeCell ref="N1:N2"/>
+    <mergeCell ref="O1:O2"/>
+    <mergeCell ref="L7:L8"/>
+    <mergeCell ref="M7:M8"/>
+    <mergeCell ref="N7:N8"/>
+    <mergeCell ref="O7:O8"/>
+    <mergeCell ref="P7:P8"/>
     <mergeCell ref="M21:M22"/>
     <mergeCell ref="N21:N22"/>
     <mergeCell ref="O21:O22"/>
@@ -26543,26 +26567,6 @@
     <mergeCell ref="J21:J22"/>
     <mergeCell ref="G21:G22"/>
     <mergeCell ref="K21:K22"/>
-    <mergeCell ref="L7:L8"/>
-    <mergeCell ref="M7:M8"/>
-    <mergeCell ref="N7:N8"/>
-    <mergeCell ref="O7:O8"/>
-    <mergeCell ref="P7:P8"/>
-    <mergeCell ref="M1:M2"/>
-    <mergeCell ref="L1:L2"/>
-    <mergeCell ref="H1:J1"/>
-    <mergeCell ref="P1:P2"/>
-    <mergeCell ref="N1:N2"/>
-    <mergeCell ref="O1:O2"/>
-    <mergeCell ref="C27:C28"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="A21:A22"/>
-    <mergeCell ref="C21:C22"/>
-    <mergeCell ref="D21:D22"/>
-    <mergeCell ref="A7:A8"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="B7:B8"/>
-    <mergeCell ref="B21:B22"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -26576,7 +26580,7 @@
   <dimension ref="A1:W32"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="P22" sqref="P22"/>
+      <selection activeCell="P7" sqref="P7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -26684,7 +26688,7 @@
       <c r="O2" s="27"/>
       <c r="P2" s="27"/>
       <c r="Q2" s="29" t="s">
-        <v>402</v>
+        <v>394</v>
       </c>
       <c r="R2" s="29" t="s">
         <v>318</v>
@@ -26726,7 +26730,7 @@
       <c r="O3" s="27"/>
       <c r="P3" s="27"/>
       <c r="Q3" s="29" t="s">
-        <v>403</v>
+        <v>395</v>
       </c>
       <c r="R3" s="29" t="s">
         <v>343</v>
@@ -26768,7 +26772,7 @@
       <c r="O4" s="27"/>
       <c r="P4" s="27"/>
       <c r="Q4" s="29" t="s">
-        <v>389</v>
+        <v>392</v>
       </c>
       <c r="R4" s="29" t="s">
         <v>339</v>
@@ -26810,7 +26814,7 @@
       <c r="O5" s="27"/>
       <c r="P5" s="27"/>
       <c r="Q5" s="29" t="s">
-        <v>407</v>
+        <v>396</v>
       </c>
       <c r="R5" s="29" t="s">
         <v>340</v>
@@ -26853,7 +26857,7 @@
       <c r="O6" s="27"/>
       <c r="P6" s="27"/>
       <c r="Q6" s="29" t="s">
-        <v>395</v>
+        <v>391</v>
       </c>
       <c r="R6" s="29" t="s">
         <v>345</v>
@@ -26895,7 +26899,7 @@
       <c r="O7" s="27"/>
       <c r="P7" s="27"/>
       <c r="Q7" s="29" t="s">
-        <v>397</v>
+        <v>389</v>
       </c>
       <c r="R7" s="29" t="s">
         <v>346</v>
@@ -26937,7 +26941,7 @@
       <c r="O8" s="27"/>
       <c r="P8" s="27"/>
       <c r="Q8" s="29" t="s">
-        <v>405</v>
+        <v>397</v>
       </c>
       <c r="R8" s="29" t="s">
         <v>347</v>
@@ -27021,7 +27025,7 @@
       <c r="O10" s="27"/>
       <c r="P10" s="27"/>
       <c r="Q10" s="29" t="s">
-        <v>392</v>
+        <v>398</v>
       </c>
       <c r="R10" s="29" t="s">
         <v>348</v>
@@ -27063,7 +27067,7 @@
       <c r="O11" s="27"/>
       <c r="P11" s="27"/>
       <c r="Q11" s="29" t="s">
-        <v>411</v>
+        <v>399</v>
       </c>
       <c r="R11" s="29" t="s">
         <v>382</v>
@@ -27105,7 +27109,7 @@
       <c r="O12" s="27"/>
       <c r="P12" s="27"/>
       <c r="Q12" s="29" t="s">
-        <v>412</v>
+        <v>400</v>
       </c>
       <c r="R12" s="29" t="s">
         <v>382</v>
@@ -27147,7 +27151,7 @@
       <c r="O13" s="27"/>
       <c r="P13" s="27"/>
       <c r="Q13" s="29" t="s">
-        <v>390</v>
+        <v>401</v>
       </c>
       <c r="R13" s="29" t="s">
         <v>320</v>
@@ -27189,7 +27193,7 @@
       <c r="O14" s="27"/>
       <c r="P14" s="27"/>
       <c r="Q14" s="29" t="s">
-        <v>394</v>
+        <v>402</v>
       </c>
       <c r="R14" s="29" t="s">
         <v>385</v>
@@ -27231,7 +27235,7 @@
       <c r="O15" s="27"/>
       <c r="P15" s="27"/>
       <c r="Q15" s="29" t="s">
-        <v>396</v>
+        <v>403</v>
       </c>
       <c r="R15" s="29" t="s">
         <v>350</v>
@@ -27273,7 +27277,7 @@
       <c r="O16" s="27"/>
       <c r="P16" s="27"/>
       <c r="Q16" s="29" t="s">
-        <v>399</v>
+        <v>393</v>
       </c>
       <c r="R16" s="29" t="s">
         <v>351</v>
@@ -27315,7 +27319,7 @@
       <c r="O17" s="27"/>
       <c r="P17" s="27"/>
       <c r="Q17" s="29" t="s">
-        <v>400</v>
+        <v>404</v>
       </c>
       <c r="R17" s="29" t="s">
         <v>352</v>
@@ -27357,7 +27361,7 @@
       <c r="O18" s="27"/>
       <c r="P18" s="27"/>
       <c r="Q18" s="29" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="R18" s="29" t="s">
         <v>353</v>
@@ -27441,7 +27445,7 @@
       <c r="O20" s="27"/>
       <c r="P20" s="27"/>
       <c r="Q20" s="29" t="s">
-        <v>408</v>
+        <v>390</v>
       </c>
       <c r="R20" s="29" t="s">
         <v>355</v>
@@ -27483,7 +27487,7 @@
       <c r="O21" s="27"/>
       <c r="P21" s="27"/>
       <c r="Q21" s="29" t="s">
-        <v>410</v>
+        <v>407</v>
       </c>
       <c r="R21" s="29" t="s">
         <v>356</v>
@@ -27525,7 +27529,7 @@
       <c r="O22" s="27"/>
       <c r="P22" s="27"/>
       <c r="Q22" s="29" t="s">
-        <v>391</v>
+        <v>408</v>
       </c>
       <c r="R22" s="29" t="s">
         <v>319</v>
@@ -27567,7 +27571,7 @@
       <c r="O23" s="27"/>
       <c r="P23" s="27"/>
       <c r="Q23" s="29" t="s">
-        <v>401</v>
+        <v>409</v>
       </c>
       <c r="R23" s="29" t="s">
         <v>357</v>
@@ -27609,7 +27613,7 @@
       <c r="O24" s="27"/>
       <c r="P24" s="27"/>
       <c r="Q24" s="29" t="s">
-        <v>393</v>
+        <v>410</v>
       </c>
       <c r="R24" s="29" t="s">
         <v>386</v>
@@ -27651,7 +27655,7 @@
       <c r="O25" s="27"/>
       <c r="P25" s="27"/>
       <c r="Q25" s="29" t="s">
-        <v>394</v>
+        <v>411</v>
       </c>
       <c r="R25" s="29" t="s">
         <v>385</v>
@@ -27689,7 +27693,7 @@
       <c r="O26" s="27"/>
       <c r="P26" s="27"/>
       <c r="Q26" s="29" t="s">
-        <v>398</v>
+        <v>412</v>
       </c>
       <c r="R26" s="29" t="s">
         <v>359</v>
@@ -27719,7 +27723,7 @@
       <c r="O27" s="27"/>
       <c r="P27" s="27"/>
       <c r="Q27" s="29" t="s">
-        <v>409</v>
+        <v>413</v>
       </c>
       <c r="R27" s="29" t="s">
         <v>360</v>
